--- a/Income And Expenses Forecast Demo.xlsx
+++ b/Income And Expenses Forecast Demo.xlsx
@@ -441,7 +441,9 @@
   </si>
   <si>
     <t>~ See the Doctor (Injection) ~ $19
-~ See the Doctor For Blood Pressure ~ $50</t>
+~ See the Doctor For Blood Pressure ~ $50
+~ Brought Lasix 40mg ~ $75
+~ Brought Bandage 4 inches X 2 ~ $10</t>
   </si>
   <si>
     <t>~ Buy Cigarette Buds ~ $800</t>
@@ -451,7 +453,7 @@
 ~ Top Up For Mobile And Comunication ~ $0.6</t>
   </si>
   <si>
-    <t>~ Food And Transport ~ $400
+    <t>~ Food And Transport
    - Devondale Milk X 2 ~ $35.8
    - Chicken Chops X 2 ~ $21
    - Vegetables 1 kg ~ $12</t>
@@ -459,7 +461,8 @@
   <si>
     <t>~ Nvedia body lotion 380ml ~ $32
 ~ Longevity Sweetened Milk 374GM ~ $11
-~ Market Slippers ~ $69</t>
+~ Market Slippers ~ $69
+~ Round Trip to Mong Kok ~ $6</t>
   </si>
   <si>
     <t>Balance Brought Forward From July 2024</t>
@@ -4825,7 +4828,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4841,7 +4844,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>9440.92</v>
+        <v>9339.92</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4857,7 +4860,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>10868.55</v>
+        <v>10666.55</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6678,7 +6681,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>7604.89</v>
+        <v>7503.89</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6950,7 +6953,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>8179.9</v>
+        <v>8078.9</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -7042,7 +7045,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>8179.9</v>
+        <v>8078.9</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -7314,7 +7317,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>8865.91</v>
+        <v>8764.91</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7406,7 +7409,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>8865.91</v>
+        <v>8764.91</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7678,7 +7681,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>9440.92</v>
+        <v>9339.92</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8194,7 +8197,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -8210,7 +8213,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>11547.95</v>
+        <v>11446.95</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8226,7 +8229,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>12975.58</v>
+        <v>12773.58</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -10047,7 +10050,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>9440.92</v>
+        <v>9339.92</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -10319,7 +10322,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>10286.93</v>
+        <v>10185.93</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10411,7 +10414,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>10286.93</v>
+        <v>10185.93</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10683,7 +10686,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>10701.94</v>
+        <v>10600.94</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10775,7 +10778,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>10701.94</v>
+        <v>10600.94</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -11047,7 +11050,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>11547.95</v>
+        <v>11446.95</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11559,7 +11562,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11575,7 +11578,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>15847.95</v>
+        <v>15746.95</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11591,7 +11594,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>17275.58</v>
+        <v>17073.58</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -13416,7 +13419,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>11547.95</v>
+        <v>11446.95</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13688,7 +13691,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>12763.95</v>
+        <v>12662.95</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13780,7 +13783,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>12763.95</v>
+        <v>12662.95</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -14052,7 +14055,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>14631.95</v>
+        <v>14530.95</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -14144,7 +14147,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>14631.95</v>
+        <v>14530.95</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -14416,7 +14419,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>15847.95</v>
+        <v>15746.95</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -14926,7 +14929,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -14942,7 +14945,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>17683.98</v>
+        <v>17582.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -14958,7 +14961,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>19111.61</v>
+        <v>18909.61</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -16779,7 +16782,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>15847.95</v>
+        <v>15746.95</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -17051,7 +17054,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>16422.96</v>
+        <v>16321.96</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -17143,7 +17146,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>16422.96</v>
+        <v>16321.96</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -17415,7 +17418,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>17108.97</v>
+        <v>17007.97</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17507,7 +17510,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>17108.97</v>
+        <v>17007.97</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17779,7 +17782,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>17683.98</v>
+        <v>17582.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18296,7 +18299,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -18312,7 +18315,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>19791.01</v>
+        <v>19690.01</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18328,7 +18331,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>21218.64</v>
+        <v>21016.64</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -20149,7 +20152,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>17683.98</v>
+        <v>17582.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -20421,7 +20424,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>18529.99</v>
+        <v>18428.99</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20513,7 +20516,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>18529.99</v>
+        <v>18428.99</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20785,7 +20788,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>18945</v>
+        <v>18844</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20877,7 +20880,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>18945</v>
+        <v>18844</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -21149,7 +21152,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>19791.01</v>
+        <v>19690.01</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21659,7 +21662,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -21675,7 +21678,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>21717.04</v>
+        <v>21616.04</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21691,7 +21694,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>23144.67</v>
+        <v>22942.67</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -23512,7 +23515,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>19791.01</v>
+        <v>19690.01</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23784,7 +23787,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>20416.02</v>
+        <v>20315.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23876,7 +23879,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>20416.02</v>
+        <v>20315.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -24148,7 +24151,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>21102.03</v>
+        <v>21001.03</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24240,7 +24243,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>21102.03</v>
+        <v>21001.03</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24512,7 +24515,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>21717.04</v>
+        <v>21616.04</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -25028,7 +25031,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -25044,7 +25047,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>24907.07</v>
+        <v>24806.07</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -25060,7 +25063,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>26334.7</v>
+        <v>26132.7</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -26885,7 +26888,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>21717.04</v>
+        <v>21616.04</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -27157,7 +27160,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>22563.05</v>
+        <v>22462.05</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27249,7 +27252,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>22563.05</v>
+        <v>22462.05</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27521,7 +27524,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>24061.06</v>
+        <v>23960.06</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27613,7 +27616,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>24061.06</v>
+        <v>23960.06</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27885,7 +27888,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>24907.07</v>
+        <v>24806.07</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28382,7 +28385,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -28398,7 +28401,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>26793.1</v>
+        <v>26692.1</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28414,7 +28417,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>28220.73</v>
+        <v>28018.73</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -30234,7 +30237,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>24907.07</v>
+        <v>24806.07</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30506,7 +30509,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>25532.08</v>
+        <v>25431.08</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30598,7 +30601,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>25532.08</v>
+        <v>25431.08</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30870,7 +30873,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>26218.09</v>
+        <v>26117.09</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -30962,7 +30965,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>26218.09</v>
+        <v>26117.09</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -31234,7 +31237,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>26793.1</v>
+        <v>26692.1</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31738,7 +31741,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -31754,7 +31757,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>28900.13</v>
+        <v>28799.13</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31770,7 +31773,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>30327.76</v>
+        <v>30125.76</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -33591,7 +33594,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>26793.1</v>
+        <v>26692.1</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33863,7 +33866,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>27639.11</v>
+        <v>27538.11</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -33955,7 +33958,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>27639.11</v>
+        <v>27538.11</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -34227,7 +34230,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>28054.12</v>
+        <v>27953.12</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34319,7 +34322,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>28054.12</v>
+        <v>27953.12</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34591,7 +34594,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>28900.13</v>
+        <v>28799.13</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -35664,7 +35667,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="159">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D3" s="160" t="s">
         <v>34</v>
@@ -35673,7 +35676,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="187">
-        <v>1469</v>
+        <v>1400</v>
       </c>
       <c r="I3" s="195" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,1)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*1,"dd mmmm yyyy"))</f>
@@ -35809,7 +35812,7 @@
       </c>
       <c r="J7" s="196">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="M7" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35842,7 +35845,7 @@
       </c>
       <c r="J8" s="196">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>1231.74</v>
+        <v>1130.74</v>
       </c>
       <c r="M8" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35874,7 +35877,7 @@
       </c>
       <c r="J9" s="196">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>1277.75</v>
+        <v>1176.75</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35906,7 +35909,7 @@
       </c>
       <c r="J10" s="196">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>1182.76</v>
+        <v>1081.76</v>
       </c>
       <c r="M10" s="206" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -35923,7 +35926,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="159">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" s="161"/>
       <c r="E11" s="5" t="s">
@@ -35939,7 +35942,7 @@
       </c>
       <c r="J11" s="196">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>1228.77</v>
+        <v>1127.77</v>
       </c>
       <c r="M11" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -35971,7 +35974,7 @@
       </c>
       <c r="J12" s="196">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>1183.78</v>
+        <v>1082.78</v>
       </c>
       <c r="M12" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -36003,7 +36006,7 @@
       </c>
       <c r="J13" s="196">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>1179.79</v>
+        <v>1078.79</v>
       </c>
       <c r="M13" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -36020,14 +36023,14 @@
         <v>46</v>
       </c>
       <c r="C14" s="159">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
       <c r="D14" s="161"/>
       <c r="E14" s="189" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="187">
-        <v>64.6</v>
+        <v>9.6</v>
       </c>
       <c r="I14" s="199" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,11),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11)+11,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
@@ -36035,7 +36038,7 @@
       </c>
       <c r="J14" s="200">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>1104.8</v>
+        <v>1003.8</v>
       </c>
       <c r="M14" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -36067,7 +36070,7 @@
       </c>
       <c r="J15" s="200">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>1267.81</v>
+        <v>1166.81</v>
       </c>
       <c r="M15" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -36085,7 +36088,7 @@
       </c>
       <c r="C16" s="165">
         <f>SUM(C3:C15)</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D16" s="166"/>
       <c r="E16" s="164" t="s">
@@ -36093,7 +36096,7 @@
       </c>
       <c r="F16" s="190">
         <f>SUM(F3:F15)</f>
-        <v>1551.63</v>
+        <v>1427.63</v>
       </c>
       <c r="I16" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
@@ -36101,7 +36104,7 @@
       </c>
       <c r="J16" s="200">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>1682.82</v>
+        <v>1581.82</v>
       </c>
       <c r="M16" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -36119,7 +36122,7 @@
       </c>
       <c r="J17" s="200">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>2528.83</v>
+        <v>2427.83</v>
       </c>
       <c r="M17" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -36137,7 +36140,7 @@
       </c>
       <c r="J18" s="200">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>3103.84</v>
+        <v>3002.84</v>
       </c>
       <c r="M18" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -36155,7 +36158,7 @@
       </c>
       <c r="J19" s="200">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>4872.85</v>
+        <v>4771.85</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -36165,7 +36168,7 @@
       </c>
       <c r="J20" s="200">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>5497.86</v>
+        <v>5396.86</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -36175,7 +36178,7 @@
       </c>
       <c r="J21" s="200">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>6343.87</v>
+        <v>6242.87</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -36195,7 +36198,7 @@
       </c>
       <c r="J22" s="200">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>6758.88</v>
+        <v>6657.88</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -36220,7 +36223,7 @@
       </c>
       <c r="J23" s="200">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>7604.89</v>
+        <v>7503.89</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -36239,7 +36242,7 @@
       </c>
       <c r="J24" s="200">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>8179.9</v>
+        <v>8078.9</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -36258,7 +36261,7 @@
       </c>
       <c r="J25" s="200">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>8865.91</v>
+        <v>8764.91</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -36277,7 +36280,7 @@
       </c>
       <c r="J26" s="200">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>9440.92</v>
+        <v>9339.92</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -36296,7 +36299,7 @@
       </c>
       <c r="J27" s="200">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>10286.93</v>
+        <v>10185.93</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -36315,7 +36318,7 @@
       </c>
       <c r="J28" s="200">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>10701.94</v>
+        <v>10600.94</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36334,7 +36337,7 @@
       </c>
       <c r="J29" s="196">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>11547.95</v>
+        <v>11446.95</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36356,7 +36359,7 @@
       </c>
       <c r="J30" s="202">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>12763.95</v>
+        <v>12662.95</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36366,7 +36369,7 @@
       </c>
       <c r="J31" s="200">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>14631.95</v>
+        <v>14530.95</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36376,7 +36379,7 @@
       </c>
       <c r="J32" s="200">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>15847.95</v>
+        <v>15746.95</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36386,7 +36389,7 @@
       </c>
       <c r="J33" s="200">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>16422.96</v>
+        <v>16321.96</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36406,7 +36409,7 @@
       </c>
       <c r="J34" s="200">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>17108.97</v>
+        <v>17007.97</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36431,7 +36434,7 @@
       </c>
       <c r="J35" s="200">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>17683.98</v>
+        <v>17582.98</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36454,7 +36457,7 @@
       </c>
       <c r="J36" s="200">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>18529.99</v>
+        <v>18428.99</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36473,7 +36476,7 @@
       </c>
       <c r="J37" s="200">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>18945</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36492,7 +36495,7 @@
       </c>
       <c r="J38" s="200">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>19791.01</v>
+        <v>19690.01</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36511,7 +36514,7 @@
       </c>
       <c r="J39" s="200">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>20416.02</v>
+        <v>20315.02</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36530,7 +36533,7 @@
       </c>
       <c r="J40" s="200">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>21102.03</v>
+        <v>21001.03</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36549,7 +36552,7 @@
       </c>
       <c r="J41" s="200">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>21717.04</v>
+        <v>21616.04</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36571,7 +36574,7 @@
       </c>
       <c r="J42" s="200">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>22563.05</v>
+        <v>22462.05</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36581,7 +36584,7 @@
       </c>
       <c r="J43" s="200">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>24061.06</v>
+        <v>23960.06</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36591,7 +36594,7 @@
       </c>
       <c r="J44" s="200">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>24907.07</v>
+        <v>24806.07</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36601,7 +36604,7 @@
       </c>
       <c r="J45" s="200">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>25532.08</v>
+        <v>25431.08</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36621,7 +36624,7 @@
       </c>
       <c r="J46" s="200">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>26218.09</v>
+        <v>26117.09</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36646,7 +36649,7 @@
       </c>
       <c r="J47" s="200">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>26793.1</v>
+        <v>26692.1</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36669,7 +36672,7 @@
       </c>
       <c r="J48" s="200">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>27639.11</v>
+        <v>27538.11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36688,7 +36691,7 @@
       </c>
       <c r="J49" s="200">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>28054.12</v>
+        <v>27953.12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36707,7 +36710,7 @@
       </c>
       <c r="J50" s="196">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>28900.13</v>
+        <v>28799.13</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -38571,8 +38574,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -38609,7 +38612,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -38623,7 +38626,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1231.74</v>
+        <v>1130.74</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38637,7 +38640,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2659.37</v>
+        <v>2457.37</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -41018,7 +41021,7 @@
       <c r="H155" s="14"/>
       <c r="I155" s="48"/>
     </row>
-    <row r="156" ht="47" customHeight="1" spans="1:9">
+    <row r="156" ht="93" customHeight="1" spans="1:9">
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
@@ -41026,7 +41029,7 @@
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -41078,7 +41081,7 @@
       <c r="H159" s="14"/>
       <c r="I159" s="48"/>
     </row>
-    <row r="160" ht="75" customHeight="1" spans="1:9">
+    <row r="160" ht="110" customHeight="1" spans="1:9">
       <c r="A160" s="63"/>
       <c r="B160" s="64"/>
       <c r="C160" s="73" t="s">
@@ -41086,7 +41089,7 @@
       </c>
       <c r="D160" s="125"/>
       <c r="E160" s="87">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
@@ -41131,7 +41134,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -41222,7 +41225,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -41498,7 +41501,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1231.74</v>
+        <v>1130.74</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -41979,7 +41982,7 @@
   <sheetPr/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
@@ -42014,7 +42017,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -42028,7 +42031,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1228.77</v>
+        <v>1127.77</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -42042,7 +42045,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2656.4</v>
+        <v>2454.4</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -43863,7 +43866,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="89" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>1231.74</v>
+        <v>1130.74</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -44137,7 +44140,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1277.75</v>
+        <v>1176.75</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -44229,7 +44232,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1277.75</v>
+        <v>1176.75</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -44503,7 +44506,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1182.76</v>
+        <v>1081.76</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44595,7 +44598,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1182.76</v>
+        <v>1081.76</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44869,7 +44872,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1228.77</v>
+        <v>1127.77</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45434,7 +45437,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -45450,7 +45453,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1104.8</v>
+        <v>1003.8</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45466,7 +45469,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2532.43</v>
+        <v>2330.43</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -47287,7 +47290,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>1228.77</v>
+        <v>1127.77</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -47561,7 +47564,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1183.78</v>
+        <v>1082.78</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47653,7 +47656,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1183.78</v>
+        <v>1082.78</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -47927,7 +47930,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1179.79</v>
+        <v>1078.79</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -48019,7 +48022,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1179.79</v>
+        <v>1078.79</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -48295,7 +48298,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1104.8</v>
+        <v>1003.8</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48870,7 +48873,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -48886,7 +48889,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>2528.83</v>
+        <v>2427.83</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -48902,7 +48905,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>3956.46</v>
+        <v>3754.46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -50723,7 +50726,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>1104.8</v>
+        <v>1003.8</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50997,7 +51000,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1267.81</v>
+        <v>1166.81</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -51089,7 +51092,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1267.81</v>
+        <v>1166.81</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -51361,7 +51364,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1682.82</v>
+        <v>1581.82</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51453,7 +51456,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1682.82</v>
+        <v>1581.82</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51725,7 +51728,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>2528.83</v>
+        <v>2427.83</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -52258,7 +52261,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -52274,7 +52277,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>5497.86</v>
+        <v>5396.86</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -52290,7 +52293,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>6925.49</v>
+        <v>6723.49</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -54115,7 +54118,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>2528.83</v>
+        <v>2427.83</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -54387,7 +54390,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>3103.84</v>
+        <v>3002.84</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54479,7 +54482,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>3103.84</v>
+        <v>3002.84</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54751,7 +54754,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>4872.85</v>
+        <v>4771.85</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54843,7 +54846,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>4872.85</v>
+        <v>4771.85</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -55115,7 +55118,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>5497.86</v>
+        <v>5396.86</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55645,7 +55648,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1427.63</v>
+        <v>1326.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -55661,7 +55664,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>7604.89</v>
+        <v>7503.89</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55677,7 +55680,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>9032.52</v>
+        <v>8830.52</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -57500,7 +57503,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>5497.86</v>
+        <v>5396.86</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57772,7 +57775,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>6343.87</v>
+        <v>6242.87</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57864,7 +57867,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>6343.87</v>
+        <v>6242.87</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -58136,7 +58139,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>6758.88</v>
+        <v>6657.88</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -58228,7 +58231,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>6758.88</v>
+        <v>6657.88</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -58500,7 +58503,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>7604.89</v>
+        <v>7503.89</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>

--- a/Income And Expenses Forecast Demo.xlsx
+++ b/Income And Expenses Forecast Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21480" activeTab="3"/>
+    <workbookView windowHeight="21480"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="132">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -298,7 +298,7 @@
     <t>Entertainment</t>
   </si>
   <si>
-    <t>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</t>
+    <t>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</t>
   </si>
   <si>
     <t>Hair Cutting</t>
@@ -310,7 +310,7 @@
     <t>Oxford Dictionary</t>
   </si>
   <si>
-    <t>Paid For 19th of Each Month</t>
+    <t>Paid For 19th of Each Month End Subscription on 19th Of June.</t>
   </si>
   <si>
     <t>Grand Expenses Total</t>
@@ -415,6 +415,9 @@
     <t>Stop Services</t>
   </si>
   <si>
+    <t>Cancel Oxford Dictionary Subscription</t>
+  </si>
+  <si>
     <t>- See the Doctor ~ $110
 - Buy Cigarette Buds ~ $800</t>
   </si>
@@ -456,7 +459,8 @@
     <t>~ Food And Transport
    - Devondale Milk X 2 ~ $35.8
    - Chicken Chops X 2 ~ $21
-   - Vegetables 1 kg ~ $12</t>
+   - Vegetables 1 kg ~ $12
+   - Best Mart 360 ~ Coffee Beans $98</t>
   </si>
   <si>
     <t>~ Nvedia body lotion 380ml ~ $32
@@ -3031,7 +3035,7 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -4793,8 +4797,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F34" sqref="B34:G34"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -4828,7 +4832,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4844,7 +4848,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>9339.92</v>
+        <v>9553.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4860,7 +4864,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>10666.55</v>
+        <v>10714.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6193,7 +6197,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -6250,10 +6254,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -6326,7 +6330,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -6342,7 +6346,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -6587,7 +6591,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326819.5</v>
+        <v>-326799.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -6681,7 +6685,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>7503.89</v>
+        <v>7657.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6850,7 +6854,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -6865,7 +6869,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -6937,7 +6941,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -6953,7 +6957,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>8078.9</v>
+        <v>8252.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -7045,7 +7049,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>8078.9</v>
+        <v>8252.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -7214,7 +7218,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -7229,7 +7233,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -7301,7 +7305,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -7317,7 +7321,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>8764.91</v>
+        <v>8958.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7409,7 +7413,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>8764.91</v>
+        <v>8958.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7578,7 +7582,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -7593,7 +7597,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -7665,7 +7669,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -7681,7 +7685,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>9339.92</v>
+        <v>9553.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8162,8 +8166,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F34" sqref="B34:G34"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -8197,7 +8201,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -8213,7 +8217,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>11446.95</v>
+        <v>11720.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8229,7 +8233,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>12773.58</v>
+        <v>12881.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -9562,7 +9566,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -9619,10 +9623,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -9695,7 +9699,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -9711,7 +9715,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -9956,7 +9960,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326819.5</v>
+        <v>-326799.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -10050,7 +10054,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>9339.92</v>
+        <v>9553.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -10219,7 +10223,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -10234,7 +10238,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -10306,7 +10310,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -10322,7 +10326,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>10185.93</v>
+        <v>10419.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10414,7 +10418,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>10185.93</v>
+        <v>10419.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10583,7 +10587,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -10598,7 +10602,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -10670,7 +10674,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -10686,7 +10690,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>10600.94</v>
+        <v>10854.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10778,7 +10782,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>10600.94</v>
+        <v>10854.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -10947,7 +10951,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -10962,7 +10966,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -11034,7 +11038,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -11050,7 +11054,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>11446.95</v>
+        <v>11720.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11526,7 +11530,7 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="F23" sqref="B23:G23"/>
     </sheetView>
   </sheetViews>
@@ -11562,7 +11566,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11578,7 +11582,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>15746.95</v>
+        <v>16020.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11594,7 +11598,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>17073.58</v>
+        <v>17181.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -12931,7 +12935,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>0</v>
@@ -12988,7 +12992,7 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
         <v>0</v>
@@ -13419,7 +13423,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>11446.95</v>
+        <v>11720.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13588,7 +13592,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -13603,7 +13607,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -13691,7 +13695,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>12662.95</v>
+        <v>12936.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13783,7 +13787,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>12662.95</v>
+        <v>12936.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -13952,7 +13956,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -13967,7 +13971,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -14055,7 +14059,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>14530.95</v>
+        <v>14804.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -14147,7 +14151,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>14530.95</v>
+        <v>14804.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -14316,7 +14320,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -14331,7 +14335,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -14419,7 +14423,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>15746.95</v>
+        <v>16020.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -14895,8 +14899,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -14929,7 +14933,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -14945,7 +14949,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>17582.98</v>
+        <v>17916.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -14961,7 +14965,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>18909.61</v>
+        <v>19077.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -16294,7 +16298,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -16344,17 +16348,17 @@
       <c r="H90" s="14"/>
       <c r="I90" s="48"/>
     </row>
-    <row r="91" ht="24.75" customHeight="1" spans="1:9">
+    <row r="91" ht="46" customHeight="1" spans="1:9">
       <c r="A91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
         <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -16427,7 +16431,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -16443,7 +16447,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -16525,7 +16529,7 @@
       <c r="H100" s="14"/>
       <c r="I100" s="48"/>
     </row>
-    <row r="101" ht="24.75" customHeight="1" spans="1:9">
+    <row r="101" ht="46" customHeight="1" spans="1:9">
       <c r="A101" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="A101">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A115"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A115")))</f>
         <v>Hong Kong Government Hospital Authority</v>
@@ -16545,7 +16549,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="48"/>
     </row>
-    <row r="102" ht="24.75" customHeight="1" spans="1:9">
+    <row r="102" ht="49" customHeight="1" spans="1:9">
       <c r="A102" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="A102">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A116"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A116")))</f>
         <v>Bankruptcy Department / Bank</v>
@@ -16688,7 +16692,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326819.5</v>
+        <v>-326799.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -16782,7 +16786,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>15746.95</v>
+        <v>16020.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -16951,7 +16955,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -16966,7 +16970,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -17038,7 +17042,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -17054,7 +17058,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>16321.96</v>
+        <v>16615.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -17146,7 +17150,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>16321.96</v>
+        <v>16615.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -17315,7 +17319,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -17330,7 +17334,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -17402,7 +17406,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -17418,7 +17422,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>17007.97</v>
+        <v>17321.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17510,7 +17514,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>17007.97</v>
+        <v>17321.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17679,7 +17683,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -17694,7 +17698,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -17766,7 +17770,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -17782,7 +17786,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>17582.98</v>
+        <v>17916.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18263,8 +18267,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F34" sqref="B34:G34"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -18299,7 +18303,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -18315,7 +18319,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>19690.01</v>
+        <v>20083.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18331,7 +18335,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>21016.64</v>
+        <v>21244.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -19664,7 +19668,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -19721,10 +19725,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -19797,7 +19801,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -19813,7 +19817,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -20058,7 +20062,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326819.5</v>
+        <v>-326799.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -20152,7 +20156,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>17582.98</v>
+        <v>17916.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -20321,7 +20325,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -20336,7 +20340,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -20408,7 +20412,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -20424,7 +20428,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>18428.99</v>
+        <v>18782.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20516,7 +20520,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>18428.99</v>
+        <v>18782.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20685,7 +20689,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -20700,7 +20704,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -20772,7 +20776,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -20788,7 +20792,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>18844</v>
+        <v>19217.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20880,7 +20884,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>18844</v>
+        <v>19217.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -21049,7 +21053,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -21064,7 +21068,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -21136,7 +21140,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -21152,7 +21156,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>19690.01</v>
+        <v>20083.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21628,8 +21632,8 @@
   <sheetPr/>
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="B34:G34"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -21662,7 +21666,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -21678,7 +21682,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>21616.04</v>
+        <v>22069.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21694,7 +21698,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>22942.67</v>
+        <v>23230.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -23027,7 +23031,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -23084,10 +23088,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -23160,7 +23164,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -23176,7 +23180,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -23421,7 +23425,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326819.5</v>
+        <v>-326799.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -23515,7 +23519,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>19690.01</v>
+        <v>20083.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23684,7 +23688,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -23699,7 +23703,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -23771,7 +23775,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -23787,7 +23791,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>20315.02</v>
+        <v>20728.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23879,7 +23883,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>20315.02</v>
+        <v>20728.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -24048,7 +24052,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -24063,7 +24067,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -24135,7 +24139,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -24151,7 +24155,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>21001.03</v>
+        <v>21434.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24243,7 +24247,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>21001.03</v>
+        <v>21434.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24412,7 +24416,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -24427,7 +24431,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -24499,7 +24503,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -24515,7 +24519,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>21616.04</v>
+        <v>22069.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -24997,8 +25001,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E27"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -25031,7 +25035,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -25047,7 +25051,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>24806.07</v>
+        <v>25319.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -25063,7 +25067,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>26132.7</v>
+        <v>26480.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -26400,7 +26404,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="37">
         <v>68</v>
@@ -26457,10 +26461,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -26533,7 +26537,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -26549,7 +26553,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -26794,7 +26798,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326819.5</v>
+        <v>-326799.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -26888,7 +26892,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>21616.04</v>
+        <v>22069.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -27057,7 +27061,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -27072,7 +27076,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -27144,7 +27148,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -27160,7 +27164,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>22462.05</v>
+        <v>22935.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27252,7 +27256,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>22462.05</v>
+        <v>22935.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27421,7 +27425,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -27436,7 +27440,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -27508,7 +27512,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -27524,7 +27528,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>23960.06</v>
+        <v>24453.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27616,7 +27620,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>23960.06</v>
+        <v>24453.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27785,7 +27789,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -27800,7 +27804,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -27872,7 +27876,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -27888,7 +27892,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>24806.07</v>
+        <v>25319.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28351,8 +28355,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="B34:G34"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -28385,7 +28389,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -28401,7 +28405,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>26692.1</v>
+        <v>27265.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28417,7 +28421,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>28018.73</v>
+        <v>28426.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -29750,7 +29754,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="37">
         <v>68</v>
@@ -29807,10 +29811,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -29883,7 +29887,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -29899,7 +29903,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -30007,7 +30011,7 @@
         <v>Bankruptcy Department / Bank</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
@@ -30143,7 +30147,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326819.5</v>
+        <v>-326799.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -30237,7 +30241,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>24806.07</v>
+        <v>25319.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30406,7 +30410,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -30421,7 +30425,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -30493,7 +30497,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -30509,7 +30513,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>25431.08</v>
+        <v>25964.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30601,7 +30605,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>25431.08</v>
+        <v>25964.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30770,7 +30774,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -30785,7 +30789,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -30857,7 +30861,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -30873,7 +30877,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>26117.09</v>
+        <v>26670.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -30965,7 +30969,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>26117.09</v>
+        <v>26670.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -31134,7 +31138,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -31149,7 +31153,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -31221,7 +31225,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -31237,7 +31241,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>26692.1</v>
+        <v>27265.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31705,8 +31709,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F34" sqref="B34:G34"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -31741,7 +31745,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -31757,7 +31761,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>28799.13</v>
+        <v>29432.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31773,7 +31777,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>30125.76</v>
+        <v>30593.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -33106,7 +33110,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="37">
         <v>68</v>
@@ -33163,10 +33167,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -33239,7 +33243,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -33255,7 +33259,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -33500,7 +33504,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326819.5</v>
+        <v>-326799.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -33594,7 +33598,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>26692.1</v>
+        <v>27265.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33763,7 +33767,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -33778,7 +33782,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -33850,7 +33854,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -33866,7 +33870,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>27538.11</v>
+        <v>28131.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -33958,7 +33962,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>27538.11</v>
+        <v>28131.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -34127,7 +34131,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -34142,7 +34146,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -34214,7 +34218,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -34230,7 +34234,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>27953.12</v>
+        <v>28566.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34322,7 +34326,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>27953.12</v>
+        <v>28566.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34491,7 +34495,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -34506,7 +34510,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -34578,7 +34582,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -34594,7 +34598,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>28799.13</v>
+        <v>29432.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -35596,8 +35600,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35667,7 +35671,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="159">
-        <v>1300</v>
+        <v>1134</v>
       </c>
       <c r="D3" s="160" t="s">
         <v>34</v>
@@ -35676,7 +35680,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="187">
-        <v>1400</v>
+        <v>1202</v>
       </c>
       <c r="I3" s="195" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,1)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*1,"dd mmmm yyyy"))</f>
@@ -35812,7 +35816,7 @@
       </c>
       <c r="J7" s="196">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="M7" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35845,7 +35849,7 @@
       </c>
       <c r="J8" s="196">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>1130.74</v>
+        <v>984.73</v>
       </c>
       <c r="M8" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35877,7 +35881,7 @@
       </c>
       <c r="J9" s="196">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>1176.75</v>
+        <v>1050.73</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35909,7 +35913,7 @@
       </c>
       <c r="J10" s="196">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>1081.76</v>
+        <v>975.73</v>
       </c>
       <c r="M10" s="206" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -35933,7 +35937,7 @@
         <v>43</v>
       </c>
       <c r="F11" s="187">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H11" s="188"/>
       <c r="I11" s="197" t="str">
@@ -35942,7 +35946,7 @@
       </c>
       <c r="J11" s="196">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>1127.77</v>
+        <v>1041.73</v>
       </c>
       <c r="M11" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -35974,7 +35978,7 @@
       </c>
       <c r="J12" s="196">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>1082.78</v>
+        <v>1016.73</v>
       </c>
       <c r="M12" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -36006,7 +36010,7 @@
       </c>
       <c r="J13" s="196">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>1078.79</v>
+        <v>1032.73</v>
       </c>
       <c r="M13" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -36030,7 +36034,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="187">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
       <c r="I14" s="199" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,11),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11)+11,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
@@ -36038,7 +36042,7 @@
       </c>
       <c r="J14" s="200">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>1003.8</v>
+        <v>977.73</v>
       </c>
       <c r="M14" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -36070,7 +36074,7 @@
       </c>
       <c r="J15" s="200">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>1166.81</v>
+        <v>1160.73</v>
       </c>
       <c r="M15" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -36088,7 +36092,7 @@
       </c>
       <c r="C16" s="165">
         <f>SUM(C3:C15)</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D16" s="166"/>
       <c r="E16" s="164" t="s">
@@ -36096,7 +36100,7 @@
       </c>
       <c r="F16" s="190">
         <f>SUM(F3:F15)</f>
-        <v>1427.63</v>
+        <v>1228.63</v>
       </c>
       <c r="I16" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
@@ -36104,7 +36108,7 @@
       </c>
       <c r="J16" s="200">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>1581.82</v>
+        <v>1595.73</v>
       </c>
       <c r="M16" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -36122,7 +36126,7 @@
       </c>
       <c r="J17" s="200">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>2427.83</v>
+        <v>2461.73</v>
       </c>
       <c r="M17" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -36140,7 +36144,7 @@
       </c>
       <c r="J18" s="200">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>3002.84</v>
+        <v>3056.73</v>
       </c>
       <c r="M18" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -36158,7 +36162,7 @@
       </c>
       <c r="J19" s="200">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>4771.85</v>
+        <v>4845.73</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -36168,7 +36172,7 @@
       </c>
       <c r="J20" s="200">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>5396.86</v>
+        <v>5490.73</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -36178,7 +36182,7 @@
       </c>
       <c r="J21" s="200">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>6242.87</v>
+        <v>6356.73</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -36198,7 +36202,7 @@
       </c>
       <c r="J22" s="200">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>6657.88</v>
+        <v>6791.73</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -36223,7 +36227,7 @@
       </c>
       <c r="J23" s="200">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>7503.89</v>
+        <v>7657.73</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -36242,7 +36246,7 @@
       </c>
       <c r="J24" s="200">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>8078.9</v>
+        <v>8252.73</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -36261,7 +36265,7 @@
       </c>
       <c r="J25" s="200">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>8764.91</v>
+        <v>8958.73</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -36280,7 +36284,7 @@
       </c>
       <c r="J26" s="200">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>9339.92</v>
+        <v>9553.73</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -36299,7 +36303,7 @@
       </c>
       <c r="J27" s="200">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>10185.93</v>
+        <v>10419.73</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -36318,7 +36322,7 @@
       </c>
       <c r="J28" s="200">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>10600.94</v>
+        <v>10854.73</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36337,7 +36341,7 @@
       </c>
       <c r="J29" s="196">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>11446.95</v>
+        <v>11720.73</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36359,7 +36363,7 @@
       </c>
       <c r="J30" s="202">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>12662.95</v>
+        <v>12936.73</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36369,7 +36373,7 @@
       </c>
       <c r="J31" s="200">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>14530.95</v>
+        <v>14804.73</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36379,7 +36383,7 @@
       </c>
       <c r="J32" s="200">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>15746.95</v>
+        <v>16020.73</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36389,7 +36393,7 @@
       </c>
       <c r="J33" s="200">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>16321.96</v>
+        <v>16615.73</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36409,7 +36413,7 @@
       </c>
       <c r="J34" s="200">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>17007.97</v>
+        <v>17321.73</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36434,7 +36438,7 @@
       </c>
       <c r="J35" s="200">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>17582.98</v>
+        <v>17916.73</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36457,7 +36461,7 @@
       </c>
       <c r="J36" s="200">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>18428.99</v>
+        <v>18782.73</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36476,7 +36480,7 @@
       </c>
       <c r="J37" s="200">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>18844</v>
+        <v>19217.73</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36495,7 +36499,7 @@
       </c>
       <c r="J38" s="200">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>19690.01</v>
+        <v>20083.73</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36514,7 +36518,7 @@
       </c>
       <c r="J39" s="200">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>20315.02</v>
+        <v>20728.73</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36533,7 +36537,7 @@
       </c>
       <c r="J40" s="200">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>21001.03</v>
+        <v>21434.73</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36552,7 +36556,7 @@
       </c>
       <c r="J41" s="200">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>21616.04</v>
+        <v>22069.73</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36574,7 +36578,7 @@
       </c>
       <c r="J42" s="200">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>22462.05</v>
+        <v>22935.73</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36584,7 +36588,7 @@
       </c>
       <c r="J43" s="200">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>23960.06</v>
+        <v>24453.73</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36594,7 +36598,7 @@
       </c>
       <c r="J44" s="200">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>24806.07</v>
+        <v>25319.73</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36604,7 +36608,7 @@
       </c>
       <c r="J45" s="200">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>25431.08</v>
+        <v>25964.73</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36624,7 +36628,7 @@
       </c>
       <c r="J46" s="200">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>26117.09</v>
+        <v>26670.73</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36649,7 +36653,7 @@
       </c>
       <c r="J47" s="200">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>26692.1</v>
+        <v>27265.73</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36672,7 +36676,7 @@
       </c>
       <c r="J48" s="200">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>27538.11</v>
+        <v>28131.73</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36691,7 +36695,7 @@
       </c>
       <c r="J49" s="200">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>27953.12</v>
+        <v>28566.73</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36710,7 +36714,7 @@
       </c>
       <c r="J50" s="196">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>28799.13</v>
+        <v>29432.73</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -37139,7 +37143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" ht="45" customHeight="1" spans="1:3">
       <c r="A105" s="51" t="s">
         <v>77</v>
       </c>
@@ -38574,8 +38578,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -38612,7 +38616,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -38626,7 +38630,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1130.74</v>
+        <v>984.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38640,7 +38644,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2457.37</v>
+        <v>2145.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -39102,12 +39106,16 @@
     </row>
     <row r="36" ht="24.75" customHeight="1" spans="1:9">
       <c r="A36" s="132"/>
-      <c r="B36" s="97"/>
+      <c r="B36" s="97" t="s">
+        <v>77</v>
+      </c>
       <c r="C36" s="98"/>
-      <c r="D36" s="123"/>
+      <c r="D36" s="123" t="s">
+        <v>106</v>
+      </c>
       <c r="E36" s="147"/>
       <c r="F36" s="7">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="14"/>
@@ -39162,7 +39170,7 @@
       <c r="E40" s="45"/>
       <c r="F40" s="46">
         <f>SUM(F34:G39)</f>
-        <v>2485</v>
+        <v>2504.99</v>
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="14"/>
@@ -40000,7 +40008,7 @@
       </c>
       <c r="B88" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -40050,14 +40058,14 @@
       <c r="H90" s="14"/>
       <c r="I90" s="48"/>
     </row>
-    <row r="91" ht="20.25" customHeight="1" spans="1:9">
+    <row r="91" ht="40" customHeight="1" spans="1:9">
       <c r="A91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
         <v>Oxford Dictionary</v>
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
         <v>19.99</v>
@@ -40657,7 +40665,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -40668,11 +40676,11 @@
       <c r="H129" s="14"/>
       <c r="I129" s="48"/>
     </row>
-    <row r="130" ht="248" customHeight="1" spans="1:9">
+    <row r="130" ht="227" customHeight="1" spans="1:9">
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -40687,7 +40695,7 @@
       <c r="A131" s="63"/>
       <c r="B131" s="64"/>
       <c r="C131" s="74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D131" s="74"/>
       <c r="E131" s="87">
@@ -40880,7 +40888,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D145" s="66"/>
       <c r="E145" s="37">
@@ -41025,7 +41033,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -41040,7 +41048,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -41055,37 +41063,37 @@
       <c r="A158" s="63"/>
       <c r="B158" s="64"/>
       <c r="C158" s="73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D158" s="74"/>
       <c r="E158" s="87">
-        <v>0.6</v>
+        <v>68.6</v>
       </c>
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="48"/>
     </row>
-    <row r="159" ht="102" customHeight="1" spans="1:9">
+    <row r="159" ht="103" customHeight="1" spans="1:9">
       <c r="A159" s="63"/>
       <c r="B159" s="64"/>
       <c r="C159" s="73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D159" s="74"/>
       <c r="E159" s="87">
-        <v>68.8</v>
+        <v>166.8</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
       <c r="H159" s="14"/>
       <c r="I159" s="48"/>
     </row>
-    <row r="160" ht="110" customHeight="1" spans="1:9">
+    <row r="160" ht="86" customHeight="1" spans="1:9">
       <c r="A160" s="63"/>
       <c r="B160" s="64"/>
       <c r="C160" s="73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D160" s="125"/>
       <c r="E160" s="87">
@@ -41134,7 +41142,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -41218,14 +41226,14 @@
     </row>
     <row r="170" ht="24.75" customHeight="1" spans="1:9">
       <c r="A170" s="56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -41251,7 +41259,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -41318,7 +41326,7 @@
       <c r="A177" s="63"/>
       <c r="B177" s="64"/>
       <c r="C177" s="114" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D177" s="149"/>
       <c r="E177" s="37">
@@ -41398,7 +41406,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -41413,7 +41421,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -41501,7 +41509,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1130.74</v>
+        <v>984.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -41982,8 +41990,8 @@
   <sheetPr/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -42017,7 +42025,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -42031,7 +42039,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1127.77</v>
+        <v>1041.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -42045,7 +42053,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2454.4</v>
+        <v>2202.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -43378,7 +43386,7 @@
       </c>
       <c r="B88" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -43435,10 +43443,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -43511,7 +43519,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -43527,7 +43535,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -43772,7 +43780,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-329802.5</v>
+        <v>-329782.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -43866,7 +43874,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="89" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>1130.74</v>
+        <v>984.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -43892,7 +43900,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -44037,7 +44045,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -44052,7 +44060,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -44124,7 +44132,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -44140,7 +44148,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1176.75</v>
+        <v>1050.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -44232,7 +44240,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1176.75</v>
+        <v>1050.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -44258,7 +44266,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
@@ -44403,7 +44411,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -44418,7 +44426,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -44490,7 +44498,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -44506,7 +44514,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1081.76</v>
+        <v>975.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44598,7 +44606,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1081.76</v>
+        <v>975.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44624,7 +44632,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -44769,7 +44777,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -44784,7 +44792,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -44856,7 +44864,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -44872,7 +44880,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1127.77</v>
+        <v>1041.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45402,8 +45410,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -45437,7 +45445,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -45453,7 +45461,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1003.8</v>
+        <v>977.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45469,7 +45477,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2330.43</v>
+        <v>2138.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -46802,7 +46810,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -46859,10 +46867,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -46935,7 +46943,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -46951,7 +46959,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -47196,7 +47204,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-327502.5</v>
+        <v>-327482.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -47290,7 +47298,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>1127.77</v>
+        <v>1041.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -47316,7 +47324,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -47461,7 +47469,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -47476,7 +47484,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -47548,7 +47556,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -47564,7 +47572,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1082.78</v>
+        <v>1016.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47656,7 +47664,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1082.78</v>
+        <v>1016.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -47682,7 +47690,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
@@ -47827,7 +47835,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -47842,7 +47850,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -47914,7 +47922,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -47930,7 +47938,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1078.79</v>
+        <v>1032.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -48022,7 +48030,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1078.79</v>
+        <v>1032.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -48048,7 +48056,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -48115,7 +48123,7 @@
       <c r="A177" s="63"/>
       <c r="B177" s="64"/>
       <c r="C177" s="65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D177" s="66"/>
       <c r="E177" s="37">
@@ -48195,7 +48203,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -48210,7 +48218,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -48282,7 +48290,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -48298,7 +48306,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1003.8</v>
+        <v>977.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48838,7 +48846,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -48873,7 +48881,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -48889,7 +48897,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>2427.83</v>
+        <v>2461.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -48905,7 +48913,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>3754.46</v>
+        <v>3622.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -50238,7 +50246,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -50295,10 +50303,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -50371,7 +50379,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -50387,7 +50395,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -50632,7 +50640,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326819.5</v>
+        <v>-326799.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -50726,7 +50734,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>1003.8</v>
+        <v>977.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50817,7 +50825,7 @@
       <c r="A123" s="63"/>
       <c r="B123" s="64"/>
       <c r="C123" s="65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D123" s="66"/>
       <c r="E123" s="37">
@@ -50897,7 +50905,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -50912,7 +50920,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -50984,7 +50992,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -51000,7 +51008,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1166.81</v>
+        <v>1160.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -51092,7 +51100,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1166.81</v>
+        <v>1160.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -51261,7 +51269,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -51276,7 +51284,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -51348,7 +51356,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -51364,7 +51372,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1581.82</v>
+        <v>1595.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51456,7 +51464,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1581.82</v>
+        <v>1595.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51625,7 +51633,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -51640,7 +51648,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -51712,7 +51720,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -51728,7 +51736,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>2427.83</v>
+        <v>2461.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -52227,8 +52235,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -52261,7 +52269,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -52277,7 +52285,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>5396.86</v>
+        <v>5490.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -52293,7 +52301,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>6723.49</v>
+        <v>6651.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -53630,7 +53638,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -53687,10 +53695,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -53763,7 +53771,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -53779,7 +53787,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -54024,7 +54032,7 @@
       </c>
       <c r="C109" s="106">
         <f ca="1">C108-C96</f>
-        <v>-326819.5</v>
+        <v>-326799.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -54118,7 +54126,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>2427.83</v>
+        <v>2461.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -54287,7 +54295,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -54302,7 +54310,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -54374,7 +54382,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -54390,7 +54398,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>3002.84</v>
+        <v>3056.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54482,7 +54490,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>3002.84</v>
+        <v>3056.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54651,7 +54659,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -54666,7 +54674,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -54738,7 +54746,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -54754,7 +54762,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>4771.85</v>
+        <v>4845.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54846,7 +54854,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>4771.85</v>
+        <v>4845.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -55015,7 +55023,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -55030,7 +55038,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -55102,7 +55110,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -55118,7 +55126,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>5396.86</v>
+        <v>5490.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55614,8 +55622,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -55648,7 +55656,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1326.63</v>
+        <v>1160.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -55664,7 +55672,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>7503.89</v>
+        <v>7657.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55680,7 +55688,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>8830.52</v>
+        <v>8818.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -55779,7 +55787,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:9">
       <c r="A11" s="101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -57015,7 +57023,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 8th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -57072,10 +57080,10 @@
       </c>
       <c r="B91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B105")))</f>
-        <v>Paid For 19th of Each Month</v>
+        <v>Paid For 19th of Each Month End Subscription on 19th Of June.</v>
       </c>
       <c r="C91" s="37">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -57148,7 +57156,7 @@
       </c>
       <c r="C95" s="37">
         <f>SUM(C87:C94)</f>
-        <v>142.99</v>
+        <v>123</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -57164,7 +57172,7 @@
       </c>
       <c r="C96" s="37">
         <f>C55+C66+C75+C85+C95</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -57409,7 +57417,7 @@
       </c>
       <c r="C109" s="106">
         <f ca="1">C108-C96</f>
-        <v>-326819.5</v>
+        <v>-326799.51</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -57503,7 +57511,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>5396.86</v>
+        <v>5490.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57672,7 +57680,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -57687,7 +57695,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -57759,7 +57767,7 @@
       <c r="D135" s="79"/>
       <c r="E135" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -57775,7 +57783,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>6242.87</v>
+        <v>6356.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57867,7 +57875,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>6242.87</v>
+        <v>6356.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -58036,7 +58044,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -58051,7 +58059,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -58123,7 +58131,7 @@
       <c r="D162" s="79"/>
       <c r="E162" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
@@ -58139,7 +58147,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>6657.88</v>
+        <v>6791.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -58231,7 +58239,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>6657.88</v>
+        <v>6791.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -58400,7 +58408,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -58415,7 +58423,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -58487,7 +58495,7 @@
       <c r="D189" s="79"/>
       <c r="E189" s="88">
         <f>C96</f>
-        <v>369.99</v>
+        <v>350</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
@@ -58503,7 +58511,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>7503.89</v>
+        <v>7657.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>

--- a/Income And Expenses Forecast Demo.xlsx
+++ b/Income And Expenses Forecast Demo.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="134">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -415,6 +415,12 @@
     <t>Stop Services</t>
   </si>
   <si>
+    <t>Octopus</t>
+  </si>
+  <si>
+    <t>Top Up For Octopus $50 (Don't need to Include)</t>
+  </si>
+  <si>
     <t>Cancel Oxford Dictionary Subscription</t>
   </si>
   <si>
@@ -460,10 +466,11 @@
    - Devondale Milk X 2 ~ $35.8
    - Chicken Chops X 2 ~ $21
    - Vegetables 1 kg ~ $12
-   - Best Mart 360 ~ Coffee Beans $98</t>
+   - Best Mart 360 ~ Coffee Beans $98
+  - OK Store ~ Soft drinks $15</t>
   </si>
   <si>
-    <t>~ Nvedia body lotion 380ml ~ $32
+    <t>~ Nivea body lotion 380ml ~ $32
 ~ Longevity Sweetened Milk 374GM ~ $11
 ~ Market Slippers ~ $69
 ~ Round Trip to Mong Kok ~ $6</t>
@@ -4832,7 +4839,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4848,7 +4855,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>9553.73</v>
+        <v>8688.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4864,7 +4871,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>10714.36</v>
+        <v>8984.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6685,7 +6692,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>7657.73</v>
+        <v>6792.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6854,7 +6861,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -6869,7 +6876,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -6957,7 +6964,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>8252.73</v>
+        <v>7387.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -7049,7 +7056,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>8252.73</v>
+        <v>7387.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -7218,7 +7225,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -7233,7 +7240,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -7321,7 +7328,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>8958.73</v>
+        <v>8093.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7413,7 +7420,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>8958.73</v>
+        <v>8093.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7582,7 +7589,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -7597,7 +7604,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -7685,7 +7692,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>9553.73</v>
+        <v>8688.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8201,7 +8208,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -8217,7 +8224,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>11720.73</v>
+        <v>10855.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8233,7 +8240,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>12881.36</v>
+        <v>11151.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -10054,7 +10061,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>9553.73</v>
+        <v>8688.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -10223,7 +10230,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -10238,7 +10245,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -10326,7 +10333,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>10419.73</v>
+        <v>9554.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10418,7 +10425,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>10419.73</v>
+        <v>9554.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10587,7 +10594,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -10602,7 +10609,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -10690,7 +10697,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>10854.73</v>
+        <v>9989.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10782,7 +10789,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>10854.73</v>
+        <v>9989.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -10951,7 +10958,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -10966,7 +10973,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -11054,7 +11061,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>11720.73</v>
+        <v>10855.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11566,7 +11573,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11582,7 +11589,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>16020.73</v>
+        <v>15155.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11598,7 +11605,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>17181.36</v>
+        <v>15451.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -13423,7 +13430,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>11720.73</v>
+        <v>10855.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13592,7 +13599,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -13607,7 +13614,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -13695,7 +13702,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>12936.73</v>
+        <v>12071.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13787,7 +13794,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>12936.73</v>
+        <v>12071.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -13956,7 +13963,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -13971,7 +13978,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -14059,7 +14066,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>14804.73</v>
+        <v>13939.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -14151,7 +14158,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>14804.73</v>
+        <v>13939.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -14320,7 +14327,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -14335,7 +14342,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -14423,7 +14430,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>16020.73</v>
+        <v>15155.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -14933,7 +14940,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -14949,7 +14956,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>17916.73</v>
+        <v>17051.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -14965,7 +14972,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>19077.36</v>
+        <v>17347.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -16786,7 +16793,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>16020.73</v>
+        <v>15155.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -16955,7 +16962,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -16970,7 +16977,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -17058,7 +17065,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>16615.73</v>
+        <v>15750.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -17150,7 +17157,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>16615.73</v>
+        <v>15750.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -17319,7 +17326,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -17334,7 +17341,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -17422,7 +17429,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>17321.73</v>
+        <v>16456.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17514,7 +17521,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>17321.73</v>
+        <v>16456.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17683,7 +17690,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -17698,7 +17705,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -17786,7 +17793,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>17916.73</v>
+        <v>17051.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18303,7 +18310,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -18319,7 +18326,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>20083.73</v>
+        <v>19218.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18335,7 +18342,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>21244.36</v>
+        <v>19514.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -20156,7 +20163,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>17916.73</v>
+        <v>17051.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -20325,7 +20332,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -20340,7 +20347,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -20428,7 +20435,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>18782.73</v>
+        <v>17917.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20520,7 +20527,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>18782.73</v>
+        <v>17917.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20689,7 +20696,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -20704,7 +20711,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -20792,7 +20799,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>19217.73</v>
+        <v>18352.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20884,7 +20891,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>19217.73</v>
+        <v>18352.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -21053,7 +21060,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -21068,7 +21075,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -21156,7 +21163,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>20083.73</v>
+        <v>19218.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21666,7 +21673,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -21682,7 +21689,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>22069.73</v>
+        <v>21204.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21698,7 +21705,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>23230.36</v>
+        <v>21500.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -23519,7 +23526,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>20083.73</v>
+        <v>19218.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23688,7 +23695,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -23703,7 +23710,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -23791,7 +23798,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>20728.73</v>
+        <v>19863.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23883,7 +23890,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>20728.73</v>
+        <v>19863.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -24052,7 +24059,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -24067,7 +24074,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -24155,7 +24162,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>21434.73</v>
+        <v>20569.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24247,7 +24254,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>21434.73</v>
+        <v>20569.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24416,7 +24423,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -24431,7 +24438,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -24519,7 +24526,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>22069.73</v>
+        <v>21204.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -25035,7 +25042,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -25051,7 +25058,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>25319.73</v>
+        <v>24454.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -25067,7 +25074,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>26480.36</v>
+        <v>24750.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -26892,7 +26899,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>22069.73</v>
+        <v>21204.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -27061,7 +27068,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -27076,7 +27083,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -27164,7 +27171,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>22935.73</v>
+        <v>22070.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27256,7 +27263,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>22935.73</v>
+        <v>22070.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27425,7 +27432,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -27440,7 +27447,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -27528,7 +27535,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>24453.73</v>
+        <v>23588.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27620,7 +27627,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>24453.73</v>
+        <v>23588.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27789,7 +27796,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -27804,7 +27811,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -27892,7 +27899,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>25319.73</v>
+        <v>24454.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28389,7 +28396,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -28405,7 +28412,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>27265.73</v>
+        <v>26400.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28421,7 +28428,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>28426.36</v>
+        <v>26696.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -30011,7 +30018,7 @@
         <v>Bankruptcy Department / Bank</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
@@ -30241,7 +30248,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>25319.73</v>
+        <v>24454.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30410,7 +30417,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -30425,7 +30432,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -30513,7 +30520,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>25964.73</v>
+        <v>25099.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30605,7 +30612,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>25964.73</v>
+        <v>25099.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30774,7 +30781,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -30789,7 +30796,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -30877,7 +30884,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>26670.73</v>
+        <v>25805.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -30969,7 +30976,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>26670.73</v>
+        <v>25805.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -31138,7 +31145,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -31153,7 +31160,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -31241,7 +31248,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>27265.73</v>
+        <v>26400.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31745,7 +31752,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -31761,7 +31768,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>29432.73</v>
+        <v>28567.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31777,7 +31784,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>30593.36</v>
+        <v>28863.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -33598,7 +33605,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>27265.73</v>
+        <v>26400.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33767,7 +33774,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -33782,7 +33789,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -33870,7 +33877,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>28131.73</v>
+        <v>27266.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -33962,7 +33969,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>28131.73</v>
+        <v>27266.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -34131,7 +34138,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -34146,7 +34153,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -34234,7 +34241,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>28566.73</v>
+        <v>27701.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34326,7 +34333,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>28566.73</v>
+        <v>27701.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34495,7 +34502,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -34510,7 +34517,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -34598,7 +34605,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>29432.73</v>
+        <v>28567.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -35600,8 +35607,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35671,7 +35678,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="159">
-        <v>1134</v>
+        <v>119</v>
       </c>
       <c r="D3" s="160" t="s">
         <v>34</v>
@@ -35680,7 +35687,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="187">
-        <v>1202</v>
+        <v>1119</v>
       </c>
       <c r="I3" s="195" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,1)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*1,"dd mmmm yyyy"))</f>
@@ -35705,7 +35712,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="159">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D4" s="161"/>
       <c r="E4" s="5" t="s">
@@ -35816,7 +35823,7 @@
       </c>
       <c r="J7" s="196">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="M7" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35849,7 +35856,7 @@
       </c>
       <c r="J8" s="196">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>984.73</v>
+        <v>119.73</v>
       </c>
       <c r="M8" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35881,7 +35888,7 @@
       </c>
       <c r="J9" s="196">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>1050.73</v>
+        <v>185.73</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35913,7 +35920,7 @@
       </c>
       <c r="J10" s="196">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>975.73</v>
+        <v>110.73</v>
       </c>
       <c r="M10" s="206" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -35946,7 +35953,7 @@
       </c>
       <c r="J11" s="196">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>1041.73</v>
+        <v>176.73</v>
       </c>
       <c r="M11" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -35978,7 +35985,7 @@
       </c>
       <c r="J12" s="196">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>1016.73</v>
+        <v>151.73</v>
       </c>
       <c r="M12" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -36010,7 +36017,7 @@
       </c>
       <c r="J13" s="196">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>1032.73</v>
+        <v>167.73</v>
       </c>
       <c r="M13" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -36027,7 +36034,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="159">
-        <v>3.6</v>
+        <v>103.6</v>
       </c>
       <c r="D14" s="161"/>
       <c r="E14" s="189" t="s">
@@ -36042,7 +36049,7 @@
       </c>
       <c r="J14" s="200">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>977.73</v>
+        <v>112.73</v>
       </c>
       <c r="M14" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -36074,7 +36081,7 @@
       </c>
       <c r="J15" s="200">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>1160.73</v>
+        <v>295.73</v>
       </c>
       <c r="M15" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -36092,7 +36099,7 @@
       </c>
       <c r="C16" s="165">
         <f>SUM(C3:C15)</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D16" s="166"/>
       <c r="E16" s="164" t="s">
@@ -36100,7 +36107,7 @@
       </c>
       <c r="F16" s="190">
         <f>SUM(F3:F15)</f>
-        <v>1228.63</v>
+        <v>1145.63</v>
       </c>
       <c r="I16" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
@@ -36108,7 +36115,7 @@
       </c>
       <c r="J16" s="200">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>1595.73</v>
+        <v>730.73</v>
       </c>
       <c r="M16" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -36126,7 +36133,7 @@
       </c>
       <c r="J17" s="200">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>2461.73</v>
+        <v>1596.73</v>
       </c>
       <c r="M17" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -36144,7 +36151,7 @@
       </c>
       <c r="J18" s="200">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>3056.73</v>
+        <v>2191.73</v>
       </c>
       <c r="M18" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -36162,7 +36169,7 @@
       </c>
       <c r="J19" s="200">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>4845.73</v>
+        <v>3980.73</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -36172,7 +36179,7 @@
       </c>
       <c r="J20" s="200">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>5490.73</v>
+        <v>4625.73</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -36182,7 +36189,7 @@
       </c>
       <c r="J21" s="200">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>6356.73</v>
+        <v>5491.73</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -36202,7 +36209,7 @@
       </c>
       <c r="J22" s="200">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>6791.73</v>
+        <v>5926.73</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -36227,7 +36234,7 @@
       </c>
       <c r="J23" s="200">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>7657.73</v>
+        <v>6792.73</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -36246,7 +36253,7 @@
       </c>
       <c r="J24" s="200">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>8252.73</v>
+        <v>7387.73</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -36265,7 +36272,7 @@
       </c>
       <c r="J25" s="200">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>8958.73</v>
+        <v>8093.73</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -36284,7 +36291,7 @@
       </c>
       <c r="J26" s="200">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>9553.73</v>
+        <v>8688.73</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -36303,7 +36310,7 @@
       </c>
       <c r="J27" s="200">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>10419.73</v>
+        <v>9554.73</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -36322,7 +36329,7 @@
       </c>
       <c r="J28" s="200">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>10854.73</v>
+        <v>9989.73</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36341,7 +36348,7 @@
       </c>
       <c r="J29" s="196">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>11720.73</v>
+        <v>10855.73</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36363,7 +36370,7 @@
       </c>
       <c r="J30" s="202">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>12936.73</v>
+        <v>12071.73</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36373,7 +36380,7 @@
       </c>
       <c r="J31" s="200">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>14804.73</v>
+        <v>13939.73</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36383,7 +36390,7 @@
       </c>
       <c r="J32" s="200">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>16020.73</v>
+        <v>15155.73</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36393,7 +36400,7 @@
       </c>
       <c r="J33" s="200">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>16615.73</v>
+        <v>15750.73</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36413,7 +36420,7 @@
       </c>
       <c r="J34" s="200">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>17321.73</v>
+        <v>16456.73</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36438,7 +36445,7 @@
       </c>
       <c r="J35" s="200">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>17916.73</v>
+        <v>17051.73</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36461,7 +36468,7 @@
       </c>
       <c r="J36" s="200">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>18782.73</v>
+        <v>17917.73</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36480,7 +36487,7 @@
       </c>
       <c r="J37" s="200">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>19217.73</v>
+        <v>18352.73</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36499,7 +36506,7 @@
       </c>
       <c r="J38" s="200">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>20083.73</v>
+        <v>19218.73</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36518,7 +36525,7 @@
       </c>
       <c r="J39" s="200">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>20728.73</v>
+        <v>19863.73</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36537,7 +36544,7 @@
       </c>
       <c r="J40" s="200">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>21434.73</v>
+        <v>20569.73</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36556,7 +36563,7 @@
       </c>
       <c r="J41" s="200">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>22069.73</v>
+        <v>21204.73</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36578,7 +36585,7 @@
       </c>
       <c r="J42" s="200">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>22935.73</v>
+        <v>22070.73</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36588,7 +36595,7 @@
       </c>
       <c r="J43" s="200">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>24453.73</v>
+        <v>23588.73</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36598,7 +36605,7 @@
       </c>
       <c r="J44" s="200">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>25319.73</v>
+        <v>24454.73</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36608,7 +36615,7 @@
       </c>
       <c r="J45" s="200">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>25964.73</v>
+        <v>25099.73</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36628,7 +36635,7 @@
       </c>
       <c r="J46" s="200">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>26670.73</v>
+        <v>25805.73</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36653,7 +36660,7 @@
       </c>
       <c r="J47" s="200">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>27265.73</v>
+        <v>26400.73</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36676,7 +36683,7 @@
       </c>
       <c r="J48" s="200">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>28131.73</v>
+        <v>27266.73</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36695,7 +36702,7 @@
       </c>
       <c r="J49" s="200">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>28566.73</v>
+        <v>27701.73</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36714,7 +36721,7 @@
       </c>
       <c r="J50" s="196">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>29432.73</v>
+        <v>28567.73</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -38578,8 +38585,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:E36"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -38616,7 +38623,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -38630,7 +38637,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>984.73</v>
+        <v>119.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38644,7 +38651,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2145.36</v>
+        <v>415.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -38966,9 +38973,13 @@
     </row>
     <row r="26" ht="24.75" customHeight="1" spans="1:9">
       <c r="A26" s="132"/>
-      <c r="B26" s="97"/>
+      <c r="B26" s="97" t="s">
+        <v>106</v>
+      </c>
       <c r="C26" s="98"/>
-      <c r="D26" s="97"/>
+      <c r="D26" s="97" t="s">
+        <v>107</v>
+      </c>
       <c r="E26" s="115"/>
       <c r="F26" s="143">
         <v>0</v>
@@ -39111,7 +39122,7 @@
       </c>
       <c r="C36" s="98"/>
       <c r="D36" s="123" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E36" s="147"/>
       <c r="F36" s="7">
@@ -40665,7 +40676,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -40680,7 +40691,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="73" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -40695,7 +40706,7 @@
       <c r="A131" s="63"/>
       <c r="B131" s="64"/>
       <c r="C131" s="74" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D131" s="74"/>
       <c r="E131" s="87">
@@ -40888,7 +40899,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="65" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D145" s="66"/>
       <c r="E145" s="37">
@@ -41033,11 +41044,11 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -41048,11 +41059,11 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -41063,7 +41074,7 @@
       <c r="A158" s="63"/>
       <c r="B158" s="64"/>
       <c r="C158" s="73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D158" s="74"/>
       <c r="E158" s="87">
@@ -41074,15 +41085,15 @@
       <c r="H158" s="14"/>
       <c r="I158" s="48"/>
     </row>
-    <row r="159" ht="103" customHeight="1" spans="1:9">
+    <row r="159" ht="127" customHeight="1" spans="1:9">
       <c r="A159" s="63"/>
       <c r="B159" s="64"/>
       <c r="C159" s="73" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D159" s="74"/>
       <c r="E159" s="87">
-        <v>166.8</v>
+        <v>181.8</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
@@ -41093,7 +41104,7 @@
       <c r="A160" s="63"/>
       <c r="B160" s="64"/>
       <c r="C160" s="73" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D160" s="125"/>
       <c r="E160" s="87">
@@ -41142,7 +41153,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -41226,14 +41237,14 @@
     </row>
     <row r="170" ht="24.75" customHeight="1" spans="1:9">
       <c r="A170" s="56" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -41259,7 +41270,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -41326,7 +41337,7 @@
       <c r="A177" s="63"/>
       <c r="B177" s="64"/>
       <c r="C177" s="114" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D177" s="149"/>
       <c r="E177" s="37">
@@ -41406,7 +41417,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -41421,7 +41432,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -41509,7 +41520,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>984.73</v>
+        <v>119.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -42025,7 +42036,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -42039,7 +42050,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1041.73</v>
+        <v>176.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -42053,7 +42064,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2202.36</v>
+        <v>472.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -43874,7 +43885,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="89" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>984.73</v>
+        <v>119.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -43900,7 +43911,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -44045,7 +44056,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -44060,7 +44071,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -44148,7 +44159,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1050.73</v>
+        <v>185.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -44240,7 +44251,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1050.73</v>
+        <v>185.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -44266,7 +44277,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
@@ -44411,7 +44422,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -44426,7 +44437,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -44514,7 +44525,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>975.73</v>
+        <v>110.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44606,7 +44617,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>975.73</v>
+        <v>110.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44632,7 +44643,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -44777,7 +44788,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -44792,7 +44803,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -44880,7 +44891,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1041.73</v>
+        <v>176.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45445,7 +45456,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -45461,7 +45472,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>977.73</v>
+        <v>112.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45477,7 +45488,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2138.36</v>
+        <v>408.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -47298,7 +47309,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>1041.73</v>
+        <v>176.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -47324,7 +47335,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -47469,7 +47480,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -47484,7 +47495,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -47572,7 +47583,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1016.73</v>
+        <v>151.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47664,7 +47675,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1016.73</v>
+        <v>151.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -47690,7 +47701,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
@@ -47835,7 +47846,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -47850,7 +47861,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -47938,7 +47949,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1032.73</v>
+        <v>167.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -48030,7 +48041,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1032.73</v>
+        <v>167.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -48056,7 +48067,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -48123,7 +48134,7 @@
       <c r="A177" s="63"/>
       <c r="B177" s="64"/>
       <c r="C177" s="65" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D177" s="66"/>
       <c r="E177" s="37">
@@ -48203,7 +48214,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -48218,7 +48229,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -48306,7 +48317,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>977.73</v>
+        <v>112.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48881,7 +48892,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -48897,7 +48908,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>2461.73</v>
+        <v>1596.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -48913,7 +48924,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>3622.36</v>
+        <v>1892.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -50734,7 +50745,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>977.73</v>
+        <v>112.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50825,7 +50836,7 @@
       <c r="A123" s="63"/>
       <c r="B123" s="64"/>
       <c r="C123" s="65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D123" s="66"/>
       <c r="E123" s="37">
@@ -50905,7 +50916,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -50920,7 +50931,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -51008,7 +51019,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1160.73</v>
+        <v>295.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -51100,7 +51111,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1160.73</v>
+        <v>295.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -51269,7 +51280,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -51284,7 +51295,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -51372,7 +51383,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1595.73</v>
+        <v>730.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51464,7 +51475,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1595.73</v>
+        <v>730.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51633,7 +51644,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -51648,7 +51659,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -51736,7 +51747,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>2461.73</v>
+        <v>1596.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -52269,7 +52280,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -52285,7 +52296,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>5490.73</v>
+        <v>4625.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -52301,7 +52312,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>6651.36</v>
+        <v>4921.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -54126,7 +54137,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>2461.73</v>
+        <v>1596.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -54295,7 +54306,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -54310,7 +54321,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -54398,7 +54409,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>3056.73</v>
+        <v>2191.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54490,7 +54501,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>3056.73</v>
+        <v>2191.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54659,7 +54670,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -54674,7 +54685,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -54762,7 +54773,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>4845.73</v>
+        <v>3980.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54854,7 +54865,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>4845.73</v>
+        <v>3980.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -55023,7 +55034,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -55038,7 +55049,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -55126,7 +55137,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>5490.73</v>
+        <v>4625.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55656,7 +55667,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1160.63</v>
+        <v>295.63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -55672,7 +55683,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>7657.73</v>
+        <v>6792.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55688,7 +55699,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>8818.36</v>
+        <v>7088.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -55787,7 +55798,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:9">
       <c r="A11" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -57511,7 +57522,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>5490.73</v>
+        <v>4625.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57680,7 +57691,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -57695,7 +57706,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -57783,7 +57794,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>6356.73</v>
+        <v>5491.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57875,7 +57886,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>6356.73</v>
+        <v>5491.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -58044,7 +58055,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -58059,7 +58070,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -58147,7 +58158,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>6791.73</v>
+        <v>5926.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -58239,7 +58250,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>6791.73</v>
+        <v>5926.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -58408,7 +58419,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -58423,7 +58434,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -58511,7 +58522,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>7657.73</v>
+        <v>6792.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>

--- a/Income And Expenses Forecast Demo.xlsx
+++ b/Income And Expenses Forecast Demo.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="135">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -298,7 +298,7 @@
     <t>Entertainment</t>
   </si>
   <si>
-    <t>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</t>
+    <t>Sportify Music Paid For 7th of Each Month.</t>
   </si>
   <si>
     <t>Hair Cutting</t>
@@ -449,6 +449,9 @@
     <t xml:space="preserve">~ Payback $570 to Mom </t>
   </si>
   <si>
+    <t>~ Payback $150.9 to Mom</t>
+  </si>
+  <si>
     <t>~ See the Doctor (Injection) ~ $19
 ~ See the Doctor For Blood Pressure ~ $50
 ~ Brought Lasix 40mg ~ $75
@@ -482,9 +485,6 @@
     <t>~ Payback $800 to Mom</t>
   </si>
   <si>
-    <t>~ Payback $150.9 to Mom (Amazon Books) Hold Till Receive Half Month Allowances</t>
-  </si>
-  <si>
     <t>~ Food And Transport ~ $400</t>
   </si>
   <si>
@@ -510,6 +510,9 @@
   <si>
     <t>- See the Doctor ~ $240
 - Buy Cigarette Buds ~ $800</t>
+  </si>
+  <si>
+    <t>Payback $300 to Mom</t>
   </si>
   <si>
     <t>~ Payback $683 to Mom For Air Ticket.</t>
@@ -4855,7 +4858,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>8688.73</v>
+        <v>9471.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4871,7 +4874,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>8984.36</v>
+        <v>9767.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -4887,7 +4890,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -6204,7 +6207,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -6386,7 +6389,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -6466,7 +6469,7 @@
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -6486,7 +6489,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -6506,7 +6509,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -6582,7 +6585,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -6598,7 +6601,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326799.51</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -6692,7 +6695,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>6792.73</v>
+        <v>7575.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6861,7 +6864,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -6964,7 +6967,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>7387.73</v>
+        <v>8170.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -7056,7 +7059,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>7387.73</v>
+        <v>8170.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -7225,7 +7228,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -7240,7 +7243,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -7328,7 +7331,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>8093.73</v>
+        <v>8876.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7420,7 +7423,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>8093.73</v>
+        <v>8876.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7589,7 +7592,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -7692,7 +7695,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>8688.73</v>
+        <v>9471.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8224,7 +8227,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>10855.73</v>
+        <v>11638.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8240,7 +8243,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>11151.36</v>
+        <v>11934.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -8256,7 +8259,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -9573,7 +9576,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -9755,7 +9758,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -9835,7 +9838,7 @@
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -9855,7 +9858,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -9875,7 +9878,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -9951,7 +9954,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -9967,7 +9970,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326799.51</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -10061,7 +10064,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>8688.73</v>
+        <v>9471.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -10245,7 +10248,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -10333,7 +10336,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>9554.73</v>
+        <v>10337.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10425,7 +10428,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>9554.73</v>
+        <v>10337.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10594,7 +10597,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -10697,7 +10700,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>9989.73</v>
+        <v>10772.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10789,7 +10792,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>9989.73</v>
+        <v>10772.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -10973,7 +10976,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -11061,7 +11064,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>10855.73</v>
+        <v>11638.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11589,7 +11592,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>15155.73</v>
+        <v>15938.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11605,7 +11608,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>15451.36</v>
+        <v>16234.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -11621,7 +11624,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -12942,7 +12945,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>0</v>
@@ -13124,7 +13127,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -13204,7 +13207,7 @@
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -13224,7 +13227,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -13244,7 +13247,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -13320,7 +13323,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -13336,7 +13339,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -13430,7 +13433,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>10855.73</v>
+        <v>11638.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13614,7 +13617,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -13702,7 +13705,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>12071.73</v>
+        <v>12854.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13794,7 +13797,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>12071.73</v>
+        <v>12854.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -13963,7 +13966,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -14066,7 +14069,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>13939.73</v>
+        <v>14722.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -14158,7 +14161,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>13939.73</v>
+        <v>14722.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -14342,7 +14345,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -14430,7 +14433,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>15155.73</v>
+        <v>15938.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -14956,7 +14959,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>17051.73</v>
+        <v>17834.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -14972,7 +14975,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>17347.36</v>
+        <v>18130.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -14988,7 +14991,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -16305,7 +16308,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -16487,7 +16490,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -16567,7 +16570,7 @@
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -16587,7 +16590,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -16607,7 +16610,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -16683,7 +16686,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -16699,7 +16702,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326799.51</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -16793,7 +16796,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>15155.73</v>
+        <v>15938.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -16962,7 +16965,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -17065,7 +17068,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>15750.73</v>
+        <v>16533.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -17157,7 +17160,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>15750.73</v>
+        <v>16533.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -17326,7 +17329,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -17341,7 +17344,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -17429,7 +17432,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>16456.73</v>
+        <v>17239.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17521,7 +17524,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>16456.73</v>
+        <v>17239.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17690,7 +17693,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -17793,7 +17796,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>17051.73</v>
+        <v>17834.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18326,7 +18329,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>19218.73</v>
+        <v>20001.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18342,7 +18345,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>19514.36</v>
+        <v>20297.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -18358,7 +18361,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -19675,7 +19678,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -19857,7 +19860,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -19937,7 +19940,7 @@
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -19957,7 +19960,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -19977,7 +19980,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -20053,7 +20056,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -20069,7 +20072,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326799.51</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -20163,7 +20166,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>17051.73</v>
+        <v>17834.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -20347,7 +20350,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -20435,7 +20438,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>17917.73</v>
+        <v>18700.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20527,7 +20530,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>17917.73</v>
+        <v>18700.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20696,7 +20699,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -20799,7 +20802,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>18352.73</v>
+        <v>19135.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20891,7 +20894,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>18352.73</v>
+        <v>19135.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -21075,7 +21078,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -21163,7 +21166,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>19218.73</v>
+        <v>20001.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21689,7 +21692,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>21204.73</v>
+        <v>21987.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21705,7 +21708,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>21500.36</v>
+        <v>22283.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -21721,7 +21724,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -23038,7 +23041,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -23220,7 +23223,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -23300,7 +23303,7 @@
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -23320,7 +23323,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -23340,7 +23343,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -23416,7 +23419,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -23432,7 +23435,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326799.51</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -23526,7 +23529,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>19218.73</v>
+        <v>20001.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23798,7 +23801,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>19863.73</v>
+        <v>20646.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23890,7 +23893,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>19863.73</v>
+        <v>20646.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -24059,7 +24062,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -24074,7 +24077,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -24162,7 +24165,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>20569.73</v>
+        <v>21352.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24254,7 +24257,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>20569.73</v>
+        <v>21352.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24423,7 +24426,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -24526,7 +24529,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>21204.73</v>
+        <v>21987.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -25058,7 +25061,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>24454.73</v>
+        <v>25237.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -25074,7 +25077,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>24750.36</v>
+        <v>25533.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -25090,7 +25093,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -26411,7 +26414,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="37">
         <v>68</v>
@@ -26593,7 +26596,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -26673,7 +26676,7 @@
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -26693,7 +26696,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -26713,7 +26716,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -26789,7 +26792,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -26805,7 +26808,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326799.51</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -26899,7 +26902,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>21204.73</v>
+        <v>21987.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -27083,7 +27086,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -27171,7 +27174,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>22070.73</v>
+        <v>22853.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27263,7 +27266,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>22070.73</v>
+        <v>22853.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27432,7 +27435,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -27535,7 +27538,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>23588.73</v>
+        <v>24371.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27627,7 +27630,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>23588.73</v>
+        <v>24371.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27811,7 +27814,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -27899,7 +27902,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>24454.73</v>
+        <v>25237.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28412,7 +28415,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>26400.73</v>
+        <v>27183.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28428,7 +28431,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>26696.36</v>
+        <v>27479.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -28444,7 +28447,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -29761,7 +29764,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="37">
         <v>68</v>
@@ -29943,7 +29946,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -30018,11 +30021,11 @@
         <v>Bankruptcy Department / Bank</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -30042,7 +30045,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -30062,7 +30065,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -30138,7 +30141,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -30154,7 +30157,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326799.51</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -30248,7 +30251,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>24454.73</v>
+        <v>25237.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30520,7 +30523,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>25099.73</v>
+        <v>25882.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30612,7 +30615,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>25099.73</v>
+        <v>25882.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30781,7 +30784,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -30796,7 +30799,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -30884,7 +30887,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>25805.73</v>
+        <v>26588.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -30976,7 +30979,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>25805.73</v>
+        <v>26588.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -31145,7 +31148,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -31248,7 +31251,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>26400.73</v>
+        <v>27183.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31768,7 +31771,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>28567.73</v>
+        <v>29350.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31784,7 +31787,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>28863.36</v>
+        <v>29646.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -31800,7 +31803,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -33117,7 +33120,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="37">
         <v>68</v>
@@ -33299,7 +33302,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="69"/>
@@ -33379,7 +33382,7 @@
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -33399,7 +33402,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -33419,7 +33422,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -33495,7 +33498,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -33511,7 +33514,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326799.51</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -33605,7 +33608,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>26400.73</v>
+        <v>27183.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33789,7 +33792,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -33877,7 +33880,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>27266.73</v>
+        <v>28049.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -33969,7 +33972,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>27266.73</v>
+        <v>28049.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -34138,7 +34141,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -34241,7 +34244,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>27701.73</v>
+        <v>28484.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34333,7 +34336,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>27701.73</v>
+        <v>28484.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34517,7 +34520,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -34605,7 +34608,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>28567.73</v>
+        <v>29350.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -35607,8 +35610,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35703,7 +35706,7 @@
       </c>
       <c r="N3" s="196">
         <f>-C122</f>
-        <v>-333353.41</v>
+        <v>-7203.9</v>
       </c>
     </row>
     <row r="4" ht="35.25" customHeight="1" spans="1:14">
@@ -35735,7 +35738,7 @@
       </c>
       <c r="N4" s="196">
         <f ca="1">'April 2025 - June 2025'!C5</f>
-        <v>-331832.51</v>
+        <v>-5683</v>
       </c>
     </row>
     <row r="5" ht="35.25" customHeight="1" spans="1:14">
@@ -35767,7 +35770,7 @@
       </c>
       <c r="N5" s="196">
         <f ca="1">'July 2025 - September 2025'!C5</f>
-        <v>-329432.51</v>
+        <v>-3283</v>
       </c>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:14">
@@ -35799,7 +35802,7 @@
       </c>
       <c r="N6" s="196">
         <f ca="1">'October 2025 - December 2025'!C5</f>
-        <v>-327132.51</v>
+        <v>-983</v>
       </c>
     </row>
     <row r="7" ht="35.25" customHeight="1" spans="1:14">
@@ -35823,7 +35826,7 @@
       </c>
       <c r="J7" s="196">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>295.63</v>
+        <v>1227.73</v>
       </c>
       <c r="M7" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35831,7 +35834,7 @@
       </c>
       <c r="N7" s="196">
         <f ca="1">'January 2026 - March 2026'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:14">
@@ -35856,7 +35859,7 @@
       </c>
       <c r="J8" s="196">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>119.73</v>
+        <v>1202.73</v>
       </c>
       <c r="M8" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35864,7 +35867,7 @@
       </c>
       <c r="N8" s="196">
         <f ca="1">'April 2026 - June 2026'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="39.75" customHeight="1" spans="1:14">
@@ -35888,7 +35891,7 @@
       </c>
       <c r="J9" s="196">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>185.73</v>
+        <v>1268.73</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35896,7 +35899,7 @@
       </c>
       <c r="N9" s="205">
         <f ca="1">'July 2026 - September 2026'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="35.25" customHeight="1" spans="1:14">
@@ -35920,7 +35923,7 @@
       </c>
       <c r="J10" s="196">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>110.73</v>
+        <v>1193.73</v>
       </c>
       <c r="M10" s="206" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -35928,7 +35931,7 @@
       </c>
       <c r="N10" s="196">
         <f ca="1">'October 2026 - December 2026'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="35.25" customHeight="1" spans="1:14">
@@ -35953,7 +35956,7 @@
       </c>
       <c r="J11" s="196">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>176.73</v>
+        <v>1259.73</v>
       </c>
       <c r="M11" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -35961,7 +35964,7 @@
       </c>
       <c r="N11" s="200">
         <f ca="1">'January 2027 - March 2027'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:14">
@@ -35985,7 +35988,7 @@
       </c>
       <c r="J12" s="196">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>151.73</v>
+        <v>1234.73</v>
       </c>
       <c r="M12" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -35993,7 +35996,7 @@
       </c>
       <c r="N12" s="200">
         <f ca="1">'April 2027 - June 2027'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="35.25" customHeight="1" spans="1:14">
@@ -36017,7 +36020,7 @@
       </c>
       <c r="J13" s="196">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>167.73</v>
+        <v>1250.73</v>
       </c>
       <c r="M13" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -36025,7 +36028,7 @@
       </c>
       <c r="N13" s="200">
         <f ca="1">'July 2027 - September 2027'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="35.25" customHeight="1" spans="1:14">
@@ -36049,7 +36052,7 @@
       </c>
       <c r="J14" s="200">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>112.73</v>
+        <v>1195.73</v>
       </c>
       <c r="M14" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -36057,7 +36060,7 @@
       </c>
       <c r="N14" s="200">
         <f ca="1">'October 2027 - December 2027'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="35.25" customHeight="1" spans="1:14">
@@ -36081,7 +36084,7 @@
       </c>
       <c r="J15" s="200">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>295.73</v>
+        <v>1078.73</v>
       </c>
       <c r="M15" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -36089,7 +36092,7 @@
       </c>
       <c r="N15" s="200">
         <f ca="1">'January 2028 - March 2028'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="35.25" customHeight="1" spans="1:14">
@@ -36115,7 +36118,7 @@
       </c>
       <c r="J16" s="200">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>730.73</v>
+        <v>1513.73</v>
       </c>
       <c r="M16" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -36123,7 +36126,7 @@
       </c>
       <c r="N16" s="200">
         <f ca="1">'April 2028 - June 2028'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="35.25" customHeight="1" spans="9:14">
@@ -36133,7 +36136,7 @@
       </c>
       <c r="J17" s="200">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>1596.73</v>
+        <v>2379.73</v>
       </c>
       <c r="M17" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -36141,7 +36144,7 @@
       </c>
       <c r="N17" s="200">
         <f ca="1">'July 2028 - September 2028'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="35.25" customHeight="1" spans="9:14">
@@ -36151,7 +36154,7 @@
       </c>
       <c r="J18" s="200">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>2191.73</v>
+        <v>2974.73</v>
       </c>
       <c r="M18" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -36159,7 +36162,7 @@
       </c>
       <c r="N18" s="196">
         <f ca="1">'October 2028 - December 2028'!C5</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="33" customHeight="1" spans="9:10">
@@ -36169,7 +36172,7 @@
       </c>
       <c r="J19" s="200">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>3980.73</v>
+        <v>4763.73</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -36179,7 +36182,7 @@
       </c>
       <c r="J20" s="200">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>4625.73</v>
+        <v>5408.73</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -36189,7 +36192,7 @@
       </c>
       <c r="J21" s="200">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>5491.73</v>
+        <v>6274.73</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -36209,7 +36212,7 @@
       </c>
       <c r="J22" s="200">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>5926.73</v>
+        <v>6709.73</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -36234,7 +36237,7 @@
       </c>
       <c r="J23" s="200">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>6792.73</v>
+        <v>7575.73</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -36253,7 +36256,7 @@
       </c>
       <c r="J24" s="200">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>7387.73</v>
+        <v>8170.73</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -36272,7 +36275,7 @@
       </c>
       <c r="J25" s="200">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>8093.73</v>
+        <v>8876.73</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -36291,7 +36294,7 @@
       </c>
       <c r="J26" s="200">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>8688.73</v>
+        <v>9471.73</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -36310,7 +36313,7 @@
       </c>
       <c r="J27" s="200">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>9554.73</v>
+        <v>10337.73</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -36329,7 +36332,7 @@
       </c>
       <c r="J28" s="200">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>9989.73</v>
+        <v>10772.73</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36348,7 +36351,7 @@
       </c>
       <c r="J29" s="196">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>10855.73</v>
+        <v>11638.73</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36370,7 +36373,7 @@
       </c>
       <c r="J30" s="202">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>12071.73</v>
+        <v>12854.73</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36380,7 +36383,7 @@
       </c>
       <c r="J31" s="200">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>13939.73</v>
+        <v>14722.73</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36390,7 +36393,7 @@
       </c>
       <c r="J32" s="200">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>15155.73</v>
+        <v>15938.73</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36400,7 +36403,7 @@
       </c>
       <c r="J33" s="200">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>15750.73</v>
+        <v>16533.73</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36420,7 +36423,7 @@
       </c>
       <c r="J34" s="200">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>16456.73</v>
+        <v>17239.73</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36445,7 +36448,7 @@
       </c>
       <c r="J35" s="200">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>17051.73</v>
+        <v>17834.73</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36468,7 +36471,7 @@
       </c>
       <c r="J36" s="200">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>17917.73</v>
+        <v>18700.73</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36487,7 +36490,7 @@
       </c>
       <c r="J37" s="200">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>18352.73</v>
+        <v>19135.73</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36506,7 +36509,7 @@
       </c>
       <c r="J38" s="200">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>19218.73</v>
+        <v>20001.73</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36525,7 +36528,7 @@
       </c>
       <c r="J39" s="200">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>19863.73</v>
+        <v>20646.73</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36544,7 +36547,7 @@
       </c>
       <c r="J40" s="200">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>20569.73</v>
+        <v>21352.73</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36563,7 +36566,7 @@
       </c>
       <c r="J41" s="200">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>21204.73</v>
+        <v>21987.73</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36585,7 +36588,7 @@
       </c>
       <c r="J42" s="200">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>22070.73</v>
+        <v>22853.73</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36595,7 +36598,7 @@
       </c>
       <c r="J43" s="200">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>23588.73</v>
+        <v>24371.73</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36605,7 +36608,7 @@
       </c>
       <c r="J44" s="200">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>24454.73</v>
+        <v>25237.73</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36615,7 +36618,7 @@
       </c>
       <c r="J45" s="200">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>25099.73</v>
+        <v>25882.73</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36635,7 +36638,7 @@
       </c>
       <c r="J46" s="200">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>25805.73</v>
+        <v>26588.73</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36660,7 +36663,7 @@
       </c>
       <c r="J47" s="200">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>26400.73</v>
+        <v>27183.73</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36683,7 +36686,7 @@
       </c>
       <c r="J48" s="200">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>27266.73</v>
+        <v>28049.73</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36702,7 +36705,7 @@
       </c>
       <c r="J49" s="200">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>27701.73</v>
+        <v>28484.73</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36721,7 +36724,7 @@
       </c>
       <c r="J50" s="196">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>28567.73</v>
+        <v>29350.73</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -37271,7 +37274,7 @@
       </c>
       <c r="B116" s="184"/>
       <c r="C116" s="220">
-        <v>326149.51</v>
+        <v>0</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
@@ -37350,7 +37353,7 @@
       </c>
       <c r="C122" s="207">
         <f>SUM(C112:C121)</f>
-        <v>333353.41</v>
+        <v>7203.9</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -37360,7 +37363,7 @@
       </c>
       <c r="C123" s="37">
         <f>C122+C110</f>
-        <v>333753.41</v>
+        <v>7603.9</v>
       </c>
     </row>
     <row r="124" spans="5:5">
@@ -38585,8 +38588,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -38637,7 +38640,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>119.73</v>
+        <v>1202.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38651,7 +38654,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>415.36</v>
+        <v>1498.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -38667,7 +38670,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-331832.51</v>
+        <v>-5683</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -38931,7 +38934,7 @@
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="7">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="14"/>
@@ -39011,7 +39014,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="46">
         <f>SUM(F22:G27)</f>
-        <v>2553</v>
+        <v>3636</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="14"/>
@@ -40019,7 +40022,7 @@
       </c>
       <c r="B88" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -40281,7 +40284,7 @@
       </c>
       <c r="C102" s="106" cm="1">
         <f ca="1" t="array" ref="C102">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E135")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E162")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E189")))+SUM(E122+E149+E176))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C116")</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="148"/>
@@ -40301,7 +40304,7 @@
       </c>
       <c r="C103" s="106" cm="1">
         <f ca="1" t="array" ref="C103">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E136")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E163")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E190")))+SUM(E123+E150+E177))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C117")</f>
-        <v>-932.1</v>
+        <v>-1083</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -40321,7 +40324,7 @@
       </c>
       <c r="C104" s="106" cm="1">
         <f ca="1" t="array" ref="C104">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E137")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E164")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E191")))+SUM(E124+E151+E178))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C118")</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -40397,7 +40400,7 @@
       </c>
       <c r="C108" s="106">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-331832.51</v>
+        <v>-5683</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -40413,7 +40416,7 @@
       </c>
       <c r="C109" s="106">
         <f ca="1">C108-C96</f>
-        <v>-332252.5</v>
+        <v>-6102.99</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -40978,10 +40981,12 @@
     <row r="151" ht="27" customHeight="1" spans="1:9">
       <c r="A151" s="63"/>
       <c r="B151" s="64"/>
-      <c r="C151" s="114"/>
+      <c r="C151" s="114" t="s">
+        <v>113</v>
+      </c>
       <c r="D151" s="149"/>
       <c r="E151" s="37">
-        <v>0</v>
+        <v>150.9</v>
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
@@ -41044,7 +41049,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -41059,7 +41064,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -41074,7 +41079,7 @@
       <c r="A158" s="63"/>
       <c r="B158" s="64"/>
       <c r="C158" s="73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D158" s="74"/>
       <c r="E158" s="87">
@@ -41089,7 +41094,7 @@
       <c r="A159" s="63"/>
       <c r="B159" s="64"/>
       <c r="C159" s="73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D159" s="74"/>
       <c r="E159" s="87">
@@ -41104,7 +41109,7 @@
       <c r="A160" s="63"/>
       <c r="B160" s="64"/>
       <c r="C160" s="73" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D160" s="125"/>
       <c r="E160" s="87">
@@ -41153,7 +41158,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>295.63</v>
+        <v>1227.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -41237,14 +41242,14 @@
     </row>
     <row r="170" ht="24.75" customHeight="1" spans="1:9">
       <c r="A170" s="56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>295.63</v>
+        <v>1227.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -41270,7 +41275,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -41333,15 +41338,13 @@
       <c r="H176" s="14"/>
       <c r="I176" s="48"/>
     </row>
-    <row r="177" ht="56" customHeight="1" spans="1:9">
+    <row r="177" ht="33" customHeight="1" spans="1:9">
       <c r="A177" s="63"/>
       <c r="B177" s="64"/>
-      <c r="C177" s="114" t="s">
-        <v>120</v>
-      </c>
+      <c r="C177" s="114"/>
       <c r="D177" s="149"/>
       <c r="E177" s="37">
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
@@ -41520,7 +41523,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>119.73</v>
+        <v>1202.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -42001,7 +42004,7 @@
   <sheetPr/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
@@ -42050,7 +42053,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>176.73</v>
+        <v>1259.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -42064,7 +42067,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>472.36</v>
+        <v>1555.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -42080,7 +42083,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-329432.51</v>
+        <v>-3283</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -43397,7 +43400,7 @@
       </c>
       <c r="B88" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -43659,7 +43662,7 @@
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -43679,7 +43682,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>-932.1</v>
+        <v>-1083</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -43699,7 +43702,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -43775,7 +43778,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-329432.51</v>
+        <v>-3283</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -43791,7 +43794,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-329782.51</v>
+        <v>-3633</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -43885,7 +43888,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="89" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>119.73</v>
+        <v>1202.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -43911,7 +43914,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -44071,7 +44074,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -44159,7 +44162,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>185.73</v>
+        <v>1268.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -44251,7 +44254,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>185.73</v>
+        <v>1268.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -44277,7 +44280,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
@@ -44525,7 +44528,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>110.73</v>
+        <v>1193.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44617,7 +44620,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>110.73</v>
+        <v>1193.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44643,7 +44646,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -44803,7 +44806,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -44891,7 +44894,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>176.73</v>
+        <v>1259.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45421,8 +45424,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177:D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -45472,7 +45475,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>112.73</v>
+        <v>1195.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45488,7 +45491,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>408.36</v>
+        <v>1491.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -45504,7 +45507,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-327132.51</v>
+        <v>-983</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -46821,7 +46824,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -47083,7 +47086,7 @@
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -47103,7 +47106,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>-532.1</v>
+        <v>-683</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -47123,7 +47126,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -47199,7 +47202,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-327132.51</v>
+        <v>-983</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -47215,7 +47218,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-327482.51</v>
+        <v>-1333</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -47309,7 +47312,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>176.73</v>
+        <v>1259.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -47335,7 +47338,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -47583,7 +47586,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>151.73</v>
+        <v>1234.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47675,7 +47678,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>151.73</v>
+        <v>1234.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -47701,7 +47704,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
@@ -47861,7 +47864,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -47949,7 +47952,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>167.73</v>
+        <v>1250.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -48041,7 +48044,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>167.73</v>
+        <v>1250.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -48317,7 +48320,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>112.73</v>
+        <v>1195.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48856,8 +48859,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -48908,7 +48911,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1596.73</v>
+        <v>2379.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -48924,7 +48927,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>1892.36</v>
+        <v>2675.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -48940,7 +48943,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -50257,7 +50260,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -50439,7 +50442,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -50519,7 +50522,7 @@
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -50539,7 +50542,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -50559,7 +50562,7 @@
       </c>
       <c r="C104" s="37" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -50635,7 +50638,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -50651,7 +50654,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-326799.51</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -50745,7 +50748,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>112.73</v>
+        <v>1195.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50770,10 +50773,12 @@
     <row r="118" ht="24.75" customHeight="1" spans="1:9">
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
-      <c r="C118" s="74"/>
+      <c r="C118" s="74" t="s">
+        <v>128</v>
+      </c>
       <c r="D118" s="74"/>
       <c r="E118" s="87">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
@@ -50836,7 +50841,7 @@
       <c r="A123" s="63"/>
       <c r="B123" s="64"/>
       <c r="C123" s="65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D123" s="66"/>
       <c r="E123" s="37">
@@ -50931,7 +50936,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -51019,7 +51024,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>295.73</v>
+        <v>1078.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -51111,7 +51116,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>295.73</v>
+        <v>1078.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -51280,7 +51285,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -51383,7 +51388,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>730.73</v>
+        <v>1513.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51475,7 +51480,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>730.73</v>
+        <v>1513.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51659,7 +51664,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -51747,7 +51752,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1596.73</v>
+        <v>2379.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -52246,8 +52251,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -52296,7 +52301,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>4625.73</v>
+        <v>5408.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -52312,7 +52317,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>4921.36</v>
+        <v>5704.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -52328,7 +52333,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -53642,14 +53647,14 @@
       <c r="H87" s="14"/>
       <c r="I87" s="48"/>
     </row>
-    <row r="88" ht="24.75" customHeight="1" spans="1:9">
+    <row r="88" ht="71" customHeight="1" spans="1:9">
       <c r="A88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="A88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A102")))</f>
         <v>Entertainment</v>
       </c>
-      <c r="B88" s="36" t="str" cm="1">
+      <c r="B88" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -53699,7 +53704,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="48"/>
     </row>
-    <row r="91" ht="24.75" customHeight="1" spans="1:9">
+    <row r="91" ht="55" customHeight="1" spans="1:9">
       <c r="A91" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="A91">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A105")))</f>
         <v>Oxford Dictionary</v>
@@ -53831,7 +53836,7 @@
       </c>
       <c r="C98" s="106" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -53880,7 +53885,7 @@
       <c r="H100" s="14"/>
       <c r="I100" s="48"/>
     </row>
-    <row r="101" ht="24.75" customHeight="1" spans="1:9">
+    <row r="101" ht="50" customHeight="1" spans="1:9">
       <c r="A101" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="A101">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A115"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A115")))</f>
         <v>Hong Kong Government Hospital Authority</v>
@@ -53900,7 +53905,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="48"/>
     </row>
-    <row r="102" ht="24.75" customHeight="1" spans="1:9">
+    <row r="102" ht="43" customHeight="1" spans="1:9">
       <c r="A102" s="38" t="str" cm="1">
         <f ca="1" t="array" ref="A102">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A116"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!A116")))</f>
         <v>Bankruptcy Department / Bank</v>
@@ -53911,7 +53916,7 @@
       </c>
       <c r="C102" s="106" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -53931,7 +53936,7 @@
       </c>
       <c r="C103" s="106" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -53951,7 +53956,7 @@
       </c>
       <c r="C104" s="106" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -54027,7 +54032,7 @@
       </c>
       <c r="C108" s="106">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -54043,7 +54048,7 @@
       </c>
       <c r="C109" s="106">
         <f ca="1">C108-C96</f>
-        <v>-326799.51</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -54137,7 +54142,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>1596.73</v>
+        <v>2379.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -54306,7 +54311,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -54409,7 +54414,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>2191.73</v>
+        <v>2974.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54501,7 +54506,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>2191.73</v>
+        <v>2974.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54670,7 +54675,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -54685,7 +54690,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -54773,7 +54778,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>3980.73</v>
+        <v>4763.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54865,7 +54870,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>3980.73</v>
+        <v>4763.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -55137,7 +55142,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>4625.73</v>
+        <v>5408.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55683,7 +55688,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>6792.73</v>
+        <v>7575.73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55699,7 +55704,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>7088.36</v>
+        <v>7871.36</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -55715,7 +55720,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -55798,7 +55803,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:9">
       <c r="A11" s="101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -57034,7 +57039,7 @@
       </c>
       <c r="B88" s="36" t="str" cm="1">
         <f ca="1" t="array" ref="B88">IF((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102"))=0,"",(INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!B102")))</f>
-        <v>Sportify Music Paid For 7th of Each Month. Switch to Apple Music on the 6th of July 2025.</v>
+        <v>Sportify Music Paid For 7th of Each Month.</v>
       </c>
       <c r="C88" s="87">
         <v>68</v>
@@ -57216,7 +57221,7 @@
       </c>
       <c r="C98" s="106" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -57296,7 +57301,7 @@
       </c>
       <c r="C102" s="106" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!C102")+SUM(E122+E149+E176)</f>
-        <v>-326149.51</v>
+        <v>0</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -57316,7 +57321,7 @@
       </c>
       <c r="C103" s="106" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -57336,7 +57341,7 @@
       </c>
       <c r="C104" s="106" cm="1">
         <f ca="1" t="array" ref="C104">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!C104")+SUM(E124+E151+E178)</f>
-        <v>-150.9</v>
+        <v>0</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -57412,7 +57417,7 @@
       </c>
       <c r="C108" s="106">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-326449.51</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -57428,7 +57433,7 @@
       </c>
       <c r="C109" s="106">
         <f ca="1">C108-C96</f>
-        <v>-326799.51</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -57522,7 +57527,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>4625.73</v>
+        <v>5408.73</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57706,7 +57711,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -57794,7 +57799,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>5491.73</v>
+        <v>6274.73</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57886,7 +57891,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>5491.73</v>
+        <v>6274.73</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -58055,7 +58060,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -58158,7 +58163,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>5926.73</v>
+        <v>6709.73</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -58250,7 +58255,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>5926.73</v>
+        <v>6709.73</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -58434,7 +58439,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -58522,7 +58527,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>6792.73</v>
+        <v>7575.73</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>

--- a/Income And Expenses Forecast Demo.xlsx
+++ b/Income And Expenses Forecast Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21480"/>
+    <workbookView windowHeight="21480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="136">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>~ Amazon Book Store ~ $150.9</t>
+  </si>
+  <si>
+    <t>~ Top Up For Octopus $50 (Don't need to Include)</t>
   </si>
   <si>
     <t xml:space="preserve">~ Payback $570 to Mom </t>
@@ -3045,7 +3048,7 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -6864,7 +6867,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -6879,7 +6882,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -7228,7 +7231,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -7243,7 +7246,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -7592,7 +7595,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -7607,7 +7610,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -10233,7 +10236,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -10248,7 +10251,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -10597,7 +10600,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -10612,7 +10615,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -10961,7 +10964,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -10976,7 +10979,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -13602,7 +13605,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -13617,7 +13620,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -13966,7 +13969,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -13981,7 +13984,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -14330,7 +14333,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -14345,7 +14348,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -16965,7 +16968,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -16980,7 +16983,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -17329,7 +17332,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -17344,7 +17347,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -17693,7 +17696,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -17708,7 +17711,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -20335,7 +20338,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -20350,7 +20353,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -20699,7 +20702,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -20714,7 +20717,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -21063,7 +21066,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -21078,7 +21081,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -23698,7 +23701,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -23713,7 +23716,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -24062,7 +24065,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -24077,7 +24080,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -24426,7 +24429,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -24441,7 +24444,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -27071,7 +27074,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -27086,7 +27089,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -27435,7 +27438,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -27450,7 +27453,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -27799,7 +27802,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -27814,7 +27817,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -30021,7 +30024,7 @@
         <v>Bankruptcy Department / Bank</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
@@ -30420,7 +30423,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -30435,7 +30438,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -30784,7 +30787,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -30799,7 +30802,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -31148,7 +31151,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -31163,7 +31166,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -33777,7 +33780,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -33792,7 +33795,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -34141,7 +34144,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -34156,7 +34159,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -34505,7 +34508,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -34520,7 +34523,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -38588,8 +38591,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:G23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133:D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -40723,7 +40726,9 @@
     <row r="132" ht="24.75" customHeight="1" spans="1:9">
       <c r="A132" s="63"/>
       <c r="B132" s="64"/>
-      <c r="C132" s="74"/>
+      <c r="C132" s="74" t="s">
+        <v>112</v>
+      </c>
       <c r="D132" s="74"/>
       <c r="E132" s="87">
         <v>0</v>
@@ -40902,7 +40907,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D145" s="66"/>
       <c r="E145" s="37">
@@ -40982,7 +40987,7 @@
       <c r="A151" s="63"/>
       <c r="B151" s="64"/>
       <c r="C151" s="114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D151" s="149"/>
       <c r="E151" s="37">
@@ -41049,7 +41054,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -41064,7 +41069,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -41079,7 +41084,7 @@
       <c r="A158" s="63"/>
       <c r="B158" s="64"/>
       <c r="C158" s="73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D158" s="74"/>
       <c r="E158" s="87">
@@ -41094,7 +41099,7 @@
       <c r="A159" s="63"/>
       <c r="B159" s="64"/>
       <c r="C159" s="73" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D159" s="74"/>
       <c r="E159" s="87">
@@ -41109,7 +41114,7 @@
       <c r="A160" s="63"/>
       <c r="B160" s="64"/>
       <c r="C160" s="73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D160" s="125"/>
       <c r="E160" s="87">
@@ -41242,7 +41247,7 @@
     </row>
     <row r="170" ht="24.75" customHeight="1" spans="1:9">
       <c r="A170" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
@@ -41275,7 +41280,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -41435,7 +41440,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -43914,7 +43919,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -44059,7 +44064,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -44074,7 +44079,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -44280,7 +44285,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
@@ -44425,7 +44430,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -44440,7 +44445,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -44646,7 +44651,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -44791,7 +44796,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -44806,7 +44811,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -47338,7 +47343,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -47498,7 +47503,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -47704,7 +47709,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
@@ -47849,7 +47854,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -47864,7 +47869,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -48070,7 +48075,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -48137,7 +48142,7 @@
       <c r="A177" s="63"/>
       <c r="B177" s="64"/>
       <c r="C177" s="65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D177" s="66"/>
       <c r="E177" s="37">
@@ -48217,7 +48222,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -48232,7 +48237,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -50774,7 +50779,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="87">
@@ -50841,7 +50846,7 @@
       <c r="A123" s="63"/>
       <c r="B123" s="64"/>
       <c r="C123" s="65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D123" s="66"/>
       <c r="E123" s="37">
@@ -50921,7 +50926,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -50936,7 +50941,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -51285,7 +51290,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -51300,7 +51305,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -51649,7 +51654,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -51664,7 +51669,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -54311,7 +54316,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -54326,7 +54331,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -54675,7 +54680,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -54690,7 +54695,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -55039,7 +55044,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -55054,7 +55059,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -55803,7 +55808,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:9">
       <c r="A11" s="101" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -57696,7 +57701,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -57711,7 +57716,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -58060,7 +58065,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -58075,7 +58080,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -58424,7 +58429,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -58439,7 +58444,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">

--- a/Income And Expenses Forecast Demo.xlsx
+++ b/Income And Expenses Forecast Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21480" activeTab="3"/>
+    <workbookView windowHeight="21480"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="137">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -409,16 +409,25 @@
     <t>Sportify $68 for 2 months</t>
   </si>
   <si>
-    <t>Birdie Mobile</t>
+    <t>1. Birdie Mobile
+2. Oxford Dictionary</t>
   </si>
   <si>
-    <t>Stop Services</t>
+    <t>1. Stop Services ~ $50
+2. Stop Services ~ 19.99</t>
   </si>
   <si>
     <t>Octopus</t>
   </si>
   <si>
-    <t>Top Up For Octopus $50 (Don't need to Include)</t>
+    <t>1. 20th May 2025 -  Top Up For Octopus $50 (Don't need to Include)
+2. 23rd May 2025 -  Top Up For Octopus $100 (Don't need to Include)</t>
+  </si>
+  <si>
+    <t>Birdie Mobile</t>
+  </si>
+  <si>
+    <t>Stop Services</t>
   </si>
   <si>
     <t>Cancel Oxford Dictionary Subscription</t>
@@ -446,9 +455,6 @@
     <t>~ Amazon Book Store ~ $150.9</t>
   </si>
   <si>
-    <t>~ Top Up For Octopus $50 (Don't need to Include)</t>
-  </si>
-  <si>
     <t xml:space="preserve">~ Payback $570 to Mom </t>
   </si>
   <si>
@@ -458,14 +464,16 @@
     <t>~ See the Doctor (Injection) ~ $19
 ~ See the Doctor For Blood Pressure ~ $50
 ~ Brought Lasix 40mg ~ $75
-~ Brought Bandage 4 inches X 2 ~ $10</t>
+~ Brought Bandage 4 inches X 2 ~ $20</t>
   </si>
   <si>
     <t>~ Buy Cigarette Buds ~ $800</t>
   </si>
   <si>
     <t>~ Apple Music one month
-~ Top Up For Mobile And Comunication ~ $0.6</t>
+~ Top Up For Mobile And Comunication ~ $0.6
+~ 20th May 2025 - Top Up For Octopus $50 (Don't need to Include)
+~ 23rd May 2025 - Top Up For Octopus $100 (Don't need to Include)</t>
   </si>
   <si>
     <t>~ Food And Transport
@@ -473,13 +481,15 @@
    - Chicken Chops X 2 ~ $21
    - Vegetables 1 kg ~ $12
    - Best Mart 360 ~ Coffee Beans $98
-  - OK Store ~ Soft drinks $15</t>
+  - OK Store ~ Soft drinks $15
+  - U Store ~ $16.5</t>
   </si>
   <si>
     <t>~ Nivea body lotion 380ml ~ $32
 ~ Longevity Sweetened Milk 374GM ~ $11
 ~ Market Slippers ~ $69
-~ Round Trip to Mong Kok ~ $6</t>
+~ Round Trip to Mong Kok ~ $6
+~ Round Trip to Robert Black Hospital ~ $4</t>
   </si>
   <si>
     <t>Balance Brought Forward From July 2024</t>
@@ -3048,7 +3058,7 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -4845,7 +4855,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4861,7 +4871,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>9471.73</v>
+        <v>9436.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4877,7 +4887,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>9767.36</v>
+        <v>10628.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6698,7 +6708,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>7575.73</v>
+        <v>7540.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6867,7 +6877,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -6882,7 +6892,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -6970,7 +6980,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>8170.73</v>
+        <v>8135.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -7062,7 +7072,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>8170.73</v>
+        <v>8135.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -7231,7 +7241,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -7246,7 +7256,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -7334,7 +7344,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>8876.73</v>
+        <v>8841.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7426,7 +7436,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>8876.73</v>
+        <v>8841.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7595,7 +7605,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -7610,7 +7620,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -7698,7 +7708,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>9471.73</v>
+        <v>9436.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8214,7 +8224,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -8230,7 +8240,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>11638.73</v>
+        <v>11603.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8246,7 +8256,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>11934.36</v>
+        <v>12795.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -10067,7 +10077,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>9471.73</v>
+        <v>9436.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -10236,7 +10246,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -10251,7 +10261,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -10339,7 +10349,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>10337.73</v>
+        <v>10302.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10431,7 +10441,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>10337.73</v>
+        <v>10302.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10600,7 +10610,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -10615,7 +10625,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -10703,7 +10713,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>10772.73</v>
+        <v>10737.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10795,7 +10805,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>10772.73</v>
+        <v>10737.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -10964,7 +10974,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -10979,7 +10989,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -11067,7 +11077,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>11638.73</v>
+        <v>11603.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11579,7 +11589,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11595,7 +11605,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>15938.73</v>
+        <v>15903.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11611,7 +11621,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>16234.36</v>
+        <v>17095.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -13436,7 +13446,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>11638.73</v>
+        <v>11603.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13605,7 +13615,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -13620,7 +13630,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -13708,7 +13718,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>12854.73</v>
+        <v>12819.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13800,7 +13810,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>12854.73</v>
+        <v>12819.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -13969,7 +13979,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -13984,7 +13994,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -14072,7 +14082,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>14722.73</v>
+        <v>14687.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -14164,7 +14174,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>14722.73</v>
+        <v>14687.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -14333,7 +14343,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -14348,7 +14358,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -14436,7 +14446,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>15938.73</v>
+        <v>15903.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -14946,7 +14956,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -14962,7 +14972,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>17834.73</v>
+        <v>17799.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -14978,7 +14988,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>18130.36</v>
+        <v>18991.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -16799,7 +16809,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>15938.73</v>
+        <v>15903.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -16968,7 +16978,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -16983,7 +16993,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -17071,7 +17081,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>16533.73</v>
+        <v>16498.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -17163,7 +17173,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>16533.73</v>
+        <v>16498.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -17332,7 +17342,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -17347,7 +17357,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -17435,7 +17445,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>17239.73</v>
+        <v>17204.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17527,7 +17537,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>17239.73</v>
+        <v>17204.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17696,7 +17706,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -17711,7 +17721,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -17799,7 +17809,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>17834.73</v>
+        <v>17799.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18316,7 +18326,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -18332,7 +18342,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>20001.73</v>
+        <v>19966.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18348,7 +18358,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>20297.36</v>
+        <v>21158.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -20169,7 +20179,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>17834.73</v>
+        <v>17799.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -20338,7 +20348,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -20353,7 +20363,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -20441,7 +20451,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>18700.73</v>
+        <v>18665.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20533,7 +20543,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>18700.73</v>
+        <v>18665.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20702,7 +20712,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -20717,7 +20727,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -20805,7 +20815,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>19135.73</v>
+        <v>19100.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20897,7 +20907,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>19135.73</v>
+        <v>19100.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -21066,7 +21076,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -21081,7 +21091,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -21169,7 +21179,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>20001.73</v>
+        <v>19966.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21679,7 +21689,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -21695,7 +21705,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>21987.73</v>
+        <v>21952.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21711,7 +21721,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>22283.36</v>
+        <v>23144.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -23532,7 +23542,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>20001.73</v>
+        <v>19966.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23701,7 +23711,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -23716,7 +23726,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -23804,7 +23814,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>20646.73</v>
+        <v>20611.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23896,7 +23906,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>20646.73</v>
+        <v>20611.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -24065,7 +24075,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -24080,7 +24090,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -24168,7 +24178,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>21352.73</v>
+        <v>21317.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24260,7 +24270,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>21352.73</v>
+        <v>21317.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24429,7 +24439,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -24444,7 +24454,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -24532,7 +24542,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>21987.73</v>
+        <v>21952.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -25048,7 +25058,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -25064,7 +25074,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>25237.73</v>
+        <v>25202.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -25080,7 +25090,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>25533.36</v>
+        <v>26394.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -26905,7 +26915,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>21987.73</v>
+        <v>21952.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -27074,7 +27084,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -27089,7 +27099,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -27177,7 +27187,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>22853.73</v>
+        <v>22818.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27269,7 +27279,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>22853.73</v>
+        <v>22818.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27438,7 +27448,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -27453,7 +27463,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -27541,7 +27551,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>24371.73</v>
+        <v>24336.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27633,7 +27643,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>24371.73</v>
+        <v>24336.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27802,7 +27812,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -27817,7 +27827,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -27905,7 +27915,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>25237.73</v>
+        <v>25202.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28402,7 +28412,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -28418,7 +28428,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>27183.73</v>
+        <v>27148.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28434,7 +28444,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>27479.36</v>
+        <v>28340.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -30024,7 +30034,7 @@
         <v>Bankruptcy Department / Bank</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
@@ -30254,7 +30264,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>25237.73</v>
+        <v>25202.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30423,7 +30433,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -30438,7 +30448,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -30526,7 +30536,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>25882.73</v>
+        <v>25847.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30618,7 +30628,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>25882.73</v>
+        <v>25847.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30787,7 +30797,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -30802,7 +30812,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -30890,7 +30900,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>26588.73</v>
+        <v>26553.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -30982,7 +30992,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>26588.73</v>
+        <v>26553.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -31151,7 +31161,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -31166,7 +31176,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -31254,7 +31264,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>27183.73</v>
+        <v>27148.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31758,7 +31768,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -31774,7 +31784,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>29350.73</v>
+        <v>29315.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31790,7 +31800,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>29646.36</v>
+        <v>30507.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -33611,7 +33621,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>27183.73</v>
+        <v>27148.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33780,7 +33790,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -33795,7 +33805,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -33883,7 +33893,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>28049.73</v>
+        <v>28014.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -33975,7 +33985,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>28049.73</v>
+        <v>28014.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -34144,7 +34154,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -34159,7 +34169,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -34247,7 +34257,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>28484.73</v>
+        <v>28449.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34339,7 +34349,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>28484.73</v>
+        <v>28449.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34508,7 +34518,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -34523,7 +34533,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -34611,7 +34621,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>29350.73</v>
+        <v>29315.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -35614,7 +35624,7 @@
   <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35684,7 +35694,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="159">
-        <v>119</v>
+        <v>997.1</v>
       </c>
       <c r="D3" s="160" t="s">
         <v>34</v>
@@ -35693,7 +35703,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="187">
-        <v>1119</v>
+        <v>100</v>
       </c>
       <c r="I3" s="195" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,1)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*1,"dd mmmm yyyy"))</f>
@@ -35718,14 +35728,14 @@
         <v>36</v>
       </c>
       <c r="C4" s="159">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" s="161"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="187">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="I4" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,1),"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)+1,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,2)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*2+1,"dd mmmm yyyy"))</f>
@@ -35814,14 +35824,14 @@
         <v>39</v>
       </c>
       <c r="C7" s="159">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D7" s="161"/>
       <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="187">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I7" s="198" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,4),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*4)+4,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,5)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*5+4),"dd mmmm yyyy"))</f>
@@ -35829,7 +35839,7 @@
       </c>
       <c r="J7" s="196">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>1227.73</v>
+        <v>1192.22</v>
       </c>
       <c r="M7" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35862,7 +35872,7 @@
       </c>
       <c r="J8" s="196">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>1202.73</v>
+        <v>1167.22</v>
       </c>
       <c r="M8" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35894,7 +35904,7 @@
       </c>
       <c r="J9" s="196">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>1268.73</v>
+        <v>1233.22</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35926,7 +35936,7 @@
       </c>
       <c r="J10" s="196">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>1193.73</v>
+        <v>1158.22</v>
       </c>
       <c r="M10" s="206" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -35959,7 +35969,7 @@
       </c>
       <c r="J11" s="196">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>1259.73</v>
+        <v>1224.22</v>
       </c>
       <c r="M11" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -35976,14 +35986,14 @@
         <v>44</v>
       </c>
       <c r="C12" s="159">
-        <v>10.03</v>
+        <v>30.02</v>
       </c>
       <c r="D12" s="161"/>
       <c r="E12" s="189" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="187">
-        <v>10.03</v>
+        <v>30.02</v>
       </c>
       <c r="I12" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,9),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*9)+9,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,10)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*10+9),"dd mmmm yyyy"))</f>
@@ -35991,7 +36001,7 @@
       </c>
       <c r="J12" s="196">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>1234.73</v>
+        <v>1199.22</v>
       </c>
       <c r="M12" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -36023,7 +36033,7 @@
       </c>
       <c r="J13" s="196">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>1250.73</v>
+        <v>1215.22</v>
       </c>
       <c r="M13" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -36040,14 +36050,14 @@
         <v>46</v>
       </c>
       <c r="C14" s="159">
-        <v>103.6</v>
+        <v>49.6</v>
       </c>
       <c r="D14" s="161"/>
       <c r="E14" s="189" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="187">
-        <v>3.6</v>
+        <v>49.6</v>
       </c>
       <c r="I14" s="199" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,11),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11)+11,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
@@ -36055,7 +36065,7 @@
       </c>
       <c r="J14" s="200">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>1195.73</v>
+        <v>1160.22</v>
       </c>
       <c r="M14" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -36087,7 +36097,7 @@
       </c>
       <c r="J15" s="200">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>1078.73</v>
+        <v>1043.22</v>
       </c>
       <c r="M15" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -36105,7 +36115,7 @@
       </c>
       <c r="C16" s="165">
         <f>SUM(C3:C15)</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D16" s="166"/>
       <c r="E16" s="164" t="s">
@@ -36113,7 +36123,7 @@
       </c>
       <c r="F16" s="190">
         <f>SUM(F3:F15)</f>
-        <v>1145.63</v>
+        <v>1095.12</v>
       </c>
       <c r="I16" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
@@ -36121,7 +36131,7 @@
       </c>
       <c r="J16" s="200">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>1513.73</v>
+        <v>1478.22</v>
       </c>
       <c r="M16" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -36139,7 +36149,7 @@
       </c>
       <c r="J17" s="200">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>2379.73</v>
+        <v>2344.22</v>
       </c>
       <c r="M17" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -36157,7 +36167,7 @@
       </c>
       <c r="J18" s="200">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>2974.73</v>
+        <v>2939.22</v>
       </c>
       <c r="M18" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -36175,7 +36185,7 @@
       </c>
       <c r="J19" s="200">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>4763.73</v>
+        <v>4728.22</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -36185,7 +36195,7 @@
       </c>
       <c r="J20" s="200">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>5408.73</v>
+        <v>5373.22</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -36195,7 +36205,7 @@
       </c>
       <c r="J21" s="200">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>6274.73</v>
+        <v>6239.22</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -36215,7 +36225,7 @@
       </c>
       <c r="J22" s="200">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>6709.73</v>
+        <v>6674.22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -36240,7 +36250,7 @@
       </c>
       <c r="J23" s="200">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>7575.73</v>
+        <v>7540.22</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -36259,7 +36269,7 @@
       </c>
       <c r="J24" s="200">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>8170.73</v>
+        <v>8135.22</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -36278,7 +36288,7 @@
       </c>
       <c r="J25" s="200">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>8876.73</v>
+        <v>8841.22</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -36297,7 +36307,7 @@
       </c>
       <c r="J26" s="200">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>9471.73</v>
+        <v>9436.22</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -36316,7 +36326,7 @@
       </c>
       <c r="J27" s="200">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>10337.73</v>
+        <v>10302.22</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -36335,7 +36345,7 @@
       </c>
       <c r="J28" s="200">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>10772.73</v>
+        <v>10737.22</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36354,7 +36364,7 @@
       </c>
       <c r="J29" s="196">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>11638.73</v>
+        <v>11603.22</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36376,7 +36386,7 @@
       </c>
       <c r="J30" s="202">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>12854.73</v>
+        <v>12819.22</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36386,7 +36396,7 @@
       </c>
       <c r="J31" s="200">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>14722.73</v>
+        <v>14687.22</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36396,7 +36406,7 @@
       </c>
       <c r="J32" s="200">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>15938.73</v>
+        <v>15903.22</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36406,7 +36416,7 @@
       </c>
       <c r="J33" s="200">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>16533.73</v>
+        <v>16498.22</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36426,7 +36436,7 @@
       </c>
       <c r="J34" s="200">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>17239.73</v>
+        <v>17204.22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36451,7 +36461,7 @@
       </c>
       <c r="J35" s="200">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>17834.73</v>
+        <v>17799.22</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36474,7 +36484,7 @@
       </c>
       <c r="J36" s="200">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>18700.73</v>
+        <v>18665.22</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36493,7 +36503,7 @@
       </c>
       <c r="J37" s="200">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>19135.73</v>
+        <v>19100.22</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36512,7 +36522,7 @@
       </c>
       <c r="J38" s="200">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>20001.73</v>
+        <v>19966.22</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36531,7 +36541,7 @@
       </c>
       <c r="J39" s="200">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>20646.73</v>
+        <v>20611.22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36550,7 +36560,7 @@
       </c>
       <c r="J40" s="200">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>21352.73</v>
+        <v>21317.22</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36569,7 +36579,7 @@
       </c>
       <c r="J41" s="200">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>21987.73</v>
+        <v>21952.22</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36591,7 +36601,7 @@
       </c>
       <c r="J42" s="200">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>22853.73</v>
+        <v>22818.22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36601,7 +36611,7 @@
       </c>
       <c r="J43" s="200">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>24371.73</v>
+        <v>24336.22</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36611,7 +36621,7 @@
       </c>
       <c r="J44" s="200">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>25237.73</v>
+        <v>25202.22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36621,7 +36631,7 @@
       </c>
       <c r="J45" s="200">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>25882.73</v>
+        <v>25847.22</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36641,7 +36651,7 @@
       </c>
       <c r="J46" s="200">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>26588.73</v>
+        <v>26553.22</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36666,7 +36676,7 @@
       </c>
       <c r="J47" s="200">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>27183.73</v>
+        <v>27148.22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36689,7 +36699,7 @@
       </c>
       <c r="J48" s="200">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>28049.73</v>
+        <v>28014.22</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36708,7 +36718,7 @@
       </c>
       <c r="J49" s="200">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>28484.73</v>
+        <v>28449.22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36727,7 +36737,7 @@
       </c>
       <c r="J50" s="196">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>29350.73</v>
+        <v>29315.22</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -38591,8 +38601,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133:D133"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -38629,7 +38639,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -38643,7 +38653,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1202.73</v>
+        <v>1167.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38657,7 +38667,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>1498.36</v>
+        <v>2359.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -38937,7 +38947,7 @@
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="7">
-        <v>1083</v>
+        <v>1048</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="14"/>
@@ -38960,24 +38970,24 @@
       <c r="H24" s="14"/>
       <c r="I24" s="48"/>
     </row>
-    <row r="25" ht="24.75" customHeight="1" spans="1:9">
+    <row r="25" ht="50" customHeight="1" spans="1:9">
       <c r="A25" s="132"/>
       <c r="B25" s="97" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="98"/>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="97" t="s">
         <v>105</v>
       </c>
       <c r="E25" s="142"/>
       <c r="F25" s="43">
-        <v>50</v>
+        <v>69.99</v>
       </c>
       <c r="G25" s="44"/>
       <c r="H25" s="14"/>
       <c r="I25" s="48"/>
     </row>
-    <row r="26" ht="24.75" customHeight="1" spans="1:9">
+    <row r="26" ht="48" customHeight="1" spans="1:9">
       <c r="A26" s="132"/>
       <c r="B26" s="97" t="s">
         <v>106</v>
@@ -39017,7 +39027,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="46">
         <f>SUM(F22:G27)</f>
-        <v>3636</v>
+        <v>3620.99</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="14"/>
@@ -39107,11 +39117,11 @@
     <row r="35" ht="24.75" customHeight="1" spans="1:9">
       <c r="A35" s="132"/>
       <c r="B35" s="97" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C35" s="98"/>
       <c r="D35" s="123" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E35" s="147"/>
       <c r="F35" s="7">
@@ -39128,7 +39138,7 @@
       </c>
       <c r="C36" s="98"/>
       <c r="D36" s="123" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E36" s="147"/>
       <c r="F36" s="7">
@@ -40682,7 +40692,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -40697,7 +40707,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -40712,7 +40722,7 @@
       <c r="A131" s="63"/>
       <c r="B131" s="64"/>
       <c r="C131" s="74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D131" s="74"/>
       <c r="E131" s="87">
@@ -40726,9 +40736,7 @@
     <row r="132" ht="24.75" customHeight="1" spans="1:9">
       <c r="A132" s="63"/>
       <c r="B132" s="64"/>
-      <c r="C132" s="74" t="s">
-        <v>112</v>
-      </c>
+      <c r="C132" s="74"/>
       <c r="D132" s="74"/>
       <c r="E132" s="87">
         <v>0</v>
@@ -40907,7 +40915,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D145" s="66"/>
       <c r="E145" s="37">
@@ -40987,7 +40995,7 @@
       <c r="A151" s="63"/>
       <c r="B151" s="64"/>
       <c r="C151" s="114" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D151" s="149"/>
       <c r="E151" s="37">
@@ -41054,7 +41062,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -41069,7 +41077,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -41080,11 +41088,11 @@
       <c r="H157" s="14"/>
       <c r="I157" s="48"/>
     </row>
-    <row r="158" ht="59" customHeight="1" spans="1:9">
+    <row r="158" ht="118" customHeight="1" spans="1:9">
       <c r="A158" s="63"/>
       <c r="B158" s="64"/>
       <c r="C158" s="73" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D158" s="74"/>
       <c r="E158" s="87">
@@ -41095,30 +41103,30 @@
       <c r="H158" s="14"/>
       <c r="I158" s="48"/>
     </row>
-    <row r="159" ht="127" customHeight="1" spans="1:9">
+    <row r="159" ht="139" customHeight="1" spans="1:9">
       <c r="A159" s="63"/>
       <c r="B159" s="64"/>
       <c r="C159" s="73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D159" s="74"/>
       <c r="E159" s="87">
-        <v>181.8</v>
+        <v>198.3</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
       <c r="H159" s="14"/>
       <c r="I159" s="48"/>
     </row>
-    <row r="160" ht="86" customHeight="1" spans="1:9">
+    <row r="160" ht="125" customHeight="1" spans="1:9">
       <c r="A160" s="63"/>
       <c r="B160" s="64"/>
       <c r="C160" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D160" s="125"/>
       <c r="E160" s="87">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
@@ -41163,7 +41171,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1227.73</v>
+        <v>1192.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -41247,14 +41255,14 @@
     </row>
     <row r="170" ht="24.75" customHeight="1" spans="1:9">
       <c r="A170" s="56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1227.73</v>
+        <v>1192.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -41280,7 +41288,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -41359,8 +41367,8 @@
     <row r="178" ht="24.75" customHeight="1" spans="1:9">
       <c r="A178" s="63"/>
       <c r="B178" s="64"/>
-      <c r="C178" s="65"/>
-      <c r="D178" s="66"/>
+      <c r="C178" s="114"/>
+      <c r="D178" s="149"/>
       <c r="E178" s="37">
         <v>0</v>
       </c>
@@ -41425,7 +41433,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -41440,7 +41448,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -41528,7 +41536,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1202.73</v>
+        <v>1167.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -41726,276 +41734,284 @@
     <mergeCell ref="A117:B134"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="0" priority="72" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="73" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="71" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="3" priority="30" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="32" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="3" priority="64" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="66" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="3" priority="48" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="50" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E147">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="3" priority="50" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="52" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="cellIs" dxfId="3" priority="42" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="44" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E174">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="3" priority="44" operator="greaterThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="46" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C50">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C66">
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="78" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="75" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C74">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="63" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:C84">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C90">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C94">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:C107">
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="37" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="39" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119:E127">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131:E133">
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156:E157">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:E160">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E183:E188">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:C55 C85 C78:C79 C95:C96">
-    <cfRule type="cellIs" dxfId="0" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:C55 C85 C78:C79 C95:C96 E144 E155 E161:E162">
-    <cfRule type="cellIs" dxfId="1" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117 E128 E134:E135">
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144 E155 E161:E162">
-    <cfRule type="cellIs" dxfId="2" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E146 E148:E154">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="greaterThan">
+  <conditionalFormatting sqref="E145:E146 E148:E150 E152:E154">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171 E182 E189">
-    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="48" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173 E175:E181">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42044,7 +42060,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -42058,7 +42074,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1259.73</v>
+        <v>1224.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -42072,7 +42088,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>1555.36</v>
+        <v>2416.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -43893,7 +43909,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="89" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>1202.73</v>
+        <v>1167.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -43919,7 +43935,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -44064,7 +44080,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -44079,7 +44095,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -44167,7 +44183,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1268.73</v>
+        <v>1233.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -44259,7 +44275,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1268.73</v>
+        <v>1233.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -44285,7 +44301,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
@@ -44430,7 +44446,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -44445,7 +44461,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -44533,7 +44549,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1193.73</v>
+        <v>1158.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44625,7 +44641,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1193.73</v>
+        <v>1158.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44651,7 +44667,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -44796,7 +44812,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -44811,7 +44827,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -44899,7 +44915,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1259.73</v>
+        <v>1224.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45464,7 +45480,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -45480,7 +45496,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1195.73</v>
+        <v>1160.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45496,7 +45512,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>1491.36</v>
+        <v>2352.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -47317,7 +47333,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>1259.73</v>
+        <v>1224.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -47343,7 +47359,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -47488,7 +47504,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -47503,7 +47519,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -47591,7 +47607,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1234.73</v>
+        <v>1199.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47683,7 +47699,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1234.73</v>
+        <v>1199.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -47709,7 +47725,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
@@ -47854,7 +47870,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -47869,7 +47885,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -47957,7 +47973,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1250.73</v>
+        <v>1215.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -48049,7 +48065,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1250.73</v>
+        <v>1215.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -48075,7 +48091,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -48142,7 +48158,7 @@
       <c r="A177" s="63"/>
       <c r="B177" s="64"/>
       <c r="C177" s="65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D177" s="66"/>
       <c r="E177" s="37">
@@ -48222,7 +48238,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -48237,7 +48253,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -48325,7 +48341,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1195.73</v>
+        <v>1160.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48900,7 +48916,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -48916,7 +48932,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>2379.73</v>
+        <v>2344.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -48932,7 +48948,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2675.36</v>
+        <v>3536.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -50753,7 +50769,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>1195.73</v>
+        <v>1160.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50779,7 +50795,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="87">
@@ -50846,7 +50862,7 @@
       <c r="A123" s="63"/>
       <c r="B123" s="64"/>
       <c r="C123" s="65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D123" s="66"/>
       <c r="E123" s="37">
@@ -50926,7 +50942,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -50941,7 +50957,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -51029,7 +51045,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1078.73</v>
+        <v>1043.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -51121,7 +51137,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1078.73</v>
+        <v>1043.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -51290,7 +51306,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -51305,7 +51321,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -51393,7 +51409,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1513.73</v>
+        <v>1478.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51485,7 +51501,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1513.73</v>
+        <v>1478.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51654,7 +51670,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -51669,7 +51685,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -51757,7 +51773,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>2379.73</v>
+        <v>2344.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -52290,7 +52306,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -52306,7 +52322,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>5408.73</v>
+        <v>5373.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -52322,7 +52338,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>5704.36</v>
+        <v>6565.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -54147,7 +54163,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>2379.73</v>
+        <v>2344.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -54316,7 +54332,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -54331,7 +54347,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -54419,7 +54435,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>2974.73</v>
+        <v>2939.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54511,7 +54527,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>2974.73</v>
+        <v>2939.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54680,7 +54696,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -54695,7 +54711,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -54783,7 +54799,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>4763.73</v>
+        <v>4728.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54875,7 +54891,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>4763.73</v>
+        <v>4728.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -55044,7 +55060,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -55059,7 +55075,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -55147,7 +55163,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>5408.73</v>
+        <v>5373.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55677,7 +55693,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>295.63</v>
+        <v>1192.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -55693,7 +55709,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>7575.73</v>
+        <v>7540.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55709,7 +55725,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>7871.36</v>
+        <v>8732.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -55808,7 +55824,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:9">
       <c r="A11" s="101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -57532,7 +57548,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>5408.73</v>
+        <v>5373.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57701,7 +57717,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -57716,7 +57732,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -57804,7 +57820,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>6274.73</v>
+        <v>6239.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57896,7 +57912,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>6274.73</v>
+        <v>6239.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -58065,7 +58081,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -58080,7 +58096,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -58168,7 +58184,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>6709.73</v>
+        <v>6674.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -58260,7 +58276,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>6709.73</v>
+        <v>6674.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -58429,7 +58445,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -58444,7 +58460,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -58532,7 +58548,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>7575.73</v>
+        <v>7540.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>

--- a/Income And Expenses Forecast Demo.xlsx
+++ b/Income And Expenses Forecast Demo.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="138">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -467,7 +467,8 @@
 ~ Brought Bandage 4 inches X 2 ~ $20</t>
   </si>
   <si>
-    <t>~ Buy Cigarette Buds ~ $800</t>
+    <t>~ Buy Cigarette Buds ~ $800
+~ Transport for Cigarette Buds ~ $50</t>
   </si>
   <si>
     <t>~ Apple Music one month
@@ -503,6 +504,9 @@
   <si>
     <t>~ Food And Transport ~ $400
 ~ See the Doctor (Injection) ~ $19</t>
+  </si>
+  <si>
+    <t>~ Buy Cigarette Buds ~ $800</t>
   </si>
   <si>
     <t>- See the Doctor ~ $110
@@ -4855,7 +4859,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4871,7 +4875,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>9436.22</v>
+        <v>9386.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4887,7 +4891,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>10628.44</v>
+        <v>10528.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6708,7 +6712,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>7540.22</v>
+        <v>7490.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6877,7 +6881,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -6980,7 +6984,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>8135.22</v>
+        <v>8085.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -7072,7 +7076,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>8135.22</v>
+        <v>8085.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -7241,7 +7245,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -7256,7 +7260,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -7344,7 +7348,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>8841.22</v>
+        <v>8791.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7436,7 +7440,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>8841.22</v>
+        <v>8791.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7605,7 +7609,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -7708,7 +7712,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>9436.22</v>
+        <v>9386.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8224,7 +8228,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -8240,7 +8244,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>11603.22</v>
+        <v>11553.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8256,7 +8260,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>12795.44</v>
+        <v>12695.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -10077,7 +10081,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>9436.22</v>
+        <v>9386.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -10261,7 +10265,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -10349,7 +10353,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>10302.22</v>
+        <v>10252.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10441,7 +10445,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>10302.22</v>
+        <v>10252.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10610,7 +10614,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -10713,7 +10717,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>10737.22</v>
+        <v>10687.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10805,7 +10809,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>10737.22</v>
+        <v>10687.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -10989,7 +10993,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -11077,7 +11081,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>11603.22</v>
+        <v>11553.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11589,7 +11593,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11605,7 +11609,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>15903.22</v>
+        <v>15853.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11621,7 +11625,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>17095.44</v>
+        <v>16995.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -13446,7 +13450,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>11603.22</v>
+        <v>11553.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13630,7 +13634,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -13718,7 +13722,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>12819.22</v>
+        <v>12769.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13810,7 +13814,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>12819.22</v>
+        <v>12769.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -13979,7 +13983,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -14082,7 +14086,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>14687.22</v>
+        <v>14637.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -14174,7 +14178,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>14687.22</v>
+        <v>14637.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -14358,7 +14362,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -14446,7 +14450,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>15903.22</v>
+        <v>15853.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -14956,7 +14960,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -14972,7 +14976,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>17799.22</v>
+        <v>17749.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -14988,7 +14992,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>18991.44</v>
+        <v>18891.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -16809,7 +16813,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>15903.22</v>
+        <v>15853.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -16978,7 +16982,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -17081,7 +17085,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>16498.22</v>
+        <v>16448.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -17173,7 +17177,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>16498.22</v>
+        <v>16448.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -17342,7 +17346,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -17357,7 +17361,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -17445,7 +17449,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>17204.22</v>
+        <v>17154.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17537,7 +17541,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>17204.22</v>
+        <v>17154.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17706,7 +17710,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -17809,7 +17813,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>17799.22</v>
+        <v>17749.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18326,7 +18330,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -18342,7 +18346,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>19966.22</v>
+        <v>19916.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18358,7 +18362,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>21158.44</v>
+        <v>21058.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -20179,7 +20183,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>17799.22</v>
+        <v>17749.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -20363,7 +20367,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -20451,7 +20455,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>18665.22</v>
+        <v>18615.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20543,7 +20547,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>18665.22</v>
+        <v>18615.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20712,7 +20716,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -20815,7 +20819,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>19100.22</v>
+        <v>19050.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20907,7 +20911,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>19100.22</v>
+        <v>19050.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -21091,7 +21095,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -21179,7 +21183,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>19966.22</v>
+        <v>19916.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21689,7 +21693,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -21705,7 +21709,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>21952.22</v>
+        <v>21902.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21721,7 +21725,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>23144.44</v>
+        <v>23044.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -23542,7 +23546,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>19966.22</v>
+        <v>19916.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23711,7 +23715,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -23814,7 +23818,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>20611.22</v>
+        <v>20561.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23906,7 +23910,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>20611.22</v>
+        <v>20561.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -24075,7 +24079,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -24090,7 +24094,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -24178,7 +24182,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>21317.22</v>
+        <v>21267.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24270,7 +24274,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>21317.22</v>
+        <v>21267.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24439,7 +24443,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -24542,7 +24546,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>21952.22</v>
+        <v>21902.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -25058,7 +25062,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -25074,7 +25078,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>25202.22</v>
+        <v>25152.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -25090,7 +25094,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>26394.44</v>
+        <v>26294.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -26915,7 +26919,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>21952.22</v>
+        <v>21902.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -27099,7 +27103,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -27187,7 +27191,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>22818.22</v>
+        <v>22768.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27279,7 +27283,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>22818.22</v>
+        <v>22768.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27448,7 +27452,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -27551,7 +27555,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>24336.22</v>
+        <v>24286.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27643,7 +27647,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>24336.22</v>
+        <v>24286.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27827,7 +27831,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -27915,7 +27919,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>25202.22</v>
+        <v>25152.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28412,7 +28416,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -28428,7 +28432,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>27148.22</v>
+        <v>27098.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28444,7 +28448,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>28340.44</v>
+        <v>28240.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -30034,7 +30038,7 @@
         <v>Bankruptcy Department / Bank</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
@@ -30264,7 +30268,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>25202.22</v>
+        <v>25152.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30433,7 +30437,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -30536,7 +30540,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>25847.22</v>
+        <v>25797.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30628,7 +30632,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>25847.22</v>
+        <v>25797.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30797,7 +30801,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -30812,7 +30816,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -30900,7 +30904,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>26553.22</v>
+        <v>26503.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -30992,7 +30996,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>26553.22</v>
+        <v>26503.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -31161,7 +31165,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -31264,7 +31268,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>27148.22</v>
+        <v>27098.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31768,7 +31772,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -31784,7 +31788,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>29315.22</v>
+        <v>29265.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31800,7 +31804,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>30507.44</v>
+        <v>30407.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -33621,7 +33625,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>27148.22</v>
+        <v>27098.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33805,7 +33809,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -33893,7 +33897,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>28014.22</v>
+        <v>27964.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -33985,7 +33989,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>28014.22</v>
+        <v>27964.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -34154,7 +34158,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -34257,7 +34261,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>28449.22</v>
+        <v>28399.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34349,7 +34353,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>28449.22</v>
+        <v>28399.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34533,7 +34537,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -34621,7 +34625,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>29315.22</v>
+        <v>29265.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -35624,7 +35628,7 @@
   <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35703,7 +35707,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="187">
-        <v>100</v>
+        <v>997.1</v>
       </c>
       <c r="I3" s="195" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,1)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*1,"dd mmmm yyyy"))</f>
@@ -35728,14 +35732,14 @@
         <v>36</v>
       </c>
       <c r="C4" s="159">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" s="161"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="187">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="I4" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,1),"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)+1,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,2)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*2+1,"dd mmmm yyyy"))</f>
@@ -35839,7 +35843,7 @@
       </c>
       <c r="J7" s="196">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="M7" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35872,7 +35876,7 @@
       </c>
       <c r="J8" s="196">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>1167.22</v>
+        <v>1117.22</v>
       </c>
       <c r="M8" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35904,7 +35908,7 @@
       </c>
       <c r="J9" s="196">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>1233.22</v>
+        <v>1183.22</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35936,7 +35940,7 @@
       </c>
       <c r="J10" s="196">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>1158.22</v>
+        <v>1108.22</v>
       </c>
       <c r="M10" s="206" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -35969,7 +35973,7 @@
       </c>
       <c r="J11" s="196">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>1224.22</v>
+        <v>1174.22</v>
       </c>
       <c r="M11" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -36001,7 +36005,7 @@
       </c>
       <c r="J12" s="196">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>1199.22</v>
+        <v>1149.22</v>
       </c>
       <c r="M12" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -36033,7 +36037,7 @@
       </c>
       <c r="J13" s="196">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>1215.22</v>
+        <v>1165.22</v>
       </c>
       <c r="M13" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -36065,7 +36069,7 @@
       </c>
       <c r="J14" s="200">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>1160.22</v>
+        <v>1110.22</v>
       </c>
       <c r="M14" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -36097,7 +36101,7 @@
       </c>
       <c r="J15" s="200">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>1043.22</v>
+        <v>993.22</v>
       </c>
       <c r="M15" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -36115,7 +36119,7 @@
       </c>
       <c r="C16" s="165">
         <f>SUM(C3:C15)</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D16" s="166"/>
       <c r="E16" s="164" t="s">
@@ -36123,7 +36127,7 @@
       </c>
       <c r="F16" s="190">
         <f>SUM(F3:F15)</f>
-        <v>1095.12</v>
+        <v>1192.22</v>
       </c>
       <c r="I16" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
@@ -36131,7 +36135,7 @@
       </c>
       <c r="J16" s="200">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>1478.22</v>
+        <v>1428.22</v>
       </c>
       <c r="M16" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -36149,7 +36153,7 @@
       </c>
       <c r="J17" s="200">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>2344.22</v>
+        <v>2294.22</v>
       </c>
       <c r="M17" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -36167,7 +36171,7 @@
       </c>
       <c r="J18" s="200">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>2939.22</v>
+        <v>2889.22</v>
       </c>
       <c r="M18" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -36185,7 +36189,7 @@
       </c>
       <c r="J19" s="200">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>4728.22</v>
+        <v>4678.22</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -36195,7 +36199,7 @@
       </c>
       <c r="J20" s="200">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>5373.22</v>
+        <v>5323.22</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -36205,7 +36209,7 @@
       </c>
       <c r="J21" s="200">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>6239.22</v>
+        <v>6189.22</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -36225,7 +36229,7 @@
       </c>
       <c r="J22" s="200">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>6674.22</v>
+        <v>6624.22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -36250,7 +36254,7 @@
       </c>
       <c r="J23" s="200">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>7540.22</v>
+        <v>7490.22</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -36269,7 +36273,7 @@
       </c>
       <c r="J24" s="200">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>8135.22</v>
+        <v>8085.22</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -36288,7 +36292,7 @@
       </c>
       <c r="J25" s="200">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>8841.22</v>
+        <v>8791.22</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -36307,7 +36311,7 @@
       </c>
       <c r="J26" s="200">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>9436.22</v>
+        <v>9386.22</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -36326,7 +36330,7 @@
       </c>
       <c r="J27" s="200">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>10302.22</v>
+        <v>10252.22</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -36345,7 +36349,7 @@
       </c>
       <c r="J28" s="200">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>10737.22</v>
+        <v>10687.22</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36364,7 +36368,7 @@
       </c>
       <c r="J29" s="196">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>11603.22</v>
+        <v>11553.22</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36386,7 +36390,7 @@
       </c>
       <c r="J30" s="202">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>12819.22</v>
+        <v>12769.22</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36396,7 +36400,7 @@
       </c>
       <c r="J31" s="200">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>14687.22</v>
+        <v>14637.22</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36406,7 +36410,7 @@
       </c>
       <c r="J32" s="200">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>15903.22</v>
+        <v>15853.22</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36416,7 +36420,7 @@
       </c>
       <c r="J33" s="200">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>16498.22</v>
+        <v>16448.22</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36436,7 +36440,7 @@
       </c>
       <c r="J34" s="200">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>17204.22</v>
+        <v>17154.22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36461,7 +36465,7 @@
       </c>
       <c r="J35" s="200">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>17799.22</v>
+        <v>17749.22</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36484,7 +36488,7 @@
       </c>
       <c r="J36" s="200">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>18665.22</v>
+        <v>18615.22</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36503,7 +36507,7 @@
       </c>
       <c r="J37" s="200">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>19100.22</v>
+        <v>19050.22</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36522,7 +36526,7 @@
       </c>
       <c r="J38" s="200">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>19966.22</v>
+        <v>19916.22</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36541,7 +36545,7 @@
       </c>
       <c r="J39" s="200">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>20611.22</v>
+        <v>20561.22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36560,7 +36564,7 @@
       </c>
       <c r="J40" s="200">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>21317.22</v>
+        <v>21267.22</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36579,7 +36583,7 @@
       </c>
       <c r="J41" s="200">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>21952.22</v>
+        <v>21902.22</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36601,7 +36605,7 @@
       </c>
       <c r="J42" s="200">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>22818.22</v>
+        <v>22768.22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36611,7 +36615,7 @@
       </c>
       <c r="J43" s="200">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>24336.22</v>
+        <v>24286.22</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36621,7 +36625,7 @@
       </c>
       <c r="J44" s="200">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>25202.22</v>
+        <v>25152.22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36631,7 +36635,7 @@
       </c>
       <c r="J45" s="200">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>25847.22</v>
+        <v>25797.22</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36651,7 +36655,7 @@
       </c>
       <c r="J46" s="200">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>26553.22</v>
+        <v>26503.22</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36676,7 +36680,7 @@
       </c>
       <c r="J47" s="200">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>27148.22</v>
+        <v>27098.22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36699,7 +36703,7 @@
       </c>
       <c r="J48" s="200">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>28014.22</v>
+        <v>27964.22</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36718,7 +36722,7 @@
       </c>
       <c r="J49" s="200">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>28449.22</v>
+        <v>28399.22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36737,7 +36741,7 @@
       </c>
       <c r="J50" s="196">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>29315.22</v>
+        <v>29265.22</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -38601,8 +38605,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -38639,7 +38643,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -38653,7 +38657,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1167.22</v>
+        <v>1117.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38667,7 +38671,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2359.44</v>
+        <v>2259.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -41073,15 +41077,15 @@
       <c r="H156" s="14"/>
       <c r="I156" s="48"/>
     </row>
-    <row r="157" ht="24.75" customHeight="1" spans="1:9">
+    <row r="157" ht="43" customHeight="1" spans="1:9">
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
-      <c r="C157" s="74" t="s">
+      <c r="C157" s="73" t="s">
         <v>117</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -41171,7 +41175,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -41262,7 +41266,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -41429,7 +41433,7 @@
       <c r="H182" s="14"/>
       <c r="I182" s="48"/>
     </row>
-    <row r="183" ht="51" customHeight="1" spans="1:9">
+    <row r="183" ht="71" customHeight="1" spans="1:9">
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
@@ -41536,7 +41540,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1167.22</v>
+        <v>1117.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -42060,7 +42064,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -42074,7 +42078,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1224.22</v>
+        <v>1174.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -42088,7 +42092,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2416.44</v>
+        <v>2316.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -43909,7 +43913,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="89" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>1167.22</v>
+        <v>1117.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -44095,7 +44099,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -44183,7 +44187,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1233.22</v>
+        <v>1183.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -44275,7 +44279,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1233.22</v>
+        <v>1183.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -44446,7 +44450,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -44549,7 +44553,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1158.22</v>
+        <v>1108.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44641,7 +44645,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1158.22</v>
+        <v>1108.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44827,7 +44831,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -44915,7 +44919,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1224.22</v>
+        <v>1174.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45480,7 +45484,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -45496,7 +45500,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1160.22</v>
+        <v>1110.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45512,7 +45516,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2352.44</v>
+        <v>2252.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -47333,7 +47337,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>1224.22</v>
+        <v>1174.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -47607,7 +47611,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1199.22</v>
+        <v>1149.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47699,7 +47703,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1199.22</v>
+        <v>1149.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -47870,7 +47874,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -47885,7 +47889,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -47973,7 +47977,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1215.22</v>
+        <v>1165.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -48065,7 +48069,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1215.22</v>
+        <v>1165.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -48091,7 +48095,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -48158,7 +48162,7 @@
       <c r="A177" s="63"/>
       <c r="B177" s="64"/>
       <c r="C177" s="65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D177" s="66"/>
       <c r="E177" s="37">
@@ -48238,7 +48242,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -48341,7 +48345,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1160.22</v>
+        <v>1110.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48916,7 +48920,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -48932,7 +48936,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>2344.22</v>
+        <v>2294.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -48948,7 +48952,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>3536.44</v>
+        <v>3436.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -50769,7 +50773,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>1160.22</v>
+        <v>1110.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50795,7 +50799,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="87">
@@ -50862,7 +50866,7 @@
       <c r="A123" s="63"/>
       <c r="B123" s="64"/>
       <c r="C123" s="65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D123" s="66"/>
       <c r="E123" s="37">
@@ -50957,7 +50961,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -51045,7 +51049,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1043.22</v>
+        <v>993.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -51137,7 +51141,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1043.22</v>
+        <v>993.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -51306,7 +51310,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -51409,7 +51413,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1478.22</v>
+        <v>1428.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51501,7 +51505,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1478.22</v>
+        <v>1428.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51685,7 +51689,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -51773,7 +51777,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>2344.22</v>
+        <v>2294.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -52306,7 +52310,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -52322,7 +52326,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>5373.22</v>
+        <v>5323.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -52338,7 +52342,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>6565.44</v>
+        <v>6465.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -54163,7 +54167,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>2344.22</v>
+        <v>2294.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -54332,7 +54336,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -54435,7 +54439,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>2939.22</v>
+        <v>2889.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54527,7 +54531,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>2939.22</v>
+        <v>2889.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54696,7 +54700,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -54711,7 +54715,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -54799,7 +54803,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>4728.22</v>
+        <v>4678.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54891,7 +54895,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>4728.22</v>
+        <v>4678.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -55060,7 +55064,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -55163,7 +55167,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>5373.22</v>
+        <v>5323.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55693,7 +55697,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1192.22</v>
+        <v>1142.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -55709,7 +55713,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>7540.22</v>
+        <v>7490.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55725,7 +55729,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>8732.44</v>
+        <v>8632.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -55824,7 +55828,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:9">
       <c r="A11" s="101" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -57548,7 +57552,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>5373.22</v>
+        <v>5323.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57732,7 +57736,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -57820,7 +57824,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>6239.22</v>
+        <v>6189.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57912,7 +57916,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>6239.22</v>
+        <v>6189.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -58081,7 +58085,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -58184,7 +58188,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>6674.22</v>
+        <v>6624.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -58276,7 +58280,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>6674.22</v>
+        <v>6624.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -58460,7 +58464,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -58548,7 +58552,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>7540.22</v>
+        <v>7490.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>

--- a/Income And Expenses Forecast Demo.xlsx
+++ b/Income And Expenses Forecast Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21480"/>
+    <workbookView windowHeight="21480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="145">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -424,6 +424,12 @@
 2. 23rd May 2025 -  Top Up For Octopus $100 (Don't need to Include)</t>
   </si>
   <si>
+    <t>yuu</t>
+  </si>
+  <si>
+    <t>1. yuu topup ~ $2</t>
+  </si>
+  <si>
     <t>Birdie Mobile</t>
   </si>
   <si>
@@ -483,35 +489,66 @@
    - Vegetables 1 kg ~ $12
    - Best Mart 360 ~ Coffee Beans $98
   - OK Store ~ Soft drinks $15
-  - U Store ~ $16.5</t>
+  - U Store ~ $16.5
+  - Best Mart 360 5kg Rice ~ $49
+  - St Honour ~ $10
+  - Best Mart 360 Peppsi ~ $14
+  - OK Store ~ soft drinks $44
+  - Best Mart ~ soft drinks $18
+  - Best Mart ~ soft drinks $18</t>
   </si>
   <si>
     <t>~ Nivea body lotion 380ml ~ $32
 ~ Longevity Sweetened Milk 374GM ~ $11
 ~ Market Slippers ~ $69
 ~ Round Trip to Mong Kok ~ $6
-~ Round Trip to Robert Black Hospital ~ $4</t>
+~ Round Trip to Robert Black Hospital ~ $4
+~ Medimart 3M TEGADERM 5 pieces ~ $50
+~ Pharmacy (Gauze Pad, cotton buds, Na Solutions) ~ $34
+~ Mannings Pad ~ $10
+~ Round Trip to East Kowloon Hospital ~ $4
+~ Medimart 3M TEGADERM 10 pieces ~ $50
+~ Pharmacy Sentalize Solutions ~ $20</t>
   </si>
   <si>
     <t>Balance Brought Forward From July 2024</t>
   </si>
   <si>
-    <t>~ Payback $800 to Mom</t>
+    <t>~ Payback $1100 to Mom</t>
+  </si>
+  <si>
+    <t>- See the Doctor ~ $110
+- Buy Cigarette Buds ~ $650</t>
   </si>
   <si>
     <t>~ Food And Transport ~ $400</t>
+  </si>
+  <si>
+    <t>~ Payback $1050 to Mom</t>
   </si>
   <si>
     <t>~ Food And Transport ~ $400
 ~ See the Doctor (Injection) ~ $19</t>
   </si>
   <si>
-    <t>~ Buy Cigarette Buds ~ $800</t>
+    <t>~ Buy Cigarette Buds ~ $650</t>
   </si>
   <si>
     <t>- See the Doctor ~ $110
-- Buy Cigarette Buds ~ $800
+- Buy Cigarette Buds ~ $650
 ~ See the Doctor For Blood Pressure ~ $50</t>
+  </si>
+  <si>
+    <t>~ Payback $1150 to Mom</t>
+  </si>
+  <si>
+    <t>~ Payback $800 to Mom</t>
+  </si>
+  <si>
+    <t>~ Payback $770 to Mom</t>
+  </si>
+  <si>
+    <t>~ Payback $200 for Mom Air Ticket</t>
   </si>
   <si>
     <t>~ Food And Transport ~ $400
@@ -519,29 +556,20 @@
 ~ See the Doctor For Blood Pressure ~ $50</t>
   </si>
   <si>
-    <t>~ Payback $300 to Mom</t>
-  </si>
-  <si>
-    <t>~ Payback $400 to Mom For Air Ticket.</t>
+    <t>~ Payback $883 for Mom Air Ticket</t>
   </si>
   <si>
     <t>- See the Doctor ~ $240
-- Buy Cigarette Buds ~ $800</t>
-  </si>
-  <si>
-    <t>Payback $300 to Mom</t>
-  </si>
-  <si>
-    <t>~ Payback $683 to Mom For Air Ticket.</t>
+- Buy Cigarette Buds ~ $650</t>
   </si>
   <si>
     <t>- See the Doctor ~ $290
-- Buy Cigarette Buds ~ $800
+- Buy Cigarette Buds ~ $650
 ~ See the Doctor For Blood Pressure ~ $160</t>
   </si>
   <si>
     <t>- See the Doctor ~ $290
-- Buy Cigarette Buds ~ $800</t>
+- Buy Cigarette Buds ~ $650</t>
   </si>
   <si>
     <t>~ Food And Transport ~ $400
@@ -549,7 +577,15 @@
 ~ See the Doctor For Blood Pressure ~ $160</t>
   </si>
   <si>
+    <t>- See the Doctor ~ $240
+- Buy Cigarette Buds ~ $800</t>
+  </si>
+  <si>
     <t>31st October 2025</t>
+  </si>
+  <si>
+    <t>- See the Doctor ~ $290
+- Buy Cigarette Buds ~ $800</t>
   </si>
   <si>
     <t>S</t>
@@ -3062,7 +3098,7 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -4824,8 +4860,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -4859,7 +4895,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4875,7 +4911,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>9386.22</v>
+        <v>11028.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4891,7 +4927,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>10528.44</v>
+        <v>11832.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6712,7 +6748,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>7490.22</v>
+        <v>8832.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6881,11 +6917,11 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
-        <v>1090</v>
+        <v>940</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
@@ -6896,7 +6932,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -6984,7 +7020,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>8085.22</v>
+        <v>9577.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -7076,7 +7112,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>8085.22</v>
+        <v>9577.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -7245,7 +7281,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -7260,11 +7296,11 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -7348,7 +7384,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>8791.22</v>
+        <v>10433.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7440,7 +7476,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>8791.22</v>
+        <v>10433.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7609,7 +7645,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -7624,7 +7660,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -7712,7 +7748,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>9386.22</v>
+        <v>11028.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8193,8 +8229,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -8228,7 +8264,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -8244,7 +8280,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>11553.22</v>
+        <v>13645.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8260,7 +8296,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>12695.44</v>
+        <v>14449.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -10081,7 +10117,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>9386.22</v>
+        <v>11028.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -10250,7 +10286,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -10265,11 +10301,11 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -10353,7 +10389,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>10252.22</v>
+        <v>12044.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10445,7 +10481,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>10252.22</v>
+        <v>12044.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10614,11 +10650,11 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -10629,7 +10665,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -10717,7 +10753,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>10687.22</v>
+        <v>12629.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10809,7 +10845,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>10687.22</v>
+        <v>12629.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -10978,7 +11014,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -10993,11 +11029,11 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
@@ -11081,7 +11117,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>11553.22</v>
+        <v>13645.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11557,8 +11593,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="F23" sqref="B23:G23"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -11593,7 +11629,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11609,7 +11645,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>15853.22</v>
+        <v>18395.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11625,7 +11661,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>16995.44</v>
+        <v>19199.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -13450,7 +13486,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>11553.22</v>
+        <v>13645.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13619,7 +13655,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -13634,11 +13670,11 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -13722,7 +13758,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>12769.22</v>
+        <v>15011.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13814,7 +13850,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>12769.22</v>
+        <v>15011.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -13983,11 +14019,11 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -13998,7 +14034,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -14086,7 +14122,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>14637.22</v>
+        <v>17029.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -14178,7 +14214,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>14637.22</v>
+        <v>17029.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -14347,7 +14383,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -14362,11 +14398,11 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
@@ -14450,7 +14486,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>15853.22</v>
+        <v>18395.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -14926,8 +14962,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -14960,7 +14996,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -14976,7 +15012,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>17749.22</v>
+        <v>20591.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -14992,7 +15028,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>18891.44</v>
+        <v>21395.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -16813,7 +16849,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>15853.22</v>
+        <v>18395.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -16982,11 +17018,11 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
-        <v>1090</v>
+        <v>940</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
@@ -16997,7 +17033,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -17085,7 +17121,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>16448.22</v>
+        <v>19140.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -17177,7 +17213,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>16448.22</v>
+        <v>19140.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -17346,7 +17382,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -17361,11 +17397,11 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -17449,7 +17485,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>17154.22</v>
+        <v>19996.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17541,7 +17577,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>17154.22</v>
+        <v>19996.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17710,7 +17746,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -17725,7 +17761,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -17813,7 +17849,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>17749.22</v>
+        <v>20591.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18294,8 +18330,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -18330,7 +18366,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -18346,7 +18382,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>19916.22</v>
+        <v>23208.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18362,7 +18398,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>21058.44</v>
+        <v>24012.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -20183,7 +20219,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>17749.22</v>
+        <v>20591.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -20352,7 +20388,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -20367,11 +20403,11 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -20455,7 +20491,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>18615.22</v>
+        <v>21607.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20547,7 +20583,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>18615.22</v>
+        <v>21607.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20716,11 +20752,11 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -20731,7 +20767,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -20819,7 +20855,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>19050.22</v>
+        <v>22192.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20911,7 +20947,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>19050.22</v>
+        <v>22192.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -21080,7 +21116,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -21095,11 +21131,11 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
@@ -21183,7 +21219,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>19916.22</v>
+        <v>23208.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21659,8 +21695,8 @@
   <sheetPr/>
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -21693,7 +21729,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -21709,7 +21745,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>21902.22</v>
+        <v>25494.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21725,7 +21761,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>23044.44</v>
+        <v>26298.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -23546,7 +23582,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>19916.22</v>
+        <v>23208.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23715,11 +23751,11 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
-        <v>1040</v>
+        <v>890</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
@@ -23730,7 +23766,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -23818,7 +23854,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>20561.22</v>
+        <v>24003.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23910,7 +23946,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>20561.22</v>
+        <v>24003.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -24079,7 +24115,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -24094,11 +24130,11 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -24182,7 +24218,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>21267.22</v>
+        <v>24859.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24274,7 +24310,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>21267.22</v>
+        <v>24859.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24443,7 +24479,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -24458,7 +24494,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -24546,7 +24582,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>21902.22</v>
+        <v>25494.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -25028,8 +25064,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -25062,7 +25098,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -25078,7 +25114,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>25152.22</v>
+        <v>29194.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -25094,7 +25130,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>26294.44</v>
+        <v>29998.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -26919,7 +26955,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>21902.22</v>
+        <v>25494.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -27088,7 +27124,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -27103,11 +27139,11 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -27191,7 +27227,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>22768.22</v>
+        <v>26510.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27283,7 +27319,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>22768.22</v>
+        <v>26510.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27452,11 +27488,11 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -27467,7 +27503,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -27555,7 +27591,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>24286.22</v>
+        <v>28178.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27647,7 +27683,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>24286.22</v>
+        <v>28178.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27816,7 +27852,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -27831,11 +27867,11 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
@@ -27919,7 +27955,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>25152.22</v>
+        <v>29194.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28382,8 +28418,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -28416,7 +28452,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -28432,7 +28468,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>27098.22</v>
+        <v>31590.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28448,7 +28484,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>28240.44</v>
+        <v>32394.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -30038,7 +30074,7 @@
         <v>Bankruptcy Department / Bank</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
@@ -30268,7 +30304,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>25152.22</v>
+        <v>29194.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30437,11 +30473,11 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
-        <v>1040</v>
+        <v>890</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
@@ -30452,7 +30488,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -30540,7 +30576,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>25797.22</v>
+        <v>29989.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30632,7 +30668,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>25797.22</v>
+        <v>29989.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30801,7 +30837,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -30816,11 +30852,11 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -30904,7 +30940,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>26503.22</v>
+        <v>30845.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -30996,7 +31032,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>26503.22</v>
+        <v>30845.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -31165,11 +31201,11 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
-        <v>1090</v>
+        <v>940</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="14"/>
@@ -31180,7 +31216,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -31268,7 +31304,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>27098.22</v>
+        <v>31590.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31736,8 +31772,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -31772,7 +31808,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -31788,7 +31824,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>29265.22</v>
+        <v>34207.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31804,7 +31840,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>30407.44</v>
+        <v>35011.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -33625,7 +33661,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>27098.22</v>
+        <v>31590.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33794,7 +33830,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -33809,11 +33845,11 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -33897,7 +33933,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>27964.22</v>
+        <v>32606.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -33989,7 +34025,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>27964.22</v>
+        <v>32606.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -34158,11 +34194,11 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -34173,7 +34209,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -34261,7 +34297,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>28399.22</v>
+        <v>33191.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34353,7 +34389,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>28399.22</v>
+        <v>33191.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34522,7 +34558,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -34537,11 +34573,11 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
@@ -34625,7 +34661,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>29265.22</v>
+        <v>34207.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -35083,7 +35119,7 @@
   <sheetPr/>
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B51" sqref="B51:B53"/>
     </sheetView>
   </sheetViews>
@@ -35627,8 +35663,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35698,7 +35734,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="159">
-        <v>997.1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="160" t="s">
         <v>34</v>
@@ -35707,7 +35743,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="187">
-        <v>997.1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="195" t="str">
         <f>TEXT(Main!B3,"dd mmmm yyyy")&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,1)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*1,"dd mmmm yyyy"))</f>
@@ -35723,7 +35759,7 @@
       </c>
       <c r="N3" s="196">
         <f>-C122</f>
-        <v>-7203.9</v>
+        <v>-7773.9</v>
       </c>
     </row>
     <row r="4" ht="35.25" customHeight="1" spans="1:14">
@@ -35732,14 +35768,14 @@
         <v>36</v>
       </c>
       <c r="C4" s="159">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D4" s="161"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="187">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I4" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,1),"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)+1,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,2)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*2+1,"dd mmmm yyyy"))</f>
@@ -35755,7 +35791,7 @@
       </c>
       <c r="N4" s="196">
         <f ca="1">'April 2025 - June 2025'!C5</f>
-        <v>-5683</v>
+        <v>-5953</v>
       </c>
     </row>
     <row r="5" ht="35.25" customHeight="1" spans="1:14">
@@ -35787,7 +35823,7 @@
       </c>
       <c r="N5" s="196">
         <f ca="1">'July 2025 - September 2025'!C5</f>
-        <v>-3283</v>
+        <v>-2653</v>
       </c>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:14">
@@ -35819,7 +35855,7 @@
       </c>
       <c r="N6" s="196">
         <f ca="1">'October 2025 - December 2025'!C5</f>
-        <v>-983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="35.25" customHeight="1" spans="1:14">
@@ -35828,14 +35864,14 @@
         <v>39</v>
       </c>
       <c r="C7" s="159">
-        <v>2.5</v>
+        <v>692.6</v>
       </c>
       <c r="D7" s="161"/>
       <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="187">
-        <v>2.5</v>
+        <v>792.6</v>
       </c>
       <c r="I7" s="198" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,4),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*4)+4,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,5)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*5+4),"dd mmmm yyyy"))</f>
@@ -35843,7 +35879,7 @@
       </c>
       <c r="J7" s="196">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="M7" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35876,7 +35912,7 @@
       </c>
       <c r="J8" s="196">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>1117.22</v>
+        <v>629.22</v>
       </c>
       <c r="M8" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35908,7 +35944,7 @@
       </c>
       <c r="J9" s="196">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>1183.22</v>
+        <v>595.22</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35940,7 +35976,7 @@
       </c>
       <c r="J10" s="196">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>1108.22</v>
+        <v>370.22</v>
       </c>
       <c r="M10" s="206" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -35957,14 +35993,14 @@
         <v>43</v>
       </c>
       <c r="C11" s="159">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="161"/>
       <c r="E11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="187">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H11" s="188"/>
       <c r="I11" s="197" t="str">
@@ -35973,7 +36009,7 @@
       </c>
       <c r="J11" s="196">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>1174.22</v>
+        <v>236.22</v>
       </c>
       <c r="M11" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -36005,7 +36041,7 @@
       </c>
       <c r="J12" s="196">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>1149.22</v>
+        <v>361.22</v>
       </c>
       <c r="M12" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -36022,14 +36058,14 @@
         <v>45</v>
       </c>
       <c r="C13" s="159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="161"/>
       <c r="E13" s="189" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="199" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,10),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*10)+10,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,11)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11+10),"dd mmmm yyyy"))</f>
@@ -36037,7 +36073,7 @@
       </c>
       <c r="J13" s="196">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>1165.22</v>
+        <v>357.22</v>
       </c>
       <c r="M13" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -36054,14 +36090,14 @@
         <v>46</v>
       </c>
       <c r="C14" s="159">
-        <v>49.6</v>
+        <v>8.6</v>
       </c>
       <c r="D14" s="161"/>
       <c r="E14" s="189" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="187">
-        <v>49.6</v>
+        <v>8.6</v>
       </c>
       <c r="I14" s="199" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,11),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11)+11,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
@@ -36069,7 +36105,7 @@
       </c>
       <c r="J14" s="200">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>1110.22</v>
+        <v>269.22</v>
       </c>
       <c r="M14" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -36101,7 +36137,7 @@
       </c>
       <c r="J15" s="200">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>993.22</v>
+        <v>1285.22</v>
       </c>
       <c r="M15" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -36119,7 +36155,7 @@
       </c>
       <c r="C16" s="165">
         <f>SUM(C3:C15)</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D16" s="166"/>
       <c r="E16" s="164" t="s">
@@ -36127,7 +36163,7 @@
       </c>
       <c r="F16" s="190">
         <f>SUM(F3:F15)</f>
-        <v>1192.22</v>
+        <v>892.22</v>
       </c>
       <c r="I16" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
@@ -36135,7 +36171,7 @@
       </c>
       <c r="J16" s="200">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>1428.22</v>
+        <v>1870.22</v>
       </c>
       <c r="M16" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -36153,7 +36189,7 @@
       </c>
       <c r="J17" s="200">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>2294.22</v>
+        <v>2886.22</v>
       </c>
       <c r="M17" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -36171,7 +36207,7 @@
       </c>
       <c r="J18" s="200">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>2889.22</v>
+        <v>3631.22</v>
       </c>
       <c r="M18" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -36189,7 +36225,7 @@
       </c>
       <c r="J19" s="200">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>4678.22</v>
+        <v>5570.22</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -36199,7 +36235,7 @@
       </c>
       <c r="J20" s="200">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>5323.22</v>
+        <v>6215.22</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -36209,7 +36245,7 @@
       </c>
       <c r="J21" s="200">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>6189.22</v>
+        <v>7231.22</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -36229,7 +36265,7 @@
       </c>
       <c r="J22" s="200">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>6624.22</v>
+        <v>7816.22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -36254,7 +36290,7 @@
       </c>
       <c r="J23" s="200">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>7490.22</v>
+        <v>8832.22</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -36273,7 +36309,7 @@
       </c>
       <c r="J24" s="200">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>8085.22</v>
+        <v>9577.22</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -36292,7 +36328,7 @@
       </c>
       <c r="J25" s="200">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>8791.22</v>
+        <v>10433.22</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -36311,7 +36347,7 @@
       </c>
       <c r="J26" s="200">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>9386.22</v>
+        <v>11028.22</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -36330,7 +36366,7 @@
       </c>
       <c r="J27" s="200">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>10252.22</v>
+        <v>12044.22</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -36349,7 +36385,7 @@
       </c>
       <c r="J28" s="200">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>10687.22</v>
+        <v>12629.22</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36368,7 +36404,7 @@
       </c>
       <c r="J29" s="196">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>11553.22</v>
+        <v>13645.22</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36390,7 +36426,7 @@
       </c>
       <c r="J30" s="202">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>12769.22</v>
+        <v>15011.22</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36400,7 +36436,7 @@
       </c>
       <c r="J31" s="200">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>14637.22</v>
+        <v>17029.22</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36410,7 +36446,7 @@
       </c>
       <c r="J32" s="200">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>15853.22</v>
+        <v>18395.22</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36420,7 +36456,7 @@
       </c>
       <c r="J33" s="200">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>16448.22</v>
+        <v>19140.22</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36440,7 +36476,7 @@
       </c>
       <c r="J34" s="200">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>17154.22</v>
+        <v>19996.22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36465,7 +36501,7 @@
       </c>
       <c r="J35" s="200">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>17749.22</v>
+        <v>20591.22</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36488,7 +36524,7 @@
       </c>
       <c r="J36" s="200">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>18615.22</v>
+        <v>21607.22</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36507,7 +36543,7 @@
       </c>
       <c r="J37" s="200">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>19050.22</v>
+        <v>22192.22</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36526,7 +36562,7 @@
       </c>
       <c r="J38" s="200">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>19916.22</v>
+        <v>23208.22</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36545,7 +36581,7 @@
       </c>
       <c r="J39" s="200">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>20561.22</v>
+        <v>24003.22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36564,7 +36600,7 @@
       </c>
       <c r="J40" s="200">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>21267.22</v>
+        <v>24859.22</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36583,7 +36619,7 @@
       </c>
       <c r="J41" s="200">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>21902.22</v>
+        <v>25494.22</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36605,7 +36641,7 @@
       </c>
       <c r="J42" s="200">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>22768.22</v>
+        <v>26510.22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36615,7 +36651,7 @@
       </c>
       <c r="J43" s="200">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>24286.22</v>
+        <v>28178.22</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36625,7 +36661,7 @@
       </c>
       <c r="J44" s="200">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>25152.22</v>
+        <v>29194.22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36635,7 +36671,7 @@
       </c>
       <c r="J45" s="200">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>25797.22</v>
+        <v>29989.22</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36655,7 +36691,7 @@
       </c>
       <c r="J46" s="200">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>26503.22</v>
+        <v>30845.22</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36680,7 +36716,7 @@
       </c>
       <c r="J47" s="200">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>27098.22</v>
+        <v>31590.22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36703,7 +36739,7 @@
       </c>
       <c r="J48" s="200">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>27964.22</v>
+        <v>32606.22</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36722,7 +36758,7 @@
       </c>
       <c r="J49" s="200">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>28399.22</v>
+        <v>33191.22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36741,7 +36777,7 @@
       </c>
       <c r="J50" s="196">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>29265.22</v>
+        <v>34207.22</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -37235,7 +37271,7 @@
       </c>
       <c r="B112" s="215"/>
       <c r="C112" s="216">
-        <v>5970</v>
+        <v>6540</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="96"/>
@@ -37370,7 +37406,7 @@
       </c>
       <c r="C122" s="207">
         <f>SUM(C112:C121)</f>
-        <v>7203.9</v>
+        <v>7773.9</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -37380,7 +37416,7 @@
       </c>
       <c r="C123" s="37">
         <f>C122+C110</f>
-        <v>7603.9</v>
+        <v>8173.9</v>
       </c>
     </row>
     <row r="124" spans="5:5">
@@ -38605,8 +38641,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187:D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -38643,7 +38679,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -38657,7 +38693,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1117.22</v>
+        <v>629.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38671,7 +38707,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2259.44</v>
+        <v>1433.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -38687,7 +38723,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-5683</v>
+        <v>-5953</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -39010,12 +39046,16 @@
     </row>
     <row r="27" ht="32.1" customHeight="1" spans="1:9">
       <c r="A27" s="132"/>
-      <c r="B27" s="137"/>
+      <c r="B27" s="137" t="s">
+        <v>108</v>
+      </c>
       <c r="C27" s="138"/>
-      <c r="D27" s="139"/>
+      <c r="D27" s="139" t="s">
+        <v>109</v>
+      </c>
       <c r="E27" s="146"/>
       <c r="F27" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="14"/>
@@ -39031,7 +39071,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="46">
         <f>SUM(F22:G27)</f>
-        <v>3620.99</v>
+        <v>3622.99</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="14"/>
@@ -39121,11 +39161,11 @@
     <row r="35" ht="24.75" customHeight="1" spans="1:9">
       <c r="A35" s="132"/>
       <c r="B35" s="97" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C35" s="98"/>
       <c r="D35" s="123" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E35" s="147"/>
       <c r="F35" s="7">
@@ -39142,7 +39182,7 @@
       </c>
       <c r="C36" s="98"/>
       <c r="D36" s="123" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E36" s="147"/>
       <c r="F36" s="7">
@@ -40222,7 +40262,7 @@
       </c>
       <c r="C98" s="106" cm="1">
         <f ca="1" t="array" ref="C98">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E131")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E158")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E185")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C112")</f>
-        <v>-4600</v>
+        <v>-4870</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -40417,7 +40457,7 @@
       </c>
       <c r="C108" s="106">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-5683</v>
+        <v>-5953</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -40433,7 +40473,7 @@
       </c>
       <c r="C109" s="106">
         <f ca="1">C108-C96</f>
-        <v>-6102.99</v>
+        <v>-6372.99</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -40696,7 +40736,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -40711,7 +40751,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -40726,7 +40766,7 @@
       <c r="A131" s="63"/>
       <c r="B131" s="64"/>
       <c r="C131" s="74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D131" s="74"/>
       <c r="E131" s="87">
@@ -40919,7 +40959,7 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="65" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D145" s="66"/>
       <c r="E145" s="37">
@@ -40999,7 +41039,7 @@
       <c r="A151" s="63"/>
       <c r="B151" s="64"/>
       <c r="C151" s="114" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D151" s="149"/>
       <c r="E151" s="37">
@@ -41066,11 +41106,11 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -41081,7 +41121,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="73" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -41096,7 +41136,7 @@
       <c r="A158" s="63"/>
       <c r="B158" s="64"/>
       <c r="C158" s="73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D158" s="74"/>
       <c r="E158" s="87">
@@ -41107,37 +41147,37 @@
       <c r="H158" s="14"/>
       <c r="I158" s="48"/>
     </row>
-    <row r="159" ht="139" customHeight="1" spans="1:9">
+    <row r="159" ht="235" customHeight="1" spans="1:9">
       <c r="A159" s="63"/>
       <c r="B159" s="64"/>
       <c r="C159" s="73" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D159" s="74"/>
       <c r="E159" s="87">
-        <v>198.3</v>
+        <v>351.3</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
       <c r="H159" s="14"/>
       <c r="I159" s="48"/>
     </row>
-    <row r="160" ht="125" customHeight="1" spans="1:9">
+    <row r="160" ht="200" customHeight="1" spans="1:9">
       <c r="A160" s="63"/>
       <c r="B160" s="64"/>
       <c r="C160" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D160" s="125"/>
       <c r="E160" s="87">
-        <v>122</v>
+        <v>290</v>
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
       <c r="H160" s="14"/>
       <c r="I160" s="48"/>
     </row>
-    <row r="161" ht="24.75" customHeight="1" spans="1:9">
+    <row r="161" ht="24" customHeight="1" spans="1:9">
       <c r="A161" s="75"/>
       <c r="B161" s="76"/>
       <c r="C161" s="65"/>
@@ -41175,7 +41215,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -41259,14 +41299,14 @@
     </row>
     <row r="170" ht="24.75" customHeight="1" spans="1:9">
       <c r="A170" s="56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -41292,11 +41332,11 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
@@ -41437,11 +41477,11 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
-        <v>910</v>
+        <v>760</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="14"/>
@@ -41452,7 +41492,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -41476,7 +41516,7 @@
       <c r="H185" s="14"/>
       <c r="I185" s="48"/>
     </row>
-    <row r="186" ht="117.95" customHeight="1" spans="1:9">
+    <row r="186" ht="26" customHeight="1" spans="1:9">
       <c r="A186" s="63"/>
       <c r="B186" s="64"/>
       <c r="C186" s="73"/>
@@ -41540,7 +41580,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1117.22</v>
+        <v>629.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -42029,8 +42069,8 @@
   <sheetPr/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -42064,7 +42104,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -42078,7 +42118,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1174.22</v>
+        <v>236.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -42092,7 +42132,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2316.44</v>
+        <v>1040.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -42108,7 +42148,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-3283</v>
+        <v>-2653</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -43607,7 +43647,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-2200</v>
+        <v>-1570</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -43803,7 +43843,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-3283</v>
+        <v>-2653</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -43819,7 +43859,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-3633</v>
+        <v>-3003</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -43913,7 +43953,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="89" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>1117.22</v>
+        <v>629.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -43939,11 +43979,11 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
@@ -44084,7 +44124,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -44099,11 +44139,11 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -44187,7 +44227,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1183.22</v>
+        <v>595.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -44279,7 +44319,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1183.22</v>
+        <v>595.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -44305,11 +44345,11 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F145" s="14"/>
       <c r="G145" s="14"/>
@@ -44450,11 +44490,11 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
-        <v>960</v>
+        <v>810</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -44465,7 +44505,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -44553,7 +44593,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1108.22</v>
+        <v>370.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44645,7 +44685,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1108.22</v>
+        <v>370.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44671,11 +44711,11 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
-        <v>800</v>
+        <v>1150</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
@@ -44816,7 +44856,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -44831,11 +44871,11 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
@@ -44919,7 +44959,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1174.22</v>
+        <v>236.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45449,8 +45489,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177:D177"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -45484,7 +45524,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -45500,7 +45540,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>1110.22</v>
+        <v>269.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45516,7 +45556,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>2252.44</v>
+        <v>1073.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -45532,7 +45572,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-983</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -47031,7 +47071,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -47131,7 +47171,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>-683</v>
+        <v>0</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -47227,7 +47267,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-983</v>
+        <v>0</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -47243,7 +47283,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-1333</v>
+        <v>-350</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -47337,7 +47377,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>1174.22</v>
+        <v>236.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -47363,7 +47403,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -47508,11 +47548,11 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
-        <v>910</v>
+        <v>760</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
@@ -47523,7 +47563,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -47611,7 +47651,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1149.22</v>
+        <v>361.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47703,7 +47743,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1149.22</v>
+        <v>361.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -47729,11 +47769,11 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="F145" s="14"/>
       <c r="G145" s="14"/>
@@ -47795,10 +47835,12 @@
     <row r="150" ht="24.75" customHeight="1" spans="1:9">
       <c r="A150" s="63"/>
       <c r="B150" s="64"/>
-      <c r="C150" s="65"/>
+      <c r="C150" s="65" t="s">
+        <v>134</v>
+      </c>
       <c r="D150" s="66"/>
       <c r="E150" s="37">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F150" s="14"/>
       <c r="G150" s="14"/>
@@ -47874,7 +47916,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -47889,11 +47931,11 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -47977,7 +48019,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1165.22</v>
+        <v>357.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -48069,7 +48111,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1165.22</v>
+        <v>357.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -48094,12 +48136,10 @@
     <row r="172" ht="24.75" customHeight="1" spans="1:9">
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
-      <c r="C172" s="74" t="s">
-        <v>128</v>
-      </c>
+      <c r="C172" s="74"/>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
@@ -48162,11 +48202,11 @@
       <c r="A177" s="63"/>
       <c r="B177" s="64"/>
       <c r="C177" s="65" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D177" s="66"/>
       <c r="E177" s="37">
-        <v>400</v>
+        <v>883</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
@@ -48242,11 +48282,11 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
-        <v>1040</v>
+        <v>890</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="14"/>
@@ -48257,7 +48297,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -48345,7 +48385,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>1110.22</v>
+        <v>269.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48884,8 +48924,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -48920,7 +48960,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -48936,7 +48976,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>2294.22</v>
+        <v>2886.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -48952,7 +48992,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>3436.44</v>
+        <v>3690.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -50773,7 +50813,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>1110.22</v>
+        <v>269.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50798,12 +50838,10 @@
     <row r="118" ht="24.75" customHeight="1" spans="1:9">
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
-      <c r="C118" s="74" t="s">
-        <v>131</v>
-      </c>
+      <c r="C118" s="74"/>
       <c r="D118" s="74"/>
       <c r="E118" s="87">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
@@ -50865,12 +50903,10 @@
     <row r="123" ht="24.75" customHeight="1" spans="1:9">
       <c r="A123" s="63"/>
       <c r="B123" s="64"/>
-      <c r="C123" s="65" t="s">
-        <v>132</v>
-      </c>
+      <c r="C123" s="65"/>
       <c r="D123" s="66"/>
       <c r="E123" s="37">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
@@ -50946,7 +50982,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -50961,11 +50997,11 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -51049,7 +51085,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>993.22</v>
+        <v>1285.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -51141,7 +51177,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>993.22</v>
+        <v>1285.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -51310,11 +51346,11 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -51325,7 +51361,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -51413,7 +51449,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1428.22</v>
+        <v>1870.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51505,7 +51541,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1428.22</v>
+        <v>1870.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51674,7 +51710,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -51689,11 +51725,11 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
@@ -51777,7 +51813,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>2294.22</v>
+        <v>2886.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -52276,8 +52312,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -52310,7 +52346,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -52326,7 +52362,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>5323.22</v>
+        <v>6215.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -52342,7 +52378,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>6465.44</v>
+        <v>7019.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -54167,7 +54203,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>2294.22</v>
+        <v>2886.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -54336,11 +54372,11 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
-        <v>1090</v>
+        <v>940</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
@@ -54351,7 +54387,7 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
@@ -54439,7 +54475,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>2889.22</v>
+        <v>3631.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54531,7 +54567,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>2889.22</v>
+        <v>3631.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54700,7 +54736,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -54715,11 +54751,11 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
@@ -54803,7 +54839,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>4678.22</v>
+        <v>5570.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54895,7 +54931,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>4678.22</v>
+        <v>5570.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -55064,7 +55100,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -55079,7 +55115,7 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
@@ -55167,7 +55203,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>5323.22</v>
+        <v>6215.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55663,8 +55699,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -55697,7 +55733,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>1142.22</v>
+        <v>804.22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -55713,7 +55749,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>7490.22</v>
+        <v>8832.22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55729,7 +55765,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>8632.44</v>
+        <v>9636.44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -55828,7 +55864,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:9">
       <c r="A11" s="101" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -57552,7 +57588,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>5323.22</v>
+        <v>6215.22</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57721,7 +57757,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -57736,11 +57772,11 @@
       <c r="A130" s="63"/>
       <c r="B130" s="64"/>
       <c r="C130" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -57824,7 +57860,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>6189.22</v>
+        <v>7231.22</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57916,7 +57952,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>6189.22</v>
+        <v>7231.22</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -58085,11 +58121,11 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -58100,7 +58136,7 @@
       <c r="A157" s="63"/>
       <c r="B157" s="64"/>
       <c r="C157" s="74" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="87">
@@ -58188,7 +58224,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>6624.22</v>
+        <v>7816.22</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -58280,7 +58316,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>6624.22</v>
+        <v>7816.22</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -58449,7 +58485,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -58464,11 +58500,11 @@
       <c r="A184" s="63"/>
       <c r="B184" s="64"/>
       <c r="C184" s="74" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D184" s="74"/>
       <c r="E184" s="87">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
@@ -58552,7 +58588,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>7490.22</v>
+        <v>8832.22</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>

--- a/Income And Expenses Forecast Demo.xlsx
+++ b/Income And Expenses Forecast Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21480" activeTab="3"/>
+    <workbookView windowHeight="21480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="147">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -495,7 +495,10 @@
   - Best Mart 360 Peppsi ~ $14
   - OK Store ~ soft drinks $44
   - Best Mart ~ soft drinks $18
-  - Best Mart ~ soft drinks $18</t>
+  - Best Mart ~ soft drinks $18
+  - Best Mart ~ Starbucks Coffee Beans ~ $49.9
+  - Wellcome ~ Sugar ~ $6.5
+  - U Mart ~ Nisan Noddle Curd Beans ~ $20.8</t>
   </si>
   <si>
     <t>~ Nivea body lotion 380ml ~ $32
@@ -508,7 +511,10 @@
 ~ Mannings Pad ~ $10
 ~ Round Trip to East Kowloon Hospital ~ $4
 ~ Medimart 3M TEGADERM 10 pieces ~ $50
-~ Pharmacy Sentalize Solutions ~ $20</t>
+~ Pharmacy Sentalize Solutions ~ $20
+~ Round Trip to East Kowloon Hospital ~ $4
+~ Watsons ~ Asprin Like medicine ~ $49
+~ Wellcome ~ Plastic bag ~ $1</t>
   </si>
   <si>
     <t>Balance Brought Forward From July 2024</t>
@@ -534,12 +540,12 @@
     <t>~ Buy Cigarette Buds ~ $650</t>
   </si>
   <si>
+    <t>~ Payback $1000 to Mom</t>
+  </si>
+  <si>
     <t>- See the Doctor ~ $110
 - Buy Cigarette Buds ~ $650
 ~ See the Doctor For Blood Pressure ~ $50</t>
-  </si>
-  <si>
-    <t>~ Payback $1150 to Mom</t>
   </si>
   <si>
     <t>~ Payback $800 to Mom</t>
@@ -556,11 +562,17 @@
 ~ See the Doctor For Blood Pressure ~ $50</t>
   </si>
   <si>
-    <t>~ Payback $883 for Mom Air Ticket</t>
+    <t>~ Payback $250 to Mom</t>
+  </si>
+  <si>
+    <t>~ Payback $400 for Mom Air Ticket</t>
   </si>
   <si>
     <t>- See the Doctor ~ $240
 - Buy Cigarette Buds ~ $650</t>
+  </si>
+  <si>
+    <t>~ Payback $483 for Mom Air Ticket</t>
   </si>
   <si>
     <t>- See the Doctor ~ $290
@@ -4895,7 +4907,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4911,7 +4923,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>11028.22</v>
+        <v>10897.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4927,7 +4939,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>11832.44</v>
+        <v>11570.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6748,7 +6760,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>8832.22</v>
+        <v>8701.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6917,7 +6929,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -7020,7 +7032,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>9577.22</v>
+        <v>9446.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -7112,7 +7124,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>9577.22</v>
+        <v>9446.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -7281,7 +7293,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -7384,7 +7396,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>10433.22</v>
+        <v>10302.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7476,7 +7488,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>10433.22</v>
+        <v>10302.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7645,7 +7657,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -7748,7 +7760,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>11028.22</v>
+        <v>10897.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8264,7 +8276,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -8280,7 +8292,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>13645.22</v>
+        <v>13514.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8296,7 +8308,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>14449.44</v>
+        <v>14187.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -10117,7 +10129,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>11028.22</v>
+        <v>10897.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -10389,7 +10401,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>12044.22</v>
+        <v>11913.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10481,7 +10493,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>12044.22</v>
+        <v>11913.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10650,7 +10662,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -10753,7 +10765,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>12629.22</v>
+        <v>12498.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10845,7 +10857,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>12629.22</v>
+        <v>12498.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -11117,7 +11129,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>13645.22</v>
+        <v>13514.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11629,7 +11641,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11645,7 +11657,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>18395.22</v>
+        <v>18264.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11661,7 +11673,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>19199.44</v>
+        <v>18937.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -13486,7 +13498,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>13645.22</v>
+        <v>13514.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13758,7 +13770,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>15011.22</v>
+        <v>14880.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13850,7 +13862,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>15011.22</v>
+        <v>14880.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -14019,7 +14031,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -14122,7 +14134,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>17029.22</v>
+        <v>16898.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -14214,7 +14226,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>17029.22</v>
+        <v>16898.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -14486,7 +14498,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>18395.22</v>
+        <v>18264.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -14996,7 +15008,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -15012,7 +15024,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>20591.22</v>
+        <v>20460.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -15028,7 +15040,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>21395.44</v>
+        <v>21133.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -16849,7 +16861,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>18395.22</v>
+        <v>18264.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -17018,7 +17030,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -17121,7 +17133,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>19140.22</v>
+        <v>19009.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -17213,7 +17225,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>19140.22</v>
+        <v>19009.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -17382,7 +17394,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -17485,7 +17497,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>19996.22</v>
+        <v>19865.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17577,7 +17589,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>19996.22</v>
+        <v>19865.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17746,7 +17758,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -17849,7 +17861,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>20591.22</v>
+        <v>20460.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18366,7 +18378,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -18382,7 +18394,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>23208.22</v>
+        <v>23077.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18398,7 +18410,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>24012.44</v>
+        <v>23750.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -20219,7 +20231,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>20591.22</v>
+        <v>20460.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -20491,7 +20503,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>21607.22</v>
+        <v>21476.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20583,7 +20595,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>21607.22</v>
+        <v>21476.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20752,7 +20764,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -20855,7 +20867,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>22192.22</v>
+        <v>22061.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20947,7 +20959,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>22192.22</v>
+        <v>22061.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -21219,7 +21231,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>23208.22</v>
+        <v>23077.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21729,7 +21741,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -21745,7 +21757,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>25494.22</v>
+        <v>25363.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21761,7 +21773,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>26298.44</v>
+        <v>26036.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -23582,7 +23594,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>23208.22</v>
+        <v>23077.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23751,7 +23763,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -23854,7 +23866,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>24003.22</v>
+        <v>23872.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23946,7 +23958,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>24003.22</v>
+        <v>23872.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -24115,7 +24127,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -24218,7 +24230,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>24859.22</v>
+        <v>24728.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24310,7 +24322,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>24859.22</v>
+        <v>24728.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24479,7 +24491,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -24582,7 +24594,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>25494.22</v>
+        <v>25363.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -25098,7 +25110,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -25114,7 +25126,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>29194.22</v>
+        <v>29063.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -25130,7 +25142,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>29998.44</v>
+        <v>29736.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -26955,7 +26967,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>25494.22</v>
+        <v>25363.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -27227,7 +27239,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>26510.22</v>
+        <v>26379.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27319,7 +27331,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>26510.22</v>
+        <v>26379.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27488,7 +27500,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -27591,7 +27603,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>28178.22</v>
+        <v>28047.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27683,7 +27695,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>28178.22</v>
+        <v>28047.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27955,7 +27967,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>29194.22</v>
+        <v>29063.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28452,7 +28464,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -28468,7 +28480,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>31590.22</v>
+        <v>31459.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28484,7 +28496,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>32394.44</v>
+        <v>32132.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -30074,7 +30086,7 @@
         <v>Bankruptcy Department / Bank</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
@@ -30304,7 +30316,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>29194.22</v>
+        <v>29063.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30473,7 +30485,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -30576,7 +30588,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>29989.22</v>
+        <v>29858.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30668,7 +30680,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>29989.22</v>
+        <v>29858.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30837,7 +30849,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -30940,7 +30952,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>30845.22</v>
+        <v>30714.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -31032,7 +31044,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>30845.22</v>
+        <v>30714.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -31201,7 +31213,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -31304,7 +31316,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>31590.22</v>
+        <v>31459.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31808,7 +31820,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -31824,7 +31836,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34207.22</v>
+        <v>34076.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31840,7 +31852,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>35011.44</v>
+        <v>34749.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -33661,7 +33673,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>31590.22</v>
+        <v>31459.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33933,7 +33945,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>32606.22</v>
+        <v>32475.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -34025,7 +34037,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>32606.22</v>
+        <v>32475.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -34194,7 +34206,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -34297,7 +34309,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>33191.22</v>
+        <v>33060.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34389,7 +34401,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>33191.22</v>
+        <v>33060.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34661,7 +34673,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34207.22</v>
+        <v>34076.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -35663,8 +35675,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35768,7 +35780,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="159">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D4" s="161"/>
       <c r="E4" s="5" t="s">
@@ -35823,7 +35835,7 @@
       </c>
       <c r="N5" s="196">
         <f ca="1">'July 2025 - September 2025'!C5</f>
-        <v>-2653</v>
+        <v>-2903</v>
       </c>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:14">
@@ -35855,7 +35867,7 @@
       </c>
       <c r="N6" s="196">
         <f ca="1">'October 2025 - December 2025'!C5</f>
-        <v>0</v>
+        <v>-483</v>
       </c>
     </row>
     <row r="7" ht="35.25" customHeight="1" spans="1:14">
@@ -35864,14 +35876,14 @@
         <v>39</v>
       </c>
       <c r="C7" s="159">
-        <v>692.6</v>
+        <v>636.2</v>
       </c>
       <c r="D7" s="161"/>
       <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="187">
-        <v>792.6</v>
+        <v>636.2</v>
       </c>
       <c r="I7" s="198" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,4),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*4)+4,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,5)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*5+4),"dd mmmm yyyy"))</f>
@@ -35879,7 +35891,7 @@
       </c>
       <c r="J7" s="196">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="M7" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35912,7 +35924,7 @@
       </c>
       <c r="J8" s="196">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>629.22</v>
+        <v>498.02</v>
       </c>
       <c r="M8" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35944,7 +35956,7 @@
       </c>
       <c r="J9" s="196">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>595.22</v>
+        <v>464.02</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35976,7 +35988,7 @@
       </c>
       <c r="J10" s="196">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>370.22</v>
+        <v>339.02</v>
       </c>
       <c r="M10" s="206" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -35993,14 +36005,14 @@
         <v>43</v>
       </c>
       <c r="C11" s="159">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" s="161"/>
       <c r="E11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="187">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11" s="188"/>
       <c r="I11" s="197" t="str">
@@ -36009,7 +36021,7 @@
       </c>
       <c r="J11" s="196">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>236.22</v>
+        <v>355.02</v>
       </c>
       <c r="M11" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -36041,7 +36053,7 @@
       </c>
       <c r="J12" s="196">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>361.22</v>
+        <v>480.02</v>
       </c>
       <c r="M12" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -36073,7 +36085,7 @@
       </c>
       <c r="J13" s="196">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>357.22</v>
+        <v>476.02</v>
       </c>
       <c r="M13" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -36090,14 +36102,14 @@
         <v>46</v>
       </c>
       <c r="C14" s="159">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="D14" s="161"/>
       <c r="E14" s="189" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="187">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="I14" s="199" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,11),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*11)+11,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,12)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+11),"dd mmmm yyyy"))</f>
@@ -36105,7 +36117,7 @@
       </c>
       <c r="J14" s="200">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>269.22</v>
+        <v>621.02</v>
       </c>
       <c r="M14" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -36137,7 +36149,7 @@
       </c>
       <c r="J15" s="200">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>1285.22</v>
+        <v>1154.02</v>
       </c>
       <c r="M15" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -36155,7 +36167,7 @@
       </c>
       <c r="C16" s="165">
         <f>SUM(C3:C15)</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D16" s="166"/>
       <c r="E16" s="164" t="s">
@@ -36163,7 +36175,7 @@
       </c>
       <c r="F16" s="190">
         <f>SUM(F3:F15)</f>
-        <v>892.22</v>
+        <v>723.02</v>
       </c>
       <c r="I16" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
@@ -36171,7 +36183,7 @@
       </c>
       <c r="J16" s="200">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>1870.22</v>
+        <v>1739.02</v>
       </c>
       <c r="M16" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -36189,7 +36201,7 @@
       </c>
       <c r="J17" s="200">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>2886.22</v>
+        <v>2755.02</v>
       </c>
       <c r="M17" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -36207,7 +36219,7 @@
       </c>
       <c r="J18" s="200">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>3631.22</v>
+        <v>3500.02</v>
       </c>
       <c r="M18" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -36225,7 +36237,7 @@
       </c>
       <c r="J19" s="200">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>5570.22</v>
+        <v>5439.02</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -36235,7 +36247,7 @@
       </c>
       <c r="J20" s="200">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>6215.22</v>
+        <v>6084.02</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -36245,7 +36257,7 @@
       </c>
       <c r="J21" s="200">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>7231.22</v>
+        <v>7100.02</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -36265,7 +36277,7 @@
       </c>
       <c r="J22" s="200">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>7816.22</v>
+        <v>7685.02</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -36290,7 +36302,7 @@
       </c>
       <c r="J23" s="200">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>8832.22</v>
+        <v>8701.02</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -36309,7 +36321,7 @@
       </c>
       <c r="J24" s="200">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>9577.22</v>
+        <v>9446.02</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -36328,7 +36340,7 @@
       </c>
       <c r="J25" s="200">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>10433.22</v>
+        <v>10302.02</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -36347,7 +36359,7 @@
       </c>
       <c r="J26" s="200">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>11028.22</v>
+        <v>10897.02</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -36366,7 +36378,7 @@
       </c>
       <c r="J27" s="200">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>12044.22</v>
+        <v>11913.02</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -36385,7 +36397,7 @@
       </c>
       <c r="J28" s="200">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>12629.22</v>
+        <v>12498.02</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36404,7 +36416,7 @@
       </c>
       <c r="J29" s="196">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>13645.22</v>
+        <v>13514.02</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36426,7 +36438,7 @@
       </c>
       <c r="J30" s="202">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>15011.22</v>
+        <v>14880.02</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36436,7 +36448,7 @@
       </c>
       <c r="J31" s="200">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>17029.22</v>
+        <v>16898.02</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36446,7 +36458,7 @@
       </c>
       <c r="J32" s="200">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>18395.22</v>
+        <v>18264.02</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36456,7 +36468,7 @@
       </c>
       <c r="J33" s="200">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>19140.22</v>
+        <v>19009.02</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36476,7 +36488,7 @@
       </c>
       <c r="J34" s="200">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>19996.22</v>
+        <v>19865.02</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36501,7 +36513,7 @@
       </c>
       <c r="J35" s="200">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>20591.22</v>
+        <v>20460.02</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36524,7 +36536,7 @@
       </c>
       <c r="J36" s="200">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>21607.22</v>
+        <v>21476.02</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36543,7 +36555,7 @@
       </c>
       <c r="J37" s="200">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>22192.22</v>
+        <v>22061.02</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36562,7 +36574,7 @@
       </c>
       <c r="J38" s="200">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>23208.22</v>
+        <v>23077.02</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36581,7 +36593,7 @@
       </c>
       <c r="J39" s="200">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>24003.22</v>
+        <v>23872.02</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36600,7 +36612,7 @@
       </c>
       <c r="J40" s="200">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>24859.22</v>
+        <v>24728.02</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36619,7 +36631,7 @@
       </c>
       <c r="J41" s="200">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>25494.22</v>
+        <v>25363.02</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36641,7 +36653,7 @@
       </c>
       <c r="J42" s="200">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>26510.22</v>
+        <v>26379.02</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36651,7 +36663,7 @@
       </c>
       <c r="J43" s="200">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>28178.22</v>
+        <v>28047.02</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36661,7 +36673,7 @@
       </c>
       <c r="J44" s="200">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>29194.22</v>
+        <v>29063.02</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36671,7 +36683,7 @@
       </c>
       <c r="J45" s="200">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>29989.22</v>
+        <v>29858.02</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36691,7 +36703,7 @@
       </c>
       <c r="J46" s="200">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>30845.22</v>
+        <v>30714.02</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36716,7 +36728,7 @@
       </c>
       <c r="J47" s="200">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>31590.22</v>
+        <v>31459.02</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36739,7 +36751,7 @@
       </c>
       <c r="J48" s="200">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>32606.22</v>
+        <v>32475.02</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36758,7 +36770,7 @@
       </c>
       <c r="J49" s="200">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>33191.22</v>
+        <v>33060.02</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36777,7 +36789,7 @@
       </c>
       <c r="J50" s="196">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>34207.22</v>
+        <v>34076.02</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -38641,8 +38653,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187:D187"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -38679,7 +38691,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -38693,7 +38705,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>629.22</v>
+        <v>498.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38707,7 +38719,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>1433.44</v>
+        <v>1171.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -41147,7 +41159,7 @@
       <c r="H158" s="14"/>
       <c r="I158" s="48"/>
     </row>
-    <row r="159" ht="235" customHeight="1" spans="1:9">
+    <row r="159" ht="295" customHeight="1" spans="1:9">
       <c r="A159" s="63"/>
       <c r="B159" s="64"/>
       <c r="C159" s="73" t="s">
@@ -41155,14 +41167,14 @@
       </c>
       <c r="D159" s="74"/>
       <c r="E159" s="87">
-        <v>351.3</v>
+        <v>428.5</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
       <c r="H159" s="14"/>
       <c r="I159" s="48"/>
     </row>
-    <row r="160" ht="200" customHeight="1" spans="1:9">
+    <row r="160" ht="274" customHeight="1" spans="1:9">
       <c r="A160" s="63"/>
       <c r="B160" s="64"/>
       <c r="C160" s="73" t="s">
@@ -41170,7 +41182,7 @@
       </c>
       <c r="D160" s="125"/>
       <c r="E160" s="87">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
@@ -41215,7 +41227,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -41306,7 +41318,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -41580,7 +41592,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>629.22</v>
+        <v>498.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -42069,8 +42081,8 @@
   <sheetPr/>
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -42104,7 +42116,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -42118,7 +42130,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>236.22</v>
+        <v>355.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -42132,7 +42144,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>1040.44</v>
+        <v>1028.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -42148,7 +42160,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-2653</v>
+        <v>-2903</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -43647,7 +43659,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-1570</v>
+        <v>-1820</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -43843,7 +43855,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-2653</v>
+        <v>-2903</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -43859,7 +43871,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-3003</v>
+        <v>-3253</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -43953,7 +43965,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="89" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>629.22</v>
+        <v>498.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -44227,7 +44239,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>595.22</v>
+        <v>464.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -44319,7 +44331,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>595.22</v>
+        <v>464.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -44345,11 +44357,11 @@
       <c r="A145" s="63"/>
       <c r="B145" s="64"/>
       <c r="C145" s="74" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F145" s="14"/>
       <c r="G145" s="14"/>
@@ -44490,7 +44502,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -44593,7 +44605,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>370.22</v>
+        <v>339.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44685,7 +44697,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>370.22</v>
+        <v>339.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44711,11 +44723,11 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
@@ -44959,7 +44971,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>236.22</v>
+        <v>355.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45489,8 +45501,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -45524,7 +45536,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -45540,7 +45552,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>269.22</v>
+        <v>621.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45556,7 +45568,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>1073.44</v>
+        <v>1294.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -45572,7 +45584,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>0</v>
+        <v>-483</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -47171,7 +47183,7 @@
       </c>
       <c r="C103" s="37" cm="1">
         <f ca="1" t="array" ref="C103">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!C103")+SUM(E123+E150+E177)</f>
-        <v>0</v>
+        <v>-483</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -47267,7 +47279,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>0</v>
+        <v>-483</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -47283,7 +47295,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-350</v>
+        <v>-833</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -47377,7 +47389,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>236.22</v>
+        <v>355.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -47651,7 +47663,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>361.22</v>
+        <v>480.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47743,7 +47755,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>361.22</v>
+        <v>480.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -48019,7 +48031,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>357.22</v>
+        <v>476.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -48111,7 +48123,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>357.22</v>
+        <v>476.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -48136,10 +48148,12 @@
     <row r="172" ht="24.75" customHeight="1" spans="1:9">
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
-      <c r="C172" s="74"/>
+      <c r="C172" s="74" t="s">
+        <v>136</v>
+      </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
@@ -48202,11 +48216,11 @@
       <c r="A177" s="63"/>
       <c r="B177" s="64"/>
       <c r="C177" s="65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D177" s="66"/>
       <c r="E177" s="37">
-        <v>883</v>
+        <v>400</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
@@ -48282,7 +48296,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -48385,7 +48399,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>269.22</v>
+        <v>621.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48924,8 +48938,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157:D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -48960,7 +48974,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -48976,7 +48990,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>2886.22</v>
+        <v>2755.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -48992,7 +49006,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>3690.44</v>
+        <v>3428.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -50813,7 +50827,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>269.22</v>
+        <v>621.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50903,10 +50917,12 @@
     <row r="123" ht="24.75" customHeight="1" spans="1:9">
       <c r="A123" s="63"/>
       <c r="B123" s="64"/>
-      <c r="C123" s="65"/>
+      <c r="C123" s="65" t="s">
+        <v>139</v>
+      </c>
       <c r="D123" s="66"/>
       <c r="E123" s="37">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
@@ -51085,7 +51101,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1285.22</v>
+        <v>1154.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -51177,7 +51193,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1285.22</v>
+        <v>1154.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -51346,7 +51362,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -51449,7 +51465,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1870.22</v>
+        <v>1739.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51541,7 +51557,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1870.22</v>
+        <v>1739.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51813,7 +51829,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>2886.22</v>
+        <v>2755.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -52346,7 +52362,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -52362,7 +52378,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>6215.22</v>
+        <v>6084.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -52378,7 +52394,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>7019.44</v>
+        <v>6757.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -54203,7 +54219,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>2886.22</v>
+        <v>2755.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -54372,7 +54388,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -54475,7 +54491,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>3631.22</v>
+        <v>3500.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54567,7 +54583,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>3631.22</v>
+        <v>3500.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54736,7 +54752,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -54839,7 +54855,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>5570.22</v>
+        <v>5439.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54931,7 +54947,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>5570.22</v>
+        <v>5439.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -55100,7 +55116,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -55203,7 +55219,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>6215.22</v>
+        <v>6084.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55733,7 +55749,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>804.22</v>
+        <v>673.02</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -55749,7 +55765,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>8832.22</v>
+        <v>8701.02</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55765,7 +55781,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>9636.44</v>
+        <v>9374.04</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -55864,7 +55880,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:9">
       <c r="A11" s="101" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -57588,7 +57604,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>6215.22</v>
+        <v>6084.02</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57860,7 +57876,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>7231.22</v>
+        <v>7100.02</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57952,7 +57968,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>7231.22</v>
+        <v>7100.02</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -58121,7 +58137,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -58224,7 +58240,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>7816.22</v>
+        <v>7685.02</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -58316,7 +58332,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>7816.22</v>
+        <v>7685.02</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -58588,7 +58604,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>8832.22</v>
+        <v>8701.02</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>

--- a/Income And Expenses Forecast Demo.xlsx
+++ b/Income And Expenses Forecast Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21480" activeTab="2"/>
+    <workbookView windowHeight="21480"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="18" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="148">
   <si>
     <t>Income Forecast</t>
   </si>
@@ -477,7 +477,7 @@
 ~ Transport for Cigarette Buds ~ $50</t>
   </si>
   <si>
-    <t>~ Apple Music one month
+    <t>~ Apple Music 2 month
 ~ Top Up For Mobile And Comunication ~ $0.6
 ~ 20th May 2025 - Top Up For Octopus $50 (Don't need to Include)
 ~ 23rd May 2025 - Top Up For Octopus $100 (Don't need to Include)</t>
@@ -514,13 +514,14 @@
 ~ Pharmacy Sentalize Solutions ~ $20
 ~ Round Trip to East Kowloon Hospital ~ $4
 ~ Watsons ~ Asprin Like medicine ~ $49
-~ Wellcome ~ Plastic bag ~ $1</t>
+~ Wellcome ~ Plastic bag ~ $1
+~ Spring Sunday Aspirin tablets ~ $276.04</t>
   </si>
   <si>
     <t>Balance Brought Forward From July 2024</t>
   </si>
   <si>
-    <t>~ Payback $1100 to Mom</t>
+    <t>~ Payback $700 to Mom</t>
   </si>
   <si>
     <t>- See the Doctor ~ $110
@@ -540,7 +541,7 @@
     <t>~ Buy Cigarette Buds ~ $650</t>
   </si>
   <si>
-    <t>~ Payback $1000 to Mom</t>
+    <t>~ Payback $800 to Mom</t>
   </si>
   <si>
     <t>- See the Doctor ~ $110
@@ -548,7 +549,7 @@
 ~ See the Doctor For Blood Pressure ~ $50</t>
   </si>
   <si>
-    <t>~ Payback $800 to Mom</t>
+    <t>~ Payback $1000 to Mom</t>
   </si>
   <si>
     <t>~ Payback $770 to Mom</t>
@@ -562,7 +563,7 @@
 ~ See the Doctor For Blood Pressure ~ $50</t>
   </si>
   <si>
-    <t>~ Payback $250 to Mom</t>
+    <t>~ Payback $350 to Mom</t>
   </si>
   <si>
     <t>~ Payback $400 for Mom Air Ticket</t>
@@ -570,6 +571,9 @@
   <si>
     <t>- See the Doctor ~ $240
 - Buy Cigarette Buds ~ $650</t>
+  </si>
+  <si>
+    <t>~ Payback $500 to Mom</t>
   </si>
   <si>
     <t>~ Payback $483 for Mom Air Ticket</t>
@@ -3110,7 +3114,7 @@
   <sheetPr/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -4907,7 +4911,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4923,7 +4927,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>10897.02</v>
+        <v>10552.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -4939,7 +4943,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>11570.04</v>
+        <v>10881.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6760,7 +6764,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B27")&amp;"'!E190")</f>
-        <v>8701.02</v>
+        <v>8356.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -6929,7 +6933,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -7032,7 +7036,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>9446.02</v>
+        <v>9101.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -7124,7 +7128,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>9446.02</v>
+        <v>9101.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -7293,7 +7297,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -7396,7 +7400,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>10302.02</v>
+        <v>9957.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -7488,7 +7492,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>10302.02</v>
+        <v>9957.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -7657,7 +7661,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -7760,7 +7764,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>10897.02</v>
+        <v>10552.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -8276,7 +8280,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -8292,7 +8296,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>13514.02</v>
+        <v>13169.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -8308,7 +8312,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>14187.04</v>
+        <v>13498.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -10129,7 +10133,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B30")&amp;"'!E190")</f>
-        <v>10897.02</v>
+        <v>10552.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -10401,7 +10405,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>11913.02</v>
+        <v>11568.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -10493,7 +10497,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>11913.02</v>
+        <v>11568.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -10662,7 +10666,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -10765,7 +10769,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>12498.02</v>
+        <v>12153.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10857,7 +10861,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>12498.02</v>
+        <v>12153.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -11129,7 +11133,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>13514.02</v>
+        <v>13169.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -11641,7 +11645,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11657,7 +11661,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>18264.02</v>
+        <v>17919.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -11673,7 +11677,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>18937.04</v>
+        <v>18248.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -13498,7 +13502,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B33")&amp;"'!E190")</f>
-        <v>13514.02</v>
+        <v>13169.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -13770,7 +13774,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>14880.02</v>
+        <v>14535.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -13862,7 +13866,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>14880.02</v>
+        <v>14535.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -14031,7 +14035,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -14134,7 +14138,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>16898.02</v>
+        <v>16553.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -14226,7 +14230,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>16898.02</v>
+        <v>16553.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -14498,7 +14502,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>18264.02</v>
+        <v>17919.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -15008,7 +15012,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -15024,7 +15028,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>20460.02</v>
+        <v>20115.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -15040,7 +15044,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>21133.04</v>
+        <v>20444.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -16861,7 +16865,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B36")&amp;"'!E190")</f>
-        <v>18264.02</v>
+        <v>17919.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -17030,7 +17034,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -17133,7 +17137,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>19009.02</v>
+        <v>18664.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -17225,7 +17229,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>19009.02</v>
+        <v>18664.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -17394,7 +17398,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -17497,7 +17501,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>19865.02</v>
+        <v>19520.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -17589,7 +17593,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>19865.02</v>
+        <v>19520.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -17758,7 +17762,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -17861,7 +17865,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>20460.02</v>
+        <v>20115.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -18378,7 +18382,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -18394,7 +18398,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>23077.02</v>
+        <v>22732.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -18410,7 +18414,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>23750.04</v>
+        <v>23061.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -20231,7 +20235,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B39")&amp;"'!E190")</f>
-        <v>20460.02</v>
+        <v>20115.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -20503,7 +20507,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>21476.02</v>
+        <v>21131.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -20595,7 +20599,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>21476.02</v>
+        <v>21131.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -20764,7 +20768,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -20867,7 +20871,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>22061.02</v>
+        <v>21716.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -20959,7 +20963,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>22061.02</v>
+        <v>21716.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -21231,7 +21235,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>23077.02</v>
+        <v>22732.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -21741,7 +21745,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -21757,7 +21761,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>25363.02</v>
+        <v>25018.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -21773,7 +21777,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>26036.04</v>
+        <v>25347.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -23594,7 +23598,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B42")&amp;"'!E190")</f>
-        <v>23077.02</v>
+        <v>22732.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -23866,7 +23870,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>23872.02</v>
+        <v>23527.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -23958,7 +23962,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>23872.02</v>
+        <v>23527.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -24127,7 +24131,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -24230,7 +24234,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>24728.02</v>
+        <v>24383.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -24322,7 +24326,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>24728.02</v>
+        <v>24383.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -24491,7 +24495,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -24594,7 +24598,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>25363.02</v>
+        <v>25018.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -25110,7 +25114,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -25126,7 +25130,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>29063.02</v>
+        <v>28718.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -25142,7 +25146,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>29736.04</v>
+        <v>29047.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -26967,7 +26971,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B45")&amp;"'!E190")</f>
-        <v>25363.02</v>
+        <v>25018.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -27239,7 +27243,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>26379.02</v>
+        <v>26034.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -27331,7 +27335,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>26379.02</v>
+        <v>26034.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -27500,7 +27504,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -27603,7 +27607,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>28047.02</v>
+        <v>27702.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -27695,7 +27699,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>28047.02</v>
+        <v>27702.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27967,7 +27971,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>29063.02</v>
+        <v>28718.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -28464,7 +28468,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -28480,7 +28484,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>31459.02</v>
+        <v>31114.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -28496,7 +28500,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>32132.04</v>
+        <v>31443.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -30086,7 +30090,7 @@
         <v>Bankruptcy Department / Bank</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C102" s="37" cm="1">
         <f ca="1" t="array" ref="C102">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!C102")+SUM(E122+E149+E176)</f>
@@ -30316,7 +30320,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B48")&amp;"'!E190")</f>
-        <v>29063.02</v>
+        <v>28718.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -30588,7 +30592,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>29858.02</v>
+        <v>29513.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -30680,7 +30684,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>29858.02</v>
+        <v>29513.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -30849,7 +30853,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -30952,7 +30956,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>30714.02</v>
+        <v>30369.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -31044,7 +31048,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>30714.02</v>
+        <v>30369.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -31213,7 +31217,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -31316,7 +31320,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>31459.02</v>
+        <v>31114.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -31820,7 +31824,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -31836,7 +31840,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>34076.02</v>
+        <v>33731.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -31852,7 +31856,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>34749.04</v>
+        <v>34060.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -33673,7 +33677,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B51")&amp;"'!E190")</f>
-        <v>31459.02</v>
+        <v>31114.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -33945,7 +33949,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>32475.02</v>
+        <v>32130.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -34037,7 +34041,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>32475.02</v>
+        <v>32130.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -34206,7 +34210,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -34309,7 +34313,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>33060.02</v>
+        <v>32715.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -34401,7 +34405,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>33060.02</v>
+        <v>32715.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -34673,7 +34677,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>34076.02</v>
+        <v>33731.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -35675,8 +35679,8 @@
   <sheetPr/>
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -35787,7 +35791,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="187">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I4" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,1),"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)+1,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,2)-1,"dd mmmm yyyy"),TEXT(Main!B3+(Main!B5-Main!B3)*2+1,"dd mmmm yyyy"))</f>
@@ -35803,7 +35807,7 @@
       </c>
       <c r="N4" s="196">
         <f ca="1">'April 2025 - June 2025'!C5</f>
-        <v>-5953</v>
+        <v>-6353</v>
       </c>
     </row>
     <row r="5" ht="35.25" customHeight="1" spans="1:14">
@@ -35835,7 +35839,7 @@
       </c>
       <c r="N5" s="196">
         <f ca="1">'July 2025 - September 2025'!C5</f>
-        <v>-2903</v>
+        <v>-3503</v>
       </c>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:14">
@@ -35867,7 +35871,7 @@
       </c>
       <c r="N6" s="196">
         <f ca="1">'October 2025 - December 2025'!C5</f>
-        <v>-483</v>
+        <v>-983</v>
       </c>
     </row>
     <row r="7" ht="35.25" customHeight="1" spans="1:14">
@@ -35876,7 +35880,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="159">
-        <v>636.2</v>
+        <v>292.16</v>
       </c>
       <c r="D7" s="161"/>
       <c r="E7" s="5" t="s">
@@ -35891,7 +35895,7 @@
       </c>
       <c r="J7" s="196">
         <f ca="1">'April 2025 - June 2025'!E163</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="M7" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,12),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*12+12),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,15)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+14),"dd mmmm yyyy"))</f>
@@ -35924,7 +35928,7 @@
       </c>
       <c r="J8" s="196">
         <f ca="1">'April 2025 - June 2025'!E190</f>
-        <v>498.02</v>
+        <v>553.98</v>
       </c>
       <c r="M8" s="204" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,15),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*15+15),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,18)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+17),"dd mmmm yyyy"))</f>
@@ -35956,7 +35960,7 @@
       </c>
       <c r="J9" s="196">
         <f ca="1">'July 2025 - September 2025'!E136</f>
-        <v>464.02</v>
+        <v>519.98</v>
       </c>
       <c r="M9" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,18),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*18+18),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,21)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+20),"dd mmmm yyyy"))</f>
@@ -35988,7 +35992,7 @@
       </c>
       <c r="J10" s="196">
         <f ca="1">'July 2025 - September 2025'!E163</f>
-        <v>339.02</v>
+        <v>594.98</v>
       </c>
       <c r="M10" s="206" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,21),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*21+21),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,24)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+23),"dd mmmm yyyy"))</f>
@@ -36021,7 +36025,7 @@
       </c>
       <c r="J11" s="196">
         <f ca="1">'July 2025 - September 2025'!E190</f>
-        <v>355.02</v>
+        <v>610.98</v>
       </c>
       <c r="M11" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,24),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*24+24),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,27)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+26),"dd mmmm yyyy"))</f>
@@ -36053,7 +36057,7 @@
       </c>
       <c r="J12" s="196">
         <f ca="1">'October 2025 - December 2025'!E136</f>
-        <v>480.02</v>
+        <v>735.98</v>
       </c>
       <c r="M12" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,27),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*27+27),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,30)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+29),"dd mmmm yyyy"))</f>
@@ -36085,7 +36089,7 @@
       </c>
       <c r="J13" s="196">
         <f ca="1">'October 2025 - December 2025'!E163</f>
-        <v>476.02</v>
+        <v>731.98</v>
       </c>
       <c r="M13" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,30),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*30+30),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,33)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+32),"dd mmmm yyyy"))</f>
@@ -36117,7 +36121,7 @@
       </c>
       <c r="J14" s="200">
         <f ca="1">'October 2025 - December 2025'!E190</f>
-        <v>621.02</v>
+        <v>776.98</v>
       </c>
       <c r="M14" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,33),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*33+33),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,36)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+35),"dd mmmm yyyy"))</f>
@@ -36149,7 +36153,7 @@
       </c>
       <c r="J15" s="200">
         <f ca="1">'January 2026 - March 2026'!E136</f>
-        <v>1154.02</v>
+        <v>809.98</v>
       </c>
       <c r="M15" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,36),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*36+36),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,39)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+38),"dd mmmm yyyy"))</f>
@@ -36167,7 +36171,7 @@
       </c>
       <c r="C16" s="165">
         <f>SUM(C3:C15)</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D16" s="166"/>
       <c r="E16" s="164" t="s">
@@ -36175,7 +36179,7 @@
       </c>
       <c r="F16" s="190">
         <f>SUM(F3:F15)</f>
-        <v>723.02</v>
+        <v>673.02</v>
       </c>
       <c r="I16" s="201" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,13),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*13)+13,"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,14)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*14+13),"dd mmmm yyyy"))</f>
@@ -36183,7 +36187,7 @@
       </c>
       <c r="J16" s="200">
         <f ca="1">'January 2026 - March 2026'!E163</f>
-        <v>1739.02</v>
+        <v>1394.98</v>
       </c>
       <c r="M16" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,39),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*39+39),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,42)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+41),"dd mmmm yyyy"))</f>
@@ -36201,7 +36205,7 @@
       </c>
       <c r="J17" s="200">
         <f ca="1">'January 2026 - March 2026'!E190</f>
-        <v>2755.02</v>
+        <v>2410.98</v>
       </c>
       <c r="M17" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,42),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*42+42),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,45)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+44),"dd mmmm yyyy"))</f>
@@ -36219,7 +36223,7 @@
       </c>
       <c r="J18" s="200">
         <f ca="1">'April 2026 - June 2026'!E136</f>
-        <v>3500.02</v>
+        <v>3155.98</v>
       </c>
       <c r="M18" s="197" t="str">
         <f>IF(Main!B2,TEXT(EDATE(Main!B3,45),"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*45+45),"dd mmmm yyyy"))&amp;" - "&amp;IF(Main!B2,TEXT(EDATE(Main!B3,48)-1,"dd mmmm yyyy"),TEXT(Main!B3+((Main!B5-Main!B3)*48+47),"dd mmmm yyyy"))</f>
@@ -36237,7 +36241,7 @@
       </c>
       <c r="J19" s="200">
         <f ca="1">'April 2026 - June 2026'!E163</f>
-        <v>5439.02</v>
+        <v>5094.98</v>
       </c>
     </row>
     <row r="20" ht="35.25" customHeight="1" spans="9:10">
@@ -36247,7 +36251,7 @@
       </c>
       <c r="J20" s="200">
         <f ca="1">'April 2026 - June 2026'!E190</f>
-        <v>6084.02</v>
+        <v>5739.98</v>
       </c>
     </row>
     <row r="21" ht="35.25" customHeight="1" spans="9:10">
@@ -36257,7 +36261,7 @@
       </c>
       <c r="J21" s="200">
         <f ca="1">'July 2026 - September 2026'!E136</f>
-        <v>7100.02</v>
+        <v>6755.98</v>
       </c>
     </row>
     <row r="22" ht="24.75" customHeight="1" spans="1:10">
@@ -36277,7 +36281,7 @@
       </c>
       <c r="J22" s="200">
         <f ca="1">'July 2026 - September 2026'!E163</f>
-        <v>7685.02</v>
+        <v>7340.98</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:10">
@@ -36302,7 +36306,7 @@
       </c>
       <c r="J23" s="200">
         <f ca="1">'July 2026 - September 2026'!E190</f>
-        <v>8701.02</v>
+        <v>8356.98</v>
       </c>
     </row>
     <row r="24" ht="33" customHeight="1" spans="1:10">
@@ -36321,7 +36325,7 @@
       </c>
       <c r="J24" s="200">
         <f ca="1">'October 2026 - December 2026'!E136</f>
-        <v>9446.02</v>
+        <v>9101.98</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
@@ -36340,7 +36344,7 @@
       </c>
       <c r="J25" s="200">
         <f ca="1">'October 2026 - December 2026'!E163</f>
-        <v>10302.02</v>
+        <v>9957.98</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
@@ -36359,7 +36363,7 @@
       </c>
       <c r="J26" s="200">
         <f ca="1">'October 2026 - December 2026'!E190</f>
-        <v>10897.02</v>
+        <v>10552.98</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
@@ -36378,7 +36382,7 @@
       </c>
       <c r="J27" s="200">
         <f ca="1">'January 2027 - March 2027'!E136</f>
-        <v>11913.02</v>
+        <v>11568.98</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
@@ -36397,7 +36401,7 @@
       </c>
       <c r="J28" s="200">
         <f ca="1">'January 2027 - March 2027'!E163</f>
-        <v>12498.02</v>
+        <v>12153.98</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
@@ -36416,7 +36420,7 @@
       </c>
       <c r="J29" s="196">
         <f ca="1">'January 2027 - March 2027'!E190</f>
-        <v>13514.02</v>
+        <v>13169.98</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
@@ -36438,7 +36442,7 @@
       </c>
       <c r="J30" s="202">
         <f ca="1">'April 2027 - June 2027'!E136</f>
-        <v>14880.02</v>
+        <v>14535.98</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="9:10">
@@ -36448,7 +36452,7 @@
       </c>
       <c r="J31" s="200">
         <f ca="1">'April 2027 - June 2027'!E163</f>
-        <v>16898.02</v>
+        <v>16553.98</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="9:10">
@@ -36458,7 +36462,7 @@
       </c>
       <c r="J32" s="200">
         <f ca="1">'April 2027 - June 2027'!E190</f>
-        <v>18264.02</v>
+        <v>17919.98</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="9:10">
@@ -36468,7 +36472,7 @@
       </c>
       <c r="J33" s="200">
         <f ca="1">'July 2027 - September 2027'!E136</f>
-        <v>19009.02</v>
+        <v>18664.98</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
@@ -36488,7 +36492,7 @@
       </c>
       <c r="J34" s="200">
         <f ca="1">'July 2027 - September 2027'!E163</f>
-        <v>19865.02</v>
+        <v>19520.98</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:10">
@@ -36513,7 +36517,7 @@
       </c>
       <c r="J35" s="200">
         <f ca="1">'July 2027 - September 2027'!E190</f>
-        <v>20460.02</v>
+        <v>20115.98</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:10">
@@ -36536,7 +36540,7 @@
       </c>
       <c r="J36" s="200">
         <f ca="1">'October 2027 - December 2027'!E136</f>
-        <v>21476.02</v>
+        <v>21131.98</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:10">
@@ -36555,7 +36559,7 @@
       </c>
       <c r="J37" s="200">
         <f ca="1">'October 2027 - December 2027'!E163</f>
-        <v>22061.02</v>
+        <v>21716.98</v>
       </c>
     </row>
     <row r="38" ht="20.25" customHeight="1" spans="1:10">
@@ -36574,7 +36578,7 @@
       </c>
       <c r="J38" s="200">
         <f ca="1">'October 2027 - December 2027'!E190</f>
-        <v>23077.02</v>
+        <v>22732.98</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:10">
@@ -36593,7 +36597,7 @@
       </c>
       <c r="J39" s="200">
         <f ca="1">'January 2028 - March 2028'!E136</f>
-        <v>23872.02</v>
+        <v>23527.98</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:10">
@@ -36612,7 +36616,7 @@
       </c>
       <c r="J40" s="200">
         <f ca="1">'January 2028 - March 2028'!E163</f>
-        <v>24728.02</v>
+        <v>24383.98</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:10">
@@ -36631,7 +36635,7 @@
       </c>
       <c r="J41" s="200">
         <f ca="1">'January 2028 - March 2028'!E190</f>
-        <v>25363.02</v>
+        <v>25018.98</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:10">
@@ -36653,7 +36657,7 @@
       </c>
       <c r="J42" s="200">
         <f ca="1">'April 2028 - June 2028'!E136</f>
-        <v>26379.02</v>
+        <v>26034.98</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="9:10">
@@ -36663,7 +36667,7 @@
       </c>
       <c r="J43" s="200">
         <f ca="1">'April 2028 - June 2028'!E163</f>
-        <v>28047.02</v>
+        <v>27702.98</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="9:10">
@@ -36673,7 +36677,7 @@
       </c>
       <c r="J44" s="200">
         <f ca="1">'April 2028 - June 2028'!E190</f>
-        <v>29063.02</v>
+        <v>28718.98</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="9:10">
@@ -36683,7 +36687,7 @@
       </c>
       <c r="J45" s="200">
         <f ca="1">'July 2028 - September 2028'!E136</f>
-        <v>29858.02</v>
+        <v>29513.98</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:10">
@@ -36703,7 +36707,7 @@
       </c>
       <c r="J46" s="200">
         <f ca="1">'July 2028 - September 2028'!E163</f>
-        <v>30714.02</v>
+        <v>30369.98</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:10">
@@ -36728,7 +36732,7 @@
       </c>
       <c r="J47" s="200">
         <f ca="1">'July 2028 - September 2028'!E190</f>
-        <v>31459.02</v>
+        <v>31114.98</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:10">
@@ -36751,7 +36755,7 @@
       </c>
       <c r="J48" s="200">
         <f ca="1">'October 2028 - December 2028'!E136</f>
-        <v>32475.02</v>
+        <v>32130.98</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:10">
@@ -36770,7 +36774,7 @@
       </c>
       <c r="J49" s="200">
         <f ca="1">'October 2028 - December 2028'!E163</f>
-        <v>33060.02</v>
+        <v>32715.98</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:10">
@@ -36789,7 +36793,7 @@
       </c>
       <c r="J50" s="196">
         <f ca="1">'October 2028 - December 2028'!E190</f>
-        <v>34076.02</v>
+        <v>33731.98</v>
       </c>
     </row>
     <row r="51" ht="41.1" customHeight="1" spans="1:7">
@@ -38653,8 +38657,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -38691,7 +38695,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -38705,7 +38709,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>498.02</v>
+        <v>553.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -38719,7 +38723,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>1171.04</v>
+        <v>882.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -38735,7 +38739,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-5953</v>
+        <v>-6353</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -40274,7 +40278,7 @@
       </c>
       <c r="C98" s="106" cm="1">
         <f ca="1" t="array" ref="C98">(((INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E131")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E158")+INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!E185")))+SUM(E118+E145+E172))-INDIRECT("'"&amp;INDIRECT("Main!B9")&amp;"'!C112")</f>
-        <v>-4870</v>
+        <v>-5270</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -40469,7 +40473,7 @@
       </c>
       <c r="C108" s="106">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-5953</v>
+        <v>-6353</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -40485,7 +40489,7 @@
       </c>
       <c r="C109" s="106">
         <f ca="1">C108-C96</f>
-        <v>-6372.99</v>
+        <v>-6772.99</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -41152,7 +41156,7 @@
       </c>
       <c r="D158" s="74"/>
       <c r="E158" s="87">
-        <v>68.6</v>
+        <v>136.6</v>
       </c>
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
@@ -41182,7 +41186,7 @@
       </c>
       <c r="D160" s="125"/>
       <c r="E160" s="87">
-        <v>344</v>
+        <v>620.04</v>
       </c>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
@@ -41227,7 +41231,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -41318,7 +41322,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -41348,7 +41352,7 @@
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
@@ -41592,7 +41596,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>498.02</v>
+        <v>553.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -42082,7 +42086,7 @@
   <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -42116,7 +42120,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -42130,7 +42134,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>355.02</v>
+        <v>610.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -42144,7 +42148,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>1028.04</v>
+        <v>939.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -42160,7 +42164,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-2903</v>
+        <v>-3503</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -43659,7 +43663,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>-1820</v>
+        <v>-2420</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -43855,7 +43859,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-2903</v>
+        <v>-3503</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -43871,7 +43875,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-3253</v>
+        <v>-3853</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -43965,7 +43969,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="89" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B12")&amp;"'!E190")</f>
-        <v>498.02</v>
+        <v>553.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -44239,7 +44243,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>464.02</v>
+        <v>519.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -44331,7 +44335,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>464.02</v>
+        <v>519.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -44361,7 +44365,7 @@
       </c>
       <c r="D145" s="74"/>
       <c r="E145" s="37">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F145" s="14"/>
       <c r="G145" s="14"/>
@@ -44605,7 +44609,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>339.02</v>
+        <v>594.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -44697,7 +44701,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>339.02</v>
+        <v>594.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -44723,7 +44727,7 @@
       <c r="A172" s="63"/>
       <c r="B172" s="64"/>
       <c r="C172" s="74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
@@ -44971,7 +44975,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>355.02</v>
+        <v>610.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -45501,8 +45505,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -45536,7 +45540,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -45552,7 +45556,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>621.02</v>
+        <v>776.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -45568,7 +45572,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>1294.04</v>
+        <v>1105.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -45584,7 +45588,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12">
         <f ca="1">C108</f>
-        <v>-483</v>
+        <v>-983</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -47083,7 +47087,7 @@
       </c>
       <c r="C98" s="37" cm="1">
         <f ca="1" t="array" ref="C98">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!C98")+SUM(E118+E145+E172)</f>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="96"/>
@@ -47279,7 +47283,7 @@
       </c>
       <c r="C108" s="37">
         <f ca="1">SUM(C98:C107)</f>
-        <v>-483</v>
+        <v>-983</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -47295,7 +47299,7 @@
       </c>
       <c r="C109" s="37">
         <f ca="1">C108-C96</f>
-        <v>-833</v>
+        <v>-1333</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -47389,7 +47393,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B15")&amp;"'!E190")</f>
-        <v>355.02</v>
+        <v>610.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -47415,7 +47419,7 @@
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
       <c r="C118" s="74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="37">
@@ -47663,7 +47667,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>480.02</v>
+        <v>735.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -47755,7 +47759,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>480.02</v>
+        <v>735.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -48031,7 +48035,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>476.02</v>
+        <v>731.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -48123,7 +48127,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>476.02</v>
+        <v>731.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -48153,7 +48157,7 @@
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="37">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
@@ -48399,7 +48403,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>621.02</v>
+        <v>776.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -48938,8 +48942,8 @@
   <sheetPr/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157:D157"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -48974,7 +48978,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -48990,7 +48994,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>2755.02</v>
+        <v>2410.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -49006,7 +49010,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>3428.04</v>
+        <v>2739.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -50827,7 +50831,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B18")&amp;"'!E190")</f>
-        <v>621.02</v>
+        <v>776.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -50852,10 +50856,12 @@
     <row r="118" ht="24.75" customHeight="1" spans="1:9">
       <c r="A118" s="63"/>
       <c r="B118" s="64"/>
-      <c r="C118" s="74"/>
+      <c r="C118" s="74" t="s">
+        <v>139</v>
+      </c>
       <c r="D118" s="74"/>
       <c r="E118" s="87">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
@@ -50918,7 +50924,7 @@
       <c r="A123" s="63"/>
       <c r="B123" s="64"/>
       <c r="C123" s="65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D123" s="66"/>
       <c r="E123" s="37">
@@ -51101,7 +51107,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>1154.02</v>
+        <v>809.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -51193,7 +51199,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>1154.02</v>
+        <v>809.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -51362,7 +51368,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -51465,7 +51471,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>1739.02</v>
+        <v>1394.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -51557,7 +51563,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>1739.02</v>
+        <v>1394.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -51829,7 +51835,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>2755.02</v>
+        <v>2410.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -52362,7 +52368,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -52378,7 +52384,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>6084.02</v>
+        <v>5739.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -52394,7 +52400,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>6757.04</v>
+        <v>6068.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -54219,7 +54225,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B21")&amp;"'!E190")</f>
-        <v>2755.02</v>
+        <v>2410.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -54388,7 +54394,7 @@
       <c r="A129" s="63"/>
       <c r="B129" s="64"/>
       <c r="C129" s="73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="87">
@@ -54491,7 +54497,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>3500.02</v>
+        <v>3155.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -54583,7 +54589,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>3500.02</v>
+        <v>3155.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -54752,7 +54758,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -54855,7 +54861,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>5439.02</v>
+        <v>5094.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -54947,7 +54953,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>5439.02</v>
+        <v>5094.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -55116,7 +55122,7 @@
       <c r="A183" s="63"/>
       <c r="B183" s="64"/>
       <c r="C183" s="73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D183" s="74"/>
       <c r="E183" s="87">
@@ -55219,7 +55225,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>6084.02</v>
+        <v>5739.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
@@ -55749,7 +55755,7 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f ca="1" t="array" ref="C2">INDIRECT("'"&amp;Main!B9&amp;"'!$C$16")</f>
-        <v>673.02</v>
+        <v>328.98</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -55765,7 +55771,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">E190</f>
-        <v>8701.02</v>
+        <v>8356.98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -55781,7 +55787,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10">
         <f ca="1">SUM(C2:G3)</f>
-        <v>9374.04</v>
+        <v>8685.96</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -55880,7 +55886,7 @@
     </row>
     <row r="11" ht="24.75" customHeight="1" spans="1:9">
       <c r="A11" s="101" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -57604,7 +57610,7 @@
       <c r="D116" s="58"/>
       <c r="E116" s="71" cm="1">
         <f ca="1" t="array" ref="E116">INDIRECT("'"&amp;INDIRECT("Main!B24")&amp;"'!E190")</f>
-        <v>6084.02</v>
+        <v>5739.98</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -57876,7 +57882,7 @@
       <c r="D136" s="82"/>
       <c r="E136" s="89">
         <f ca="1">(F16+E116)-(SUM(E118:E127)+SUM(E129:E135))</f>
-        <v>7100.02</v>
+        <v>6755.98</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -57968,7 +57974,7 @@
       <c r="D143" s="58"/>
       <c r="E143" s="89">
         <f ca="1">E136</f>
-        <v>7100.02</v>
+        <v>6755.98</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -58137,7 +58143,7 @@
       <c r="A156" s="63"/>
       <c r="B156" s="64"/>
       <c r="C156" s="73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="87">
@@ -58240,7 +58246,7 @@
       <c r="D163" s="82"/>
       <c r="E163" s="92">
         <f ca="1">(F28+E143)-(SUM(E145:E154)+SUM(E156:E162))</f>
-        <v>7685.02</v>
+        <v>7340.98</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -58332,7 +58338,7 @@
       <c r="D170" s="58"/>
       <c r="E170" s="92">
         <f ca="1">E163</f>
-        <v>7685.02</v>
+        <v>7340.98</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -58604,7 +58610,7 @@
       <c r="D190" s="82"/>
       <c r="E190" s="92">
         <f ca="1">(F40+E170)-(SUM(E172:E181)+SUM(E183:E189))</f>
-        <v>8701.02</v>
+        <v>8356.98</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
